--- a/data/Charity - SDG.xlsx
+++ b/data/Charity - SDG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmschroe/Documents/R_practice/VFSG_impact_2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D9C26-5448-074E-B422-52B98D9EE3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C9B26-38CF-1F4E-86DC-21D622342183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG Goals" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{438011F2-BD35-4558-B67A-FA45E9D046DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{EEB9587C-5644-49D4-9BD8-11648CAF20B7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{438011F2-BD35-4558-B67A-FA45E9D046DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="330">
   <si>
     <t>Project ID</t>
   </si>
@@ -1014,6 +1014,24 @@
   <si>
     <t>VFSG: Physicalizing Data for a Better World</t>
   </si>
+  <si>
+    <t>n_twitter_followers</t>
+  </si>
+  <si>
+    <t>used NextGen America</t>
+  </si>
+  <si>
+    <t>twitter_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used Papakow Baiden </t>
+  </si>
+  <si>
+    <t>used instagram instead</t>
+  </si>
+  <si>
+    <t>website no longer exists</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,7 +1040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1154,6 +1172,13 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1209,10 +1234,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1326,13 +1352,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1567,17 +1600,17 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="120.1640625" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="44" customWidth="1"/>
     <col min="6" max="24" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1594,8 +1627,12 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1630,7 +1667,9 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="42">
+        <v>1000000</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1666,7 +1705,9 @@
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="42">
+        <v>1000000</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1702,7 +1743,9 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1738,7 +1781,9 @@
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1774,7 +1819,9 @@
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1810,7 +1857,9 @@
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1846,7 +1895,9 @@
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="42">
+        <v>5134</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1882,7 +1933,9 @@
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="42">
+        <v>5134</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1918,7 +1971,9 @@
       <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="42">
+        <v>1472</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1954,8 +2009,12 @@
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="42">
+        <v>69300</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1990,8 +2049,12 @@
       <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="42">
+        <v>69300</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2026,7 +2089,9 @@
       <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="42">
+        <v>67900</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2062,7 +2127,9 @@
       <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="42">
+        <v>67900</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2098,7 +2165,9 @@
       <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="42">
+        <v>2214</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2134,7 +2203,9 @@
       <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="42">
+        <v>2214</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2170,7 +2241,9 @@
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="42">
+        <v>84400</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2206,7 +2279,9 @@
       <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="42">
+        <v>84400</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2242,7 +2317,9 @@
       <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="42">
+        <v>203600</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2278,7 +2355,9 @@
       <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="42">
+        <v>203600</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2314,7 +2393,9 @@
       <c r="D21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="42">
+        <v>1900000</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2350,7 +2431,9 @@
       <c r="D22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="42">
+        <v>1900000</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2386,7 +2469,9 @@
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="42">
+        <v>28</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2422,7 +2507,9 @@
       <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="42">
+        <v>28</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2458,7 +2545,9 @@
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="42">
+        <v>4912</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2494,7 +2583,9 @@
       <c r="D26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="42">
+        <v>4912</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2530,7 +2621,9 @@
       <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2566,7 +2659,9 @@
       <c r="D28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2602,7 +2697,9 @@
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2638,7 +2735,9 @@
       <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="42">
+        <v>9200000</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2674,8 +2773,12 @@
       <c r="D31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="42">
+        <v>282</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2710,7 +2813,9 @@
       <c r="D32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="42">
+        <v>10300</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2746,7 +2851,9 @@
       <c r="D33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="42">
+        <v>10300</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2780,7 +2887,9 @@
         <v>39</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="42">
+        <v>22500</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2814,7 +2923,9 @@
         <v>15</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="42">
+        <v>265</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2850,7 +2961,9 @@
       <c r="D36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="42">
+        <v>241100</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2886,7 +2999,9 @@
       <c r="D37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="42">
+        <v>241100</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2922,7 +3037,9 @@
       <c r="D38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="42">
+        <v>1900000</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2958,7 +3075,9 @@
       <c r="D39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="42">
+        <v>1900000</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2994,8 +3113,12 @@
       <c r="D40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="E40" s="42">
+        <v>123000</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -3030,8 +3153,12 @@
       <c r="D41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="42">
+        <v>123000</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3066,7 +3193,9 @@
       <c r="D42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="42">
+        <v>1608</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3102,7 +3231,9 @@
       <c r="D43" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="42">
+        <v>1608</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3136,8 +3267,12 @@
         <v>15</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="42">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3172,7 +3307,9 @@
       <c r="D45" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="42">
+        <v>539</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3208,7 +3345,9 @@
       <c r="D46" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="42">
+        <v>539</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3244,7 +3383,9 @@
       <c r="D47" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="42">
+        <v>4163</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3280,7 +3421,9 @@
       <c r="D48" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="42">
+        <v>4163</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3316,7 +3459,9 @@
       <c r="D49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="42">
+        <v>2678</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3352,7 +3497,9 @@
       <c r="D50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="42">
+        <v>2678</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3388,7 +3535,9 @@
       <c r="D51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="42">
+        <v>2678</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3424,7 +3573,9 @@
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="42">
+        <v>4188</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3460,7 +3611,9 @@
       <c r="D53" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="42">
+        <v>4188</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3496,7 +3649,9 @@
       <c r="D54" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="42">
+        <v>4188</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3532,7 +3687,9 @@
       <c r="D55" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="42">
+        <v>3813</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3568,7 +3725,9 @@
       <c r="D56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="42">
+        <v>3813</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3604,7 +3763,9 @@
       <c r="D57" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="42">
+        <v>3813</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3640,7 +3801,9 @@
       <c r="D58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="42">
+        <v>51</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3676,7 +3839,9 @@
       <c r="D59" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="42">
+        <v>51</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -3712,7 +3877,9 @@
       <c r="D60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="42">
+        <v>51</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -3748,7 +3915,9 @@
       <c r="D61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="42">
+        <v>110</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3784,7 +3953,9 @@
       <c r="D62" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="42">
+        <v>110</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3820,7 +3991,9 @@
       <c r="D63" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="42">
+        <v>110</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3856,7 +4029,9 @@
       <c r="D64" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="42">
+        <v>4163</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3892,7 +4067,9 @@
       <c r="D65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="42">
+        <v>4163</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3928,7 +4105,9 @@
       <c r="D66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="42">
+        <v>824</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3964,7 +4143,9 @@
       <c r="D67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="42">
+        <v>824</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -4000,7 +4181,9 @@
       <c r="D68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="42">
+        <v>2942</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -4036,7 +4219,9 @@
       <c r="D69" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="42">
+        <v>2942</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -4072,7 +4257,9 @@
       <c r="D70" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="42">
+        <v>2942</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4108,7 +4295,9 @@
       <c r="D71" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="42">
+        <v>2942</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4144,7 +4333,9 @@
       <c r="D72" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="42">
+        <v>2942</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4180,7 +4371,9 @@
       <c r="D73" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="42">
+        <v>2942</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -4216,7 +4409,9 @@
       <c r="D74" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="42">
+        <v>3353</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4252,7 +4447,9 @@
       <c r="D75" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="42">
+        <v>3353</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -4288,7 +4485,9 @@
       <c r="D76" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="42">
+        <v>3353</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4324,7 +4523,9 @@
       <c r="D77" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="42">
+        <v>220</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -4360,7 +4561,9 @@
       <c r="D78" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="42">
+        <v>220</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -4396,7 +4599,9 @@
       <c r="D79" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="42">
+        <v>220</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -4432,7 +4637,9 @@
       <c r="D80" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="41"/>
+      <c r="E80" s="42">
+        <v>77</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4468,7 +4675,9 @@
       <c r="D81" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="42">
+        <v>77</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -4504,7 +4713,9 @@
       <c r="D82" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="4"/>
+      <c r="E82" s="42">
+        <v>3907</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -4540,7 +4751,9 @@
       <c r="D83" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="42">
+        <v>3907</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -4576,7 +4789,9 @@
       <c r="D84" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="42">
+        <v>3907</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4612,7 +4827,9 @@
       <c r="D85" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="42">
+        <v>110</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -4648,7 +4865,9 @@
       <c r="D86" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="42">
+        <v>110</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -4684,7 +4903,9 @@
       <c r="D87" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="42">
+        <v>110</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -4720,7 +4941,9 @@
       <c r="D88" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="42">
+        <v>3353</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -4756,7 +4979,9 @@
       <c r="D89" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E89" s="4"/>
+      <c r="E89" s="42">
+        <v>3353</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -4792,7 +5017,9 @@
       <c r="D90" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="42">
+        <v>3353</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -4828,7 +5055,9 @@
       <c r="D91" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="42">
+        <v>256</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -4864,7 +5093,9 @@
       <c r="D92" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="42">
+        <v>256</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -4900,7 +5131,9 @@
       <c r="D93" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="42">
+        <v>256</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4936,7 +5169,9 @@
       <c r="D94" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="42">
+        <v>256</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4972,7 +5207,9 @@
       <c r="D95" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="42">
+        <v>132</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -5008,7 +5245,9 @@
       <c r="D96" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="42">
+        <v>132</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -5044,7 +5283,9 @@
       <c r="D97" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="42">
+        <v>132</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -5080,7 +5321,9 @@
       <c r="D98" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="42">
+        <v>132</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -5116,7 +5359,9 @@
       <c r="D99" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="42">
+        <v>2942</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -5152,7 +5397,9 @@
       <c r="D100" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="E100" s="42">
+        <v>2942</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -5188,7 +5435,9 @@
       <c r="D101" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="4"/>
+      <c r="E101" s="42">
+        <v>2942</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -5224,7 +5473,9 @@
       <c r="D102" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="42">
+        <v>2942</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -5260,7 +5511,9 @@
       <c r="D103" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="42">
+        <v>2942</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -5296,7 +5549,9 @@
       <c r="D104" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="42">
+        <v>2942</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -5332,7 +5587,9 @@
       <c r="D105" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="42">
+        <v>25300</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5368,7 +5625,9 @@
       <c r="D106" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="42">
+        <v>25300</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -5404,7 +5663,9 @@
       <c r="D107" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="42">
+        <v>15600</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -5440,7 +5701,9 @@
       <c r="D108" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="42">
+        <v>15600</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -5476,7 +5739,9 @@
       <c r="D109" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="42">
+        <v>15600</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -5512,7 +5777,9 @@
       <c r="D110" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="42">
+        <v>4493</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -5548,7 +5815,9 @@
       <c r="D111" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="42">
+        <v>4493</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -5584,7 +5853,9 @@
       <c r="D112" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="42">
+        <v>12300000</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -5620,7 +5891,9 @@
       <c r="D113" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="42">
+        <v>12300000</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -5656,7 +5929,9 @@
       <c r="D114" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="42">
+        <v>12300000</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -5692,7 +5967,9 @@
       <c r="D115" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="42">
+        <v>13300</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -5728,7 +6005,9 @@
       <c r="D116" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="42">
+        <v>13300</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5764,7 +6043,9 @@
       <c r="D117" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="42">
+        <v>4693</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -5798,7 +6079,9 @@
         <v>25</v>
       </c>
       <c r="D118" s="10"/>
-      <c r="E118" s="4"/>
+      <c r="E118" s="42">
+        <v>3353</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -5826,7 +6109,7 @@
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="42"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -5854,7 +6137,7 @@
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="42"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -5882,7 +6165,7 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="42"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5910,7 +6193,7 @@
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="10"/>
-      <c r="E122" s="4"/>
+      <c r="E122" s="42"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -5938,7 +6221,7 @@
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="10"/>
-      <c r="E123" s="4"/>
+      <c r="E123" s="42"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -5966,7 +6249,7 @@
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="4"/>
+      <c r="E124" s="42"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -5994,7 +6277,7 @@
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="10"/>
-      <c r="E125" s="4"/>
+      <c r="E125" s="42"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -6022,7 +6305,7 @@
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="42"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -6050,7 +6333,7 @@
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="42"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -6078,7 +6361,7 @@
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="42"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6106,7 +6389,7 @@
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="4"/>
+      <c r="E129" s="42"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -6134,7 +6417,7 @@
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="4"/>
+      <c r="E130" s="42"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -6162,7 +6445,7 @@
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -6190,7 +6473,7 @@
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="42"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -6218,7 +6501,7 @@
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="42"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -6246,7 +6529,7 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="42"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -6274,7 +6557,7 @@
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="10"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="42"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
@@ -6302,7 +6585,7 @@
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="42"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -6330,7 +6613,7 @@
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="42"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -6358,7 +6641,7 @@
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="42"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -6386,7 +6669,7 @@
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="10"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="42"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -6414,7 +6697,7 @@
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="42"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -6442,7 +6725,7 @@
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="10"/>
-      <c r="E141" s="4"/>
+      <c r="E141" s="42"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6470,7 +6753,7 @@
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="42"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -6498,7 +6781,7 @@
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="42"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -6526,7 +6809,7 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="42"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -6554,7 +6837,7 @@
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="42"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -6582,7 +6865,7 @@
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="4"/>
+      <c r="E146" s="42"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -6610,7 +6893,7 @@
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="42"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -6638,7 +6921,7 @@
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="42"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -6666,7 +6949,7 @@
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="42"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -6694,7 +6977,7 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="10"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="42"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -6722,7 +7005,7 @@
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="4"/>
+      <c r="E151" s="42"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -6750,7 +7033,7 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="10"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="42"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -6778,7 +7061,7 @@
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="42"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -6806,7 +7089,7 @@
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="42"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -6834,7 +7117,7 @@
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="42"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -6862,7 +7145,7 @@
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="4"/>
+      <c r="E156" s="42"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -6890,7 +7173,7 @@
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="4"/>
+      <c r="E157" s="42"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -6918,7 +7201,7 @@
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="4"/>
+      <c r="E158" s="42"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -6946,7 +7229,7 @@
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="4"/>
+      <c r="E159" s="42"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -6974,7 +7257,7 @@
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="42"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -7002,7 +7285,7 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="42"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -7030,7 +7313,7 @@
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="4"/>
+      <c r="E162" s="42"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -7058,7 +7341,7 @@
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="42"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -7086,7 +7369,7 @@
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="4"/>
+      <c r="E164" s="42"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -7114,7 +7397,7 @@
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="4"/>
+      <c r="E165" s="42"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -7142,7 +7425,7 @@
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="42"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -7170,7 +7453,7 @@
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="42"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7198,7 +7481,7 @@
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="4"/>
+      <c r="E168" s="42"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -7226,7 +7509,7 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="4"/>
+      <c r="E169" s="42"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -7254,7 +7537,7 @@
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="4"/>
+      <c r="E170" s="42"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -7282,7 +7565,7 @@
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="4"/>
+      <c r="E171" s="42"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -7310,7 +7593,7 @@
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="42"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -7338,7 +7621,7 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="42"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -7366,7 +7649,7 @@
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="4"/>
+      <c r="E174" s="42"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -7394,7 +7677,7 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="4"/>
+      <c r="E175" s="42"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7422,7 +7705,7 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="4"/>
+      <c r="E176" s="42"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -7450,7 +7733,7 @@
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="42"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -7478,7 +7761,7 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="4"/>
+      <c r="E178" s="42"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
@@ -7506,7 +7789,7 @@
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="4"/>
+      <c r="E179" s="42"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
@@ -7534,7 +7817,7 @@
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="42"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
@@ -7562,7 +7845,7 @@
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="4"/>
+      <c r="E181" s="42"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -7590,7 +7873,7 @@
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="42"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
@@ -7618,7 +7901,7 @@
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="4"/>
+      <c r="E183" s="42"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -7646,7 +7929,7 @@
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="4"/>
+      <c r="E184" s="42"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -7674,7 +7957,7 @@
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="4"/>
+      <c r="E185" s="42"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -7702,7 +7985,7 @@
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="4"/>
+      <c r="E186" s="42"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -7730,7 +8013,7 @@
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="4"/>
+      <c r="E187" s="42"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -7758,7 +8041,7 @@
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="4"/>
+      <c r="E188" s="42"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -7786,7 +8069,7 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="4"/>
+      <c r="E189" s="42"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -7814,7 +8097,7 @@
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="4"/>
+      <c r="E190" s="42"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -7842,7 +8125,7 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="10"/>
-      <c r="E191" s="4"/>
+      <c r="E191" s="42"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -7870,7 +8153,7 @@
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="4"/>
+      <c r="E192" s="42"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -7898,7 +8181,7 @@
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="10"/>
-      <c r="E193" s="4"/>
+      <c r="E193" s="42"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
@@ -7926,7 +8209,7 @@
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="4"/>
+      <c r="E194" s="42"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
@@ -7954,7 +8237,7 @@
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="4"/>
+      <c r="E195" s="42"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
@@ -7982,7 +8265,7 @@
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="4"/>
+      <c r="E196" s="42"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
@@ -8010,7 +8293,7 @@
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="4"/>
+      <c r="E197" s="42"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
@@ -8038,7 +8321,7 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="4"/>
+      <c r="E198" s="42"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -8066,7 +8349,7 @@
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="4"/>
+      <c r="E199" s="42"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
@@ -8094,7 +8377,7 @@
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="4"/>
+      <c r="E200" s="42"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
@@ -8122,7 +8405,7 @@
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="4"/>
+      <c r="E201" s="42"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
@@ -8150,7 +8433,7 @@
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="10"/>
-      <c r="E202" s="4"/>
+      <c r="E202" s="42"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -8178,7 +8461,7 @@
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="10"/>
-      <c r="E203" s="4"/>
+      <c r="E203" s="42"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
@@ -8206,7 +8489,7 @@
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="10"/>
-      <c r="E204" s="4"/>
+      <c r="E204" s="42"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
@@ -8234,7 +8517,7 @@
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="10"/>
-      <c r="E205" s="4"/>
+      <c r="E205" s="42"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -8262,7 +8545,7 @@
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="10"/>
-      <c r="E206" s="4"/>
+      <c r="E206" s="42"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -8290,7 +8573,7 @@
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="10"/>
-      <c r="E207" s="4"/>
+      <c r="E207" s="42"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
@@ -8318,7 +8601,7 @@
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="10"/>
-      <c r="E208" s="4"/>
+      <c r="E208" s="42"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
@@ -8346,7 +8629,7 @@
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="10"/>
-      <c r="E209" s="4"/>
+      <c r="E209" s="42"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
@@ -8374,7 +8657,7 @@
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="10"/>
-      <c r="E210" s="4"/>
+      <c r="E210" s="42"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
@@ -8402,7 +8685,7 @@
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="10"/>
-      <c r="E211" s="4"/>
+      <c r="E211" s="42"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
@@ -8430,7 +8713,7 @@
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="10"/>
-      <c r="E212" s="4"/>
+      <c r="E212" s="42"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
@@ -8458,7 +8741,7 @@
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="10"/>
-      <c r="E213" s="4"/>
+      <c r="E213" s="42"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
@@ -8486,7 +8769,7 @@
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="10"/>
-      <c r="E214" s="4"/>
+      <c r="E214" s="42"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
@@ -8514,7 +8797,7 @@
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="10"/>
-      <c r="E215" s="4"/>
+      <c r="E215" s="42"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
@@ -8542,7 +8825,7 @@
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="10"/>
-      <c r="E216" s="4"/>
+      <c r="E216" s="42"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
@@ -8570,7 +8853,7 @@
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="10"/>
-      <c r="E217" s="4"/>
+      <c r="E217" s="42"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
@@ -8598,7 +8881,7 @@
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="10"/>
-      <c r="E218" s="4"/>
+      <c r="E218" s="42"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
@@ -8626,7 +8909,7 @@
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="10"/>
-      <c r="E219" s="4"/>
+      <c r="E219" s="42"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
@@ -8654,7 +8937,7 @@
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="10"/>
-      <c r="E220" s="4"/>
+      <c r="E220" s="42"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
@@ -8682,7 +8965,7 @@
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="10"/>
-      <c r="E221" s="4"/>
+      <c r="E221" s="42"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -8710,7 +8993,7 @@
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="10"/>
-      <c r="E222" s="4"/>
+      <c r="E222" s="42"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
@@ -8738,7 +9021,7 @@
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="10"/>
-      <c r="E223" s="4"/>
+      <c r="E223" s="42"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
@@ -8766,7 +9049,7 @@
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="10"/>
-      <c r="E224" s="4"/>
+      <c r="E224" s="42"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
@@ -8794,7 +9077,7 @@
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="10"/>
-      <c r="E225" s="4"/>
+      <c r="E225" s="42"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
@@ -8822,7 +9105,7 @@
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="10"/>
-      <c r="E226" s="4"/>
+      <c r="E226" s="42"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
@@ -8850,7 +9133,7 @@
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="10"/>
-      <c r="E227" s="4"/>
+      <c r="E227" s="42"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
@@ -8878,7 +9161,7 @@
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="10"/>
-      <c r="E228" s="4"/>
+      <c r="E228" s="42"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
@@ -8906,7 +9189,7 @@
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="10"/>
-      <c r="E229" s="4"/>
+      <c r="E229" s="42"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -8934,7 +9217,7 @@
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="10"/>
-      <c r="E230" s="4"/>
+      <c r="E230" s="42"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
@@ -8962,7 +9245,7 @@
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="10"/>
-      <c r="E231" s="4"/>
+      <c r="E231" s="42"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -8990,7 +9273,7 @@
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="10"/>
-      <c r="E232" s="4"/>
+      <c r="E232" s="42"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
@@ -9018,7 +9301,7 @@
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="10"/>
-      <c r="E233" s="4"/>
+      <c r="E233" s="42"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -9046,7 +9329,7 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="10"/>
-      <c r="E234" s="4"/>
+      <c r="E234" s="42"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
@@ -9074,7 +9357,7 @@
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="10"/>
-      <c r="E235" s="4"/>
+      <c r="E235" s="42"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
@@ -9102,7 +9385,7 @@
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="10"/>
-      <c r="E236" s="4"/>
+      <c r="E236" s="42"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
@@ -9130,7 +9413,7 @@
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="10"/>
-      <c r="E237" s="4"/>
+      <c r="E237" s="42"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -9158,7 +9441,7 @@
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="10"/>
-      <c r="E238" s="4"/>
+      <c r="E238" s="42"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
@@ -9186,7 +9469,7 @@
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="10"/>
-      <c r="E239" s="4"/>
+      <c r="E239" s="42"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
@@ -9214,7 +9497,7 @@
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="10"/>
-      <c r="E240" s="4"/>
+      <c r="E240" s="42"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
@@ -9242,7 +9525,7 @@
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="10"/>
-      <c r="E241" s="4"/>
+      <c r="E241" s="42"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
@@ -9270,7 +9553,7 @@
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="10"/>
-      <c r="E242" s="4"/>
+      <c r="E242" s="42"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
@@ -9298,7 +9581,7 @@
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="10"/>
-      <c r="E243" s="4"/>
+      <c r="E243" s="42"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
@@ -9326,7 +9609,7 @@
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="10"/>
-      <c r="E244" s="4"/>
+      <c r="E244" s="42"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -9354,7 +9637,7 @@
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="10"/>
-      <c r="E245" s="4"/>
+      <c r="E245" s="42"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
@@ -9382,7 +9665,7 @@
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="10"/>
-      <c r="E246" s="4"/>
+      <c r="E246" s="42"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
@@ -9410,7 +9693,7 @@
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="10"/>
-      <c r="E247" s="4"/>
+      <c r="E247" s="42"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
@@ -9438,7 +9721,7 @@
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="10"/>
-      <c r="E248" s="4"/>
+      <c r="E248" s="42"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
@@ -9466,7 +9749,7 @@
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="10"/>
-      <c r="E249" s="4"/>
+      <c r="E249" s="42"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -9494,7 +9777,7 @@
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="10"/>
-      <c r="E250" s="4"/>
+      <c r="E250" s="42"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
@@ -9522,7 +9805,7 @@
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="10"/>
-      <c r="E251" s="4"/>
+      <c r="E251" s="42"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
@@ -9550,7 +9833,7 @@
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="10"/>
-      <c r="E252" s="4"/>
+      <c r="E252" s="42"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
@@ -9578,7 +9861,7 @@
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="10"/>
-      <c r="E253" s="4"/>
+      <c r="E253" s="42"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
@@ -9606,7 +9889,7 @@
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="10"/>
-      <c r="E254" s="4"/>
+      <c r="E254" s="42"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
@@ -9634,7 +9917,7 @@
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="10"/>
-      <c r="E255" s="4"/>
+      <c r="E255" s="42"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
@@ -9662,7 +9945,7 @@
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="10"/>
-      <c r="E256" s="4"/>
+      <c r="E256" s="42"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -9690,7 +9973,7 @@
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="4"/>
+      <c r="E257" s="42"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -9718,7 +10001,7 @@
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="4"/>
+      <c r="E258" s="42"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
@@ -9746,7 +10029,7 @@
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="10"/>
-      <c r="E259" s="4"/>
+      <c r="E259" s="42"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
@@ -9774,7 +10057,7 @@
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="10"/>
-      <c r="E260" s="4"/>
+      <c r="E260" s="42"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
@@ -9802,7 +10085,7 @@
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="10"/>
-      <c r="E261" s="4"/>
+      <c r="E261" s="42"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
@@ -9830,7 +10113,7 @@
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="10"/>
-      <c r="E262" s="4"/>
+      <c r="E262" s="42"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
@@ -9858,7 +10141,7 @@
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="10"/>
-      <c r="E263" s="4"/>
+      <c r="E263" s="42"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
@@ -9886,7 +10169,7 @@
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="10"/>
-      <c r="E264" s="4"/>
+      <c r="E264" s="42"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
@@ -9914,7 +10197,7 @@
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="10"/>
-      <c r="E265" s="4"/>
+      <c r="E265" s="42"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
@@ -9942,7 +10225,7 @@
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="10"/>
-      <c r="E266" s="4"/>
+      <c r="E266" s="42"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
@@ -9970,7 +10253,7 @@
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="10"/>
-      <c r="E267" s="4"/>
+      <c r="E267" s="42"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
@@ -9998,7 +10281,7 @@
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="10"/>
-      <c r="E268" s="4"/>
+      <c r="E268" s="42"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
@@ -10026,7 +10309,7 @@
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="10"/>
-      <c r="E269" s="4"/>
+      <c r="E269" s="42"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
@@ -10054,7 +10337,7 @@
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="4"/>
+      <c r="E270" s="42"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -10082,7 +10365,7 @@
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="10"/>
-      <c r="E271" s="4"/>
+      <c r="E271" s="42"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -10110,7 +10393,7 @@
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="10"/>
-      <c r="E272" s="4"/>
+      <c r="E272" s="42"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -10138,7 +10421,7 @@
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="10"/>
-      <c r="E273" s="4"/>
+      <c r="E273" s="42"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
@@ -10166,7 +10449,7 @@
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="10"/>
-      <c r="E274" s="4"/>
+      <c r="E274" s="42"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -10194,7 +10477,7 @@
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="10"/>
-      <c r="E275" s="4"/>
+      <c r="E275" s="42"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
@@ -10222,7 +10505,7 @@
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="10"/>
-      <c r="E276" s="4"/>
+      <c r="E276" s="42"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
@@ -10250,7 +10533,7 @@
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="10"/>
-      <c r="E277" s="4"/>
+      <c r="E277" s="42"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
@@ -10278,7 +10561,7 @@
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="10"/>
-      <c r="E278" s="4"/>
+      <c r="E278" s="42"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
@@ -10306,7 +10589,7 @@
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="10"/>
-      <c r="E279" s="4"/>
+      <c r="E279" s="42"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
@@ -10334,7 +10617,7 @@
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="10"/>
-      <c r="E280" s="4"/>
+      <c r="E280" s="42"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
@@ -10362,7 +10645,7 @@
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="10"/>
-      <c r="E281" s="4"/>
+      <c r="E281" s="42"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
@@ -10390,7 +10673,7 @@
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="10"/>
-      <c r="E282" s="4"/>
+      <c r="E282" s="42"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
@@ -10418,7 +10701,7 @@
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="10"/>
-      <c r="E283" s="4"/>
+      <c r="E283" s="42"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
@@ -10446,7 +10729,7 @@
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="10"/>
-      <c r="E284" s="4"/>
+      <c r="E284" s="42"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
@@ -10474,7 +10757,7 @@
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="10"/>
-      <c r="E285" s="4"/>
+      <c r="E285" s="42"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -10502,7 +10785,7 @@
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="10"/>
-      <c r="E286" s="4"/>
+      <c r="E286" s="42"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -10530,7 +10813,7 @@
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="10"/>
-      <c r="E287" s="4"/>
+      <c r="E287" s="42"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -10558,7 +10841,7 @@
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="10"/>
-      <c r="E288" s="4"/>
+      <c r="E288" s="42"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
@@ -10586,7 +10869,7 @@
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="10"/>
-      <c r="E289" s="4"/>
+      <c r="E289" s="42"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -10614,7 +10897,7 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="10"/>
-      <c r="E290" s="4"/>
+      <c r="E290" s="42"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
@@ -10642,7 +10925,7 @@
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="10"/>
-      <c r="E291" s="4"/>
+      <c r="E291" s="42"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
@@ -10670,7 +10953,7 @@
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="10"/>
-      <c r="E292" s="4"/>
+      <c r="E292" s="42"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
@@ -10698,7 +10981,7 @@
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="10"/>
-      <c r="E293" s="4"/>
+      <c r="E293" s="42"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -10726,7 +11009,7 @@
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="10"/>
-      <c r="E294" s="4"/>
+      <c r="E294" s="42"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -10754,7 +11037,7 @@
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="10"/>
-      <c r="E295" s="4"/>
+      <c r="E295" s="42"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
@@ -10782,7 +11065,7 @@
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="10"/>
-      <c r="E296" s="4"/>
+      <c r="E296" s="42"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
@@ -10810,7 +11093,7 @@
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="10"/>
-      <c r="E297" s="4"/>
+      <c r="E297" s="42"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -10838,7 +11121,7 @@
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="10"/>
-      <c r="E298" s="4"/>
+      <c r="E298" s="42"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
@@ -10866,7 +11149,7 @@
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="10"/>
-      <c r="E299" s="4"/>
+      <c r="E299" s="42"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
@@ -10894,7 +11177,7 @@
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="10"/>
-      <c r="E300" s="4"/>
+      <c r="E300" s="42"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
@@ -10922,7 +11205,7 @@
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="10"/>
-      <c r="E301" s="4"/>
+      <c r="E301" s="42"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
@@ -10950,7 +11233,7 @@
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="10"/>
-      <c r="E302" s="4"/>
+      <c r="E302" s="42"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
@@ -10978,7 +11261,7 @@
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="10"/>
-      <c r="E303" s="4"/>
+      <c r="E303" s="42"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
@@ -11006,7 +11289,7 @@
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="10"/>
-      <c r="E304" s="4"/>
+      <c r="E304" s="42"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
@@ -11034,7 +11317,7 @@
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="10"/>
-      <c r="E305" s="4"/>
+      <c r="E305" s="42"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
@@ -11062,7 +11345,7 @@
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="10"/>
-      <c r="E306" s="4"/>
+      <c r="E306" s="42"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
@@ -11090,7 +11373,7 @@
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="10"/>
-      <c r="E307" s="4"/>
+      <c r="E307" s="42"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
@@ -11118,7 +11401,7 @@
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="10"/>
-      <c r="E308" s="4"/>
+      <c r="E308" s="42"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
@@ -11146,7 +11429,7 @@
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="10"/>
-      <c r="E309" s="4"/>
+      <c r="E309" s="42"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
@@ -11174,7 +11457,7 @@
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="10"/>
-      <c r="E310" s="4"/>
+      <c r="E310" s="42"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
@@ -11202,7 +11485,7 @@
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="10"/>
-      <c r="E311" s="4"/>
+      <c r="E311" s="42"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
@@ -11230,7 +11513,7 @@
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="10"/>
-      <c r="E312" s="4"/>
+      <c r="E312" s="42"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
@@ -11258,7 +11541,7 @@
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="10"/>
-      <c r="E313" s="4"/>
+      <c r="E313" s="42"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
@@ -11286,7 +11569,7 @@
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="10"/>
-      <c r="E314" s="4"/>
+      <c r="E314" s="42"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -11314,7 +11597,7 @@
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="10"/>
-      <c r="E315" s="4"/>
+      <c r="E315" s="42"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
@@ -11342,7 +11625,7 @@
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="10"/>
-      <c r="E316" s="4"/>
+      <c r="E316" s="42"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
@@ -11370,7 +11653,7 @@
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="10"/>
-      <c r="E317" s="4"/>
+      <c r="E317" s="42"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
@@ -11398,7 +11681,7 @@
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
       <c r="D318" s="6"/>
-      <c r="E318" s="11"/>
+      <c r="E318" s="43"/>
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
       <c r="H318" s="11"/>
@@ -11426,7 +11709,7 @@
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
       <c r="D319" s="6"/>
-      <c r="E319" s="11"/>
+      <c r="E319" s="43"/>
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
       <c r="H319" s="11"/>
@@ -11454,7 +11737,7 @@
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
       <c r="D320" s="6"/>
-      <c r="E320" s="11"/>
+      <c r="E320" s="43"/>
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
       <c r="H320" s="11"/>
@@ -11482,7 +11765,7 @@
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
       <c r="D321" s="6"/>
-      <c r="E321" s="11"/>
+      <c r="E321" s="43"/>
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
       <c r="H321" s="11"/>
@@ -11510,7 +11793,7 @@
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="6"/>
-      <c r="E322" s="11"/>
+      <c r="E322" s="43"/>
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
       <c r="H322" s="11"/>
@@ -11538,7 +11821,7 @@
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
       <c r="D323" s="6"/>
-      <c r="E323" s="11"/>
+      <c r="E323" s="43"/>
       <c r="F323" s="11"/>
       <c r="G323" s="11"/>
       <c r="H323" s="11"/>
@@ -11566,7 +11849,7 @@
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
       <c r="D324" s="6"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="43"/>
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
       <c r="H324" s="11"/>
@@ -11594,7 +11877,7 @@
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
       <c r="D325" s="6"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="43"/>
       <c r="F325" s="11"/>
       <c r="G325" s="11"/>
       <c r="H325" s="11"/>
@@ -11622,7 +11905,7 @@
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
       <c r="D326" s="6"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="43"/>
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
       <c r="H326" s="11"/>
@@ -11650,7 +11933,7 @@
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
       <c r="D327" s="6"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="43"/>
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
       <c r="H327" s="11"/>
@@ -11678,7 +11961,7 @@
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
       <c r="D328" s="6"/>
-      <c r="E328" s="11"/>
+      <c r="E328" s="43"/>
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
       <c r="H328" s="11"/>
@@ -11706,7 +11989,7 @@
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
       <c r="D329" s="6"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="43"/>
       <c r="F329" s="11"/>
       <c r="G329" s="11"/>
       <c r="H329" s="11"/>
@@ -11734,7 +12017,7 @@
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
       <c r="D330" s="6"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="43"/>
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
       <c r="H330" s="11"/>
@@ -11762,7 +12045,7 @@
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="6"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="43"/>
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
       <c r="H331" s="11"/>
@@ -11790,7 +12073,7 @@
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="6"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="43"/>
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
       <c r="H332" s="11"/>
@@ -11818,7 +12101,7 @@
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="11"/>
+      <c r="E333" s="43"/>
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
       <c r="H333" s="11"/>
@@ -11846,7 +12129,7 @@
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="6"/>
-      <c r="E334" s="11"/>
+      <c r="E334" s="43"/>
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
       <c r="H334" s="11"/>
@@ -11874,7 +12157,7 @@
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
       <c r="D335" s="6"/>
-      <c r="E335" s="11"/>
+      <c r="E335" s="43"/>
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
       <c r="H335" s="11"/>
@@ -11902,7 +12185,7 @@
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
       <c r="D336" s="6"/>
-      <c r="E336" s="11"/>
+      <c r="E336" s="43"/>
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
       <c r="H336" s="11"/>
@@ -11930,7 +12213,7 @@
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="6"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="43"/>
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
       <c r="H337" s="11"/>
@@ -11958,7 +12241,7 @@
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="11"/>
+      <c r="E338" s="43"/>
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
       <c r="H338" s="11"/>
@@ -11986,7 +12269,7 @@
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
       <c r="D339" s="6"/>
-      <c r="E339" s="11"/>
+      <c r="E339" s="43"/>
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
       <c r="H339" s="11"/>
@@ -12014,7 +12297,7 @@
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="11"/>
+      <c r="E340" s="43"/>
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
       <c r="H340" s="11"/>
@@ -12042,7 +12325,7 @@
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="11"/>
+      <c r="E341" s="43"/>
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
       <c r="H341" s="11"/>
@@ -12070,7 +12353,7 @@
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="11"/>
+      <c r="E342" s="43"/>
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
       <c r="H342" s="11"/>
@@ -12098,7 +12381,7 @@
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="11"/>
+      <c r="E343" s="43"/>
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
       <c r="H343" s="11"/>
@@ -12126,7 +12409,7 @@
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="11"/>
+      <c r="E344" s="43"/>
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
       <c r="H344" s="11"/>
@@ -12154,7 +12437,7 @@
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="11"/>
+      <c r="E345" s="43"/>
       <c r="F345" s="11"/>
       <c r="G345" s="11"/>
       <c r="H345" s="11"/>
@@ -12182,7 +12465,7 @@
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
       <c r="D346" s="6"/>
-      <c r="E346" s="11"/>
+      <c r="E346" s="43"/>
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
       <c r="H346" s="11"/>
@@ -12210,7 +12493,7 @@
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
       <c r="D347" s="6"/>
-      <c r="E347" s="11"/>
+      <c r="E347" s="43"/>
       <c r="F347" s="11"/>
       <c r="G347" s="11"/>
       <c r="H347" s="11"/>
@@ -12238,7 +12521,7 @@
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
       <c r="D348" s="6"/>
-      <c r="E348" s="11"/>
+      <c r="E348" s="43"/>
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
       <c r="H348" s="11"/>
@@ -12266,7 +12549,7 @@
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
       <c r="D349" s="6"/>
-      <c r="E349" s="11"/>
+      <c r="E349" s="43"/>
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
       <c r="H349" s="11"/>
@@ -12294,7 +12577,7 @@
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
       <c r="D350" s="6"/>
-      <c r="E350" s="11"/>
+      <c r="E350" s="43"/>
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
       <c r="H350" s="11"/>
@@ -12322,7 +12605,7 @@
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
       <c r="D351" s="6"/>
-      <c r="E351" s="11"/>
+      <c r="E351" s="43"/>
       <c r="F351" s="11"/>
       <c r="G351" s="11"/>
       <c r="H351" s="11"/>
@@ -12350,7 +12633,7 @@
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="6"/>
-      <c r="E352" s="11"/>
+      <c r="E352" s="43"/>
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
       <c r="H352" s="11"/>
@@ -12378,7 +12661,7 @@
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
       <c r="D353" s="6"/>
-      <c r="E353" s="11"/>
+      <c r="E353" s="43"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
       <c r="H353" s="11"/>
@@ -12406,7 +12689,7 @@
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
       <c r="D354" s="6"/>
-      <c r="E354" s="11"/>
+      <c r="E354" s="43"/>
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
       <c r="H354" s="11"/>
@@ -12434,7 +12717,7 @@
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
       <c r="D355" s="6"/>
-      <c r="E355" s="11"/>
+      <c r="E355" s="43"/>
       <c r="F355" s="11"/>
       <c r="G355" s="11"/>
       <c r="H355" s="11"/>
@@ -12462,7 +12745,7 @@
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="11"/>
+      <c r="E356" s="43"/>
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
@@ -12490,7 +12773,7 @@
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
       <c r="D357" s="6"/>
-      <c r="E357" s="11"/>
+      <c r="E357" s="43"/>
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
       <c r="H357" s="11"/>
@@ -12518,7 +12801,7 @@
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
       <c r="D358" s="6"/>
-      <c r="E358" s="11"/>
+      <c r="E358" s="43"/>
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
       <c r="H358" s="11"/>
@@ -12546,7 +12829,7 @@
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
       <c r="D359" s="6"/>
-      <c r="E359" s="11"/>
+      <c r="E359" s="43"/>
       <c r="F359" s="11"/>
       <c r="G359" s="11"/>
       <c r="H359" s="11"/>
@@ -12574,7 +12857,7 @@
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
       <c r="D360" s="6"/>
-      <c r="E360" s="11"/>
+      <c r="E360" s="43"/>
       <c r="F360" s="11"/>
       <c r="G360" s="11"/>
       <c r="H360" s="11"/>
@@ -12602,7 +12885,7 @@
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
       <c r="D361" s="6"/>
-      <c r="E361" s="11"/>
+      <c r="E361" s="43"/>
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
@@ -12630,7 +12913,7 @@
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
       <c r="D362" s="6"/>
-      <c r="E362" s="11"/>
+      <c r="E362" s="43"/>
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
       <c r="H362" s="11"/>
@@ -12658,7 +12941,7 @@
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
       <c r="D363" s="6"/>
-      <c r="E363" s="11"/>
+      <c r="E363" s="43"/>
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
       <c r="H363" s="11"/>
@@ -12686,7 +12969,7 @@
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
       <c r="D364" s="6"/>
-      <c r="E364" s="11"/>
+      <c r="E364" s="43"/>
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
       <c r="H364" s="11"/>
@@ -12714,7 +12997,7 @@
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
       <c r="D365" s="6"/>
-      <c r="E365" s="11"/>
+      <c r="E365" s="43"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
@@ -12742,7 +13025,7 @@
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="6"/>
-      <c r="E366" s="11"/>
+      <c r="E366" s="43"/>
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
       <c r="H366" s="11"/>
@@ -12770,7 +13053,7 @@
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="11"/>
+      <c r="E367" s="43"/>
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
@@ -12798,7 +13081,7 @@
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
       <c r="D368" s="6"/>
-      <c r="E368" s="11"/>
+      <c r="E368" s="43"/>
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
@@ -12826,7 +13109,7 @@
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
       <c r="D369" s="6"/>
-      <c r="E369" s="11"/>
+      <c r="E369" s="43"/>
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
@@ -12854,7 +13137,7 @@
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="6"/>
-      <c r="E370" s="11"/>
+      <c r="E370" s="43"/>
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
@@ -12882,7 +13165,7 @@
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="6"/>
-      <c r="E371" s="11"/>
+      <c r="E371" s="43"/>
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
       <c r="H371" s="11"/>
@@ -12910,7 +13193,7 @@
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="6"/>
-      <c r="E372" s="11"/>
+      <c r="E372" s="43"/>
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
       <c r="H372" s="11"/>
@@ -12938,7 +13221,7 @@
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="6"/>
-      <c r="E373" s="11"/>
+      <c r="E373" s="43"/>
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
@@ -12966,7 +13249,7 @@
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
       <c r="D374" s="6"/>
-      <c r="E374" s="11"/>
+      <c r="E374" s="43"/>
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
@@ -12994,7 +13277,7 @@
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="6"/>
-      <c r="E375" s="11"/>
+      <c r="E375" s="43"/>
       <c r="F375" s="11"/>
       <c r="G375" s="11"/>
       <c r="H375" s="11"/>
@@ -13022,7 +13305,7 @@
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
       <c r="D376" s="6"/>
-      <c r="E376" s="11"/>
+      <c r="E376" s="43"/>
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
@@ -13050,7 +13333,7 @@
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
       <c r="D377" s="6"/>
-      <c r="E377" s="11"/>
+      <c r="E377" s="43"/>
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
@@ -13078,7 +13361,7 @@
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
       <c r="D378" s="6"/>
-      <c r="E378" s="11"/>
+      <c r="E378" s="43"/>
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
       <c r="H378" s="11"/>
@@ -13106,7 +13389,7 @@
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
       <c r="D379" s="6"/>
-      <c r="E379" s="11"/>
+      <c r="E379" s="43"/>
       <c r="F379" s="11"/>
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
@@ -13134,7 +13417,7 @@
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
       <c r="D380" s="6"/>
-      <c r="E380" s="11"/>
+      <c r="E380" s="43"/>
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
@@ -13162,7 +13445,7 @@
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
       <c r="D381" s="6"/>
-      <c r="E381" s="11"/>
+      <c r="E381" s="43"/>
       <c r="F381" s="11"/>
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
@@ -13190,7 +13473,7 @@
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="6"/>
-      <c r="E382" s="11"/>
+      <c r="E382" s="43"/>
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
@@ -13218,7 +13501,7 @@
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="6"/>
-      <c r="E383" s="11"/>
+      <c r="E383" s="43"/>
       <c r="F383" s="11"/>
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
@@ -13246,7 +13529,7 @@
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
       <c r="D384" s="6"/>
-      <c r="E384" s="11"/>
+      <c r="E384" s="43"/>
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
@@ -13274,7 +13557,7 @@
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
       <c r="D385" s="6"/>
-      <c r="E385" s="11"/>
+      <c r="E385" s="43"/>
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
       <c r="H385" s="11"/>
@@ -13302,7 +13585,7 @@
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
       <c r="D386" s="6"/>
-      <c r="E386" s="11"/>
+      <c r="E386" s="43"/>
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
@@ -13330,7 +13613,7 @@
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
       <c r="D387" s="6"/>
-      <c r="E387" s="11"/>
+      <c r="E387" s="43"/>
       <c r="F387" s="11"/>
       <c r="G387" s="11"/>
       <c r="H387" s="11"/>
@@ -13358,7 +13641,7 @@
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="11"/>
+      <c r="E388" s="43"/>
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
@@ -13386,7 +13669,7 @@
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="6"/>
-      <c r="E389" s="11"/>
+      <c r="E389" s="43"/>
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
@@ -13414,7 +13697,7 @@
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
       <c r="D390" s="6"/>
-      <c r="E390" s="11"/>
+      <c r="E390" s="43"/>
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
       <c r="H390" s="11"/>
@@ -13442,7 +13725,7 @@
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="6"/>
-      <c r="E391" s="11"/>
+      <c r="E391" s="43"/>
       <c r="F391" s="11"/>
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
@@ -13470,7 +13753,7 @@
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="6"/>
-      <c r="E392" s="11"/>
+      <c r="E392" s="43"/>
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
@@ -13498,7 +13781,7 @@
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
       <c r="D393" s="6"/>
-      <c r="E393" s="11"/>
+      <c r="E393" s="43"/>
       <c r="F393" s="11"/>
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
@@ -13526,7 +13809,7 @@
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="11"/>
+      <c r="E394" s="43"/>
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
@@ -13554,7 +13837,7 @@
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
       <c r="D395" s="6"/>
-      <c r="E395" s="11"/>
+      <c r="E395" s="43"/>
       <c r="F395" s="11"/>
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
@@ -13582,7 +13865,7 @@
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="6"/>
-      <c r="E396" s="11"/>
+      <c r="E396" s="43"/>
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
       <c r="H396" s="11"/>
@@ -13610,7 +13893,7 @@
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
       <c r="D397" s="6"/>
-      <c r="E397" s="11"/>
+      <c r="E397" s="43"/>
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
@@ -13638,7 +13921,7 @@
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
       <c r="D398" s="6"/>
-      <c r="E398" s="11"/>
+      <c r="E398" s="43"/>
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
       <c r="H398" s="11"/>
@@ -13666,7 +13949,7 @@
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="11"/>
+      <c r="E399" s="43"/>
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
@@ -13694,7 +13977,7 @@
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="6"/>
-      <c r="E400" s="11"/>
+      <c r="E400" s="43"/>
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
@@ -13722,7 +14005,7 @@
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="6"/>
-      <c r="E401" s="11"/>
+      <c r="E401" s="43"/>
       <c r="F401" s="11"/>
       <c r="G401" s="11"/>
       <c r="H401" s="11"/>
@@ -13750,7 +14033,7 @@
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
       <c r="D402" s="6"/>
-      <c r="E402" s="11"/>
+      <c r="E402" s="43"/>
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
@@ -13778,7 +14061,7 @@
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="11"/>
+      <c r="E403" s="43"/>
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
@@ -13806,7 +14089,7 @@
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
       <c r="D404" s="6"/>
-      <c r="E404" s="11"/>
+      <c r="E404" s="43"/>
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
@@ -13834,7 +14117,7 @@
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
       <c r="D405" s="6"/>
-      <c r="E405" s="11"/>
+      <c r="E405" s="43"/>
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
@@ -13862,7 +14145,7 @@
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
       <c r="D406" s="6"/>
-      <c r="E406" s="11"/>
+      <c r="E406" s="43"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
@@ -13890,7 +14173,7 @@
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
       <c r="D407" s="6"/>
-      <c r="E407" s="11"/>
+      <c r="E407" s="43"/>
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
@@ -13918,7 +14201,7 @@
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
       <c r="D408" s="6"/>
-      <c r="E408" s="11"/>
+      <c r="E408" s="43"/>
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
@@ -13946,7 +14229,7 @@
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
       <c r="D409" s="6"/>
-      <c r="E409" s="11"/>
+      <c r="E409" s="43"/>
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
@@ -13974,7 +14257,7 @@
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
       <c r="D410" s="6"/>
-      <c r="E410" s="11"/>
+      <c r="E410" s="43"/>
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
       <c r="H410" s="11"/>
@@ -14002,7 +14285,7 @@
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
       <c r="D411" s="6"/>
-      <c r="E411" s="11"/>
+      <c r="E411" s="43"/>
       <c r="F411" s="11"/>
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
@@ -14030,7 +14313,7 @@
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
       <c r="D412" s="6"/>
-      <c r="E412" s="11"/>
+      <c r="E412" s="43"/>
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
@@ -14058,7 +14341,7 @@
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
       <c r="D413" s="6"/>
-      <c r="E413" s="11"/>
+      <c r="E413" s="43"/>
       <c r="F413" s="11"/>
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
@@ -14086,7 +14369,7 @@
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="11"/>
+      <c r="E414" s="43"/>
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
       <c r="H414" s="11"/>
@@ -14114,7 +14397,7 @@
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
       <c r="D415" s="6"/>
-      <c r="E415" s="11"/>
+      <c r="E415" s="43"/>
       <c r="F415" s="11"/>
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
@@ -14142,7 +14425,7 @@
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
       <c r="D416" s="6"/>
-      <c r="E416" s="11"/>
+      <c r="E416" s="43"/>
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
@@ -14170,7 +14453,7 @@
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
       <c r="D417" s="6"/>
-      <c r="E417" s="11"/>
+      <c r="E417" s="43"/>
       <c r="F417" s="11"/>
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
@@ -14198,7 +14481,7 @@
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="6"/>
-      <c r="E418" s="11"/>
+      <c r="E418" s="43"/>
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
@@ -14226,7 +14509,7 @@
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
       <c r="D419" s="6"/>
-      <c r="E419" s="11"/>
+      <c r="E419" s="43"/>
       <c r="F419" s="11"/>
       <c r="G419" s="11"/>
       <c r="H419" s="11"/>
@@ -14254,7 +14537,7 @@
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="11"/>
+      <c r="E420" s="43"/>
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
       <c r="H420" s="11"/>
@@ -14282,7 +14565,7 @@
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
       <c r="D421" s="6"/>
-      <c r="E421" s="11"/>
+      <c r="E421" s="43"/>
       <c r="F421" s="11"/>
       <c r="G421" s="11"/>
       <c r="H421" s="11"/>
@@ -14310,7 +14593,7 @@
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
       <c r="D422" s="6"/>
-      <c r="E422" s="11"/>
+      <c r="E422" s="43"/>
       <c r="F422" s="11"/>
       <c r="G422" s="11"/>
       <c r="H422" s="11"/>
@@ -14338,7 +14621,7 @@
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
       <c r="D423" s="6"/>
-      <c r="E423" s="11"/>
+      <c r="E423" s="43"/>
       <c r="F423" s="11"/>
       <c r="G423" s="11"/>
       <c r="H423" s="11"/>
@@ -14366,7 +14649,7 @@
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
       <c r="D424" s="6"/>
-      <c r="E424" s="11"/>
+      <c r="E424" s="43"/>
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
       <c r="H424" s="11"/>
@@ -14394,7 +14677,7 @@
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="6"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="43"/>
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
       <c r="H425" s="11"/>
@@ -14422,7 +14705,7 @@
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
       <c r="D426" s="6"/>
-      <c r="E426" s="11"/>
+      <c r="E426" s="43"/>
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
       <c r="H426" s="11"/>
@@ -14450,7 +14733,7 @@
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="6"/>
-      <c r="E427" s="11"/>
+      <c r="E427" s="43"/>
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
       <c r="H427" s="11"/>
@@ -14478,7 +14761,7 @@
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
       <c r="D428" s="6"/>
-      <c r="E428" s="11"/>
+      <c r="E428" s="43"/>
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
       <c r="H428" s="11"/>
@@ -14506,7 +14789,7 @@
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="6"/>
-      <c r="E429" s="11"/>
+      <c r="E429" s="43"/>
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
       <c r="H429" s="11"/>
@@ -14534,7 +14817,7 @@
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="6"/>
-      <c r="E430" s="11"/>
+      <c r="E430" s="43"/>
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
       <c r="H430" s="11"/>
@@ -14562,7 +14845,7 @@
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
       <c r="D431" s="6"/>
-      <c r="E431" s="11"/>
+      <c r="E431" s="43"/>
       <c r="F431" s="11"/>
       <c r="G431" s="11"/>
       <c r="H431" s="11"/>
@@ -14590,7 +14873,7 @@
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
       <c r="D432" s="6"/>
-      <c r="E432" s="11"/>
+      <c r="E432" s="43"/>
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
       <c r="H432" s="11"/>
@@ -14618,7 +14901,7 @@
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
       <c r="D433" s="6"/>
-      <c r="E433" s="11"/>
+      <c r="E433" s="43"/>
       <c r="F433" s="11"/>
       <c r="G433" s="11"/>
       <c r="H433" s="11"/>
@@ -14646,7 +14929,7 @@
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
       <c r="D434" s="6"/>
-      <c r="E434" s="11"/>
+      <c r="E434" s="43"/>
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
       <c r="H434" s="11"/>
@@ -14674,7 +14957,7 @@
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
       <c r="D435" s="6"/>
-      <c r="E435" s="11"/>
+      <c r="E435" s="43"/>
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
       <c r="H435" s="11"/>
@@ -14702,7 +14985,7 @@
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
       <c r="D436" s="6"/>
-      <c r="E436" s="11"/>
+      <c r="E436" s="43"/>
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
       <c r="H436" s="11"/>
@@ -14730,7 +15013,7 @@
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
       <c r="D437" s="6"/>
-      <c r="E437" s="11"/>
+      <c r="E437" s="43"/>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
       <c r="H437" s="11"/>
@@ -14758,7 +15041,7 @@
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
       <c r="D438" s="6"/>
-      <c r="E438" s="11"/>
+      <c r="E438" s="43"/>
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
       <c r="H438" s="11"/>
@@ -14786,7 +15069,7 @@
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
       <c r="D439" s="6"/>
-      <c r="E439" s="11"/>
+      <c r="E439" s="43"/>
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
       <c r="H439" s="11"/>
@@ -14814,7 +15097,7 @@
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
       <c r="D440" s="6"/>
-      <c r="E440" s="11"/>
+      <c r="E440" s="43"/>
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
       <c r="H440" s="11"/>
@@ -14842,7 +15125,7 @@
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
       <c r="D441" s="6"/>
-      <c r="E441" s="11"/>
+      <c r="E441" s="43"/>
       <c r="F441" s="11"/>
       <c r="G441" s="11"/>
       <c r="H441" s="11"/>
@@ -14870,7 +15153,7 @@
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
       <c r="D442" s="6"/>
-      <c r="E442" s="11"/>
+      <c r="E442" s="43"/>
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
       <c r="H442" s="11"/>
@@ -14898,7 +15181,7 @@
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
       <c r="D443" s="6"/>
-      <c r="E443" s="11"/>
+      <c r="E443" s="43"/>
       <c r="F443" s="11"/>
       <c r="G443" s="11"/>
       <c r="H443" s="11"/>
@@ -14926,7 +15209,7 @@
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
       <c r="D444" s="6"/>
-      <c r="E444" s="11"/>
+      <c r="E444" s="43"/>
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
       <c r="H444" s="11"/>
@@ -14954,7 +15237,7 @@
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
       <c r="D445" s="6"/>
-      <c r="E445" s="11"/>
+      <c r="E445" s="43"/>
       <c r="F445" s="11"/>
       <c r="G445" s="11"/>
       <c r="H445" s="11"/>
@@ -14982,7 +15265,7 @@
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
       <c r="D446" s="6"/>
-      <c r="E446" s="11"/>
+      <c r="E446" s="43"/>
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
       <c r="H446" s="11"/>
@@ -15010,7 +15293,7 @@
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
       <c r="D447" s="6"/>
-      <c r="E447" s="11"/>
+      <c r="E447" s="43"/>
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
       <c r="H447" s="11"/>
@@ -15038,7 +15321,7 @@
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
       <c r="D448" s="6"/>
-      <c r="E448" s="11"/>
+      <c r="E448" s="43"/>
       <c r="F448" s="11"/>
       <c r="G448" s="11"/>
       <c r="H448" s="11"/>
@@ -15066,7 +15349,7 @@
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
       <c r="D449" s="6"/>
-      <c r="E449" s="11"/>
+      <c r="E449" s="43"/>
       <c r="F449" s="11"/>
       <c r="G449" s="11"/>
       <c r="H449" s="11"/>
@@ -15094,7 +15377,7 @@
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
       <c r="D450" s="6"/>
-      <c r="E450" s="11"/>
+      <c r="E450" s="43"/>
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
       <c r="H450" s="11"/>
@@ -15122,7 +15405,7 @@
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
       <c r="D451" s="6"/>
-      <c r="E451" s="11"/>
+      <c r="E451" s="43"/>
       <c r="F451" s="11"/>
       <c r="G451" s="11"/>
       <c r="H451" s="11"/>
@@ -15150,7 +15433,7 @@
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
       <c r="D452" s="6"/>
-      <c r="E452" s="11"/>
+      <c r="E452" s="43"/>
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
       <c r="H452" s="11"/>
@@ -15178,7 +15461,7 @@
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
       <c r="D453" s="6"/>
-      <c r="E453" s="11"/>
+      <c r="E453" s="43"/>
       <c r="F453" s="11"/>
       <c r="G453" s="11"/>
       <c r="H453" s="11"/>
@@ -15206,7 +15489,7 @@
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
       <c r="D454" s="6"/>
-      <c r="E454" s="11"/>
+      <c r="E454" s="43"/>
       <c r="F454" s="11"/>
       <c r="G454" s="11"/>
       <c r="H454" s="11"/>
@@ -15234,7 +15517,7 @@
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
       <c r="D455" s="6"/>
-      <c r="E455" s="11"/>
+      <c r="E455" s="43"/>
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
       <c r="H455" s="11"/>
@@ -15262,7 +15545,7 @@
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
       <c r="D456" s="6"/>
-      <c r="E456" s="11"/>
+      <c r="E456" s="43"/>
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
       <c r="H456" s="11"/>
@@ -15290,7 +15573,7 @@
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
       <c r="D457" s="6"/>
-      <c r="E457" s="11"/>
+      <c r="E457" s="43"/>
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
       <c r="H457" s="11"/>
@@ -15318,7 +15601,7 @@
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
       <c r="D458" s="6"/>
-      <c r="E458" s="11"/>
+      <c r="E458" s="43"/>
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
       <c r="H458" s="11"/>
@@ -15346,7 +15629,7 @@
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
       <c r="D459" s="6"/>
-      <c r="E459" s="11"/>
+      <c r="E459" s="43"/>
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
       <c r="H459" s="11"/>
@@ -15374,7 +15657,7 @@
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
       <c r="D460" s="6"/>
-      <c r="E460" s="11"/>
+      <c r="E460" s="43"/>
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
       <c r="H460" s="11"/>
@@ -15402,7 +15685,7 @@
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
       <c r="D461" s="6"/>
-      <c r="E461" s="11"/>
+      <c r="E461" s="43"/>
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
       <c r="H461" s="11"/>
@@ -15430,7 +15713,7 @@
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
       <c r="D462" s="6"/>
-      <c r="E462" s="11"/>
+      <c r="E462" s="43"/>
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
       <c r="H462" s="11"/>
@@ -15458,7 +15741,7 @@
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
       <c r="D463" s="6"/>
-      <c r="E463" s="11"/>
+      <c r="E463" s="43"/>
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
       <c r="H463" s="11"/>
@@ -15486,7 +15769,7 @@
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
       <c r="D464" s="6"/>
-      <c r="E464" s="11"/>
+      <c r="E464" s="43"/>
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
       <c r="H464" s="11"/>
@@ -15514,7 +15797,7 @@
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
       <c r="D465" s="6"/>
-      <c r="E465" s="11"/>
+      <c r="E465" s="43"/>
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
       <c r="H465" s="11"/>
@@ -15542,7 +15825,7 @@
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
       <c r="D466" s="6"/>
-      <c r="E466" s="11"/>
+      <c r="E466" s="43"/>
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
       <c r="H466" s="11"/>
@@ -15570,7 +15853,7 @@
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
       <c r="D467" s="6"/>
-      <c r="E467" s="11"/>
+      <c r="E467" s="43"/>
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
       <c r="H467" s="11"/>
@@ -15598,7 +15881,7 @@
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
       <c r="D468" s="6"/>
-      <c r="E468" s="11"/>
+      <c r="E468" s="43"/>
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
       <c r="H468" s="11"/>
@@ -15626,7 +15909,7 @@
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
       <c r="D469" s="6"/>
-      <c r="E469" s="11"/>
+      <c r="E469" s="43"/>
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
       <c r="H469" s="11"/>
@@ -15654,7 +15937,7 @@
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
       <c r="D470" s="6"/>
-      <c r="E470" s="11"/>
+      <c r="E470" s="43"/>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
       <c r="H470" s="11"/>
@@ -15682,7 +15965,7 @@
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
       <c r="D471" s="6"/>
-      <c r="E471" s="11"/>
+      <c r="E471" s="43"/>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
       <c r="H471" s="11"/>
@@ -15710,7 +15993,7 @@
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
       <c r="D472" s="6"/>
-      <c r="E472" s="11"/>
+      <c r="E472" s="43"/>
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
       <c r="H472" s="11"/>
@@ -15738,7 +16021,7 @@
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
       <c r="D473" s="6"/>
-      <c r="E473" s="11"/>
+      <c r="E473" s="43"/>
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
       <c r="H473" s="11"/>
@@ -15766,7 +16049,7 @@
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
       <c r="D474" s="6"/>
-      <c r="E474" s="11"/>
+      <c r="E474" s="43"/>
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
       <c r="H474" s="11"/>
@@ -15794,7 +16077,7 @@
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
       <c r="D475" s="6"/>
-      <c r="E475" s="11"/>
+      <c r="E475" s="43"/>
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
       <c r="H475" s="11"/>
@@ -15822,7 +16105,7 @@
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
       <c r="D476" s="6"/>
-      <c r="E476" s="11"/>
+      <c r="E476" s="43"/>
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
       <c r="H476" s="11"/>
@@ -15850,7 +16133,7 @@
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
       <c r="D477" s="6"/>
-      <c r="E477" s="11"/>
+      <c r="E477" s="43"/>
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
       <c r="H477" s="11"/>
@@ -15878,7 +16161,7 @@
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
       <c r="D478" s="6"/>
-      <c r="E478" s="11"/>
+      <c r="E478" s="43"/>
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
       <c r="H478" s="11"/>
@@ -15906,7 +16189,7 @@
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
       <c r="D479" s="6"/>
-      <c r="E479" s="11"/>
+      <c r="E479" s="43"/>
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
       <c r="H479" s="11"/>
@@ -15934,7 +16217,7 @@
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
       <c r="D480" s="6"/>
-      <c r="E480" s="11"/>
+      <c r="E480" s="43"/>
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
       <c r="H480" s="11"/>
@@ -15962,7 +16245,7 @@
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
       <c r="D481" s="6"/>
-      <c r="E481" s="11"/>
+      <c r="E481" s="43"/>
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
       <c r="H481" s="11"/>
@@ -15990,7 +16273,7 @@
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
       <c r="D482" s="6"/>
-      <c r="E482" s="11"/>
+      <c r="E482" s="43"/>
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
       <c r="H482" s="11"/>
@@ -16018,7 +16301,7 @@
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
       <c r="D483" s="6"/>
-      <c r="E483" s="11"/>
+      <c r="E483" s="43"/>
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
       <c r="H483" s="11"/>
@@ -16046,7 +16329,7 @@
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
       <c r="D484" s="6"/>
-      <c r="E484" s="11"/>
+      <c r="E484" s="43"/>
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
       <c r="H484" s="11"/>
@@ -16074,7 +16357,7 @@
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
       <c r="D485" s="6"/>
-      <c r="E485" s="11"/>
+      <c r="E485" s="43"/>
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
       <c r="H485" s="11"/>
@@ -16102,7 +16385,7 @@
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
       <c r="D486" s="6"/>
-      <c r="E486" s="11"/>
+      <c r="E486" s="43"/>
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
       <c r="H486" s="11"/>
@@ -16130,7 +16413,7 @@
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
       <c r="D487" s="6"/>
-      <c r="E487" s="11"/>
+      <c r="E487" s="43"/>
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
       <c r="H487" s="11"/>
@@ -16158,7 +16441,7 @@
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
       <c r="D488" s="6"/>
-      <c r="E488" s="11"/>
+      <c r="E488" s="43"/>
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
       <c r="H488" s="11"/>
@@ -16186,7 +16469,7 @@
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
       <c r="D489" s="6"/>
-      <c r="E489" s="11"/>
+      <c r="E489" s="43"/>
       <c r="F489" s="11"/>
       <c r="G489" s="11"/>
       <c r="H489" s="11"/>
@@ -16214,7 +16497,7 @@
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
       <c r="D490" s="6"/>
-      <c r="E490" s="11"/>
+      <c r="E490" s="43"/>
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
       <c r="H490" s="11"/>
@@ -16242,7 +16525,7 @@
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
       <c r="D491" s="6"/>
-      <c r="E491" s="11"/>
+      <c r="E491" s="43"/>
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
       <c r="H491" s="11"/>
@@ -16270,7 +16553,7 @@
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
       <c r="D492" s="6"/>
-      <c r="E492" s="11"/>
+      <c r="E492" s="43"/>
       <c r="F492" s="11"/>
       <c r="G492" s="11"/>
       <c r="H492" s="11"/>
@@ -16298,7 +16581,7 @@
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
       <c r="D493" s="6"/>
-      <c r="E493" s="11"/>
+      <c r="E493" s="43"/>
       <c r="F493" s="11"/>
       <c r="G493" s="11"/>
       <c r="H493" s="11"/>
@@ -16326,7 +16609,7 @@
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
       <c r="D494" s="6"/>
-      <c r="E494" s="11"/>
+      <c r="E494" s="43"/>
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
       <c r="H494" s="11"/>
@@ -16354,7 +16637,7 @@
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
       <c r="D495" s="6"/>
-      <c r="E495" s="11"/>
+      <c r="E495" s="43"/>
       <c r="F495" s="11"/>
       <c r="G495" s="11"/>
       <c r="H495" s="11"/>
@@ -16382,7 +16665,7 @@
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
       <c r="D496" s="6"/>
-      <c r="E496" s="11"/>
+      <c r="E496" s="43"/>
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
       <c r="H496" s="11"/>
@@ -16410,7 +16693,7 @@
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
       <c r="D497" s="6"/>
-      <c r="E497" s="11"/>
+      <c r="E497" s="43"/>
       <c r="F497" s="11"/>
       <c r="G497" s="11"/>
       <c r="H497" s="11"/>
@@ -16438,7 +16721,7 @@
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
       <c r="D498" s="6"/>
-      <c r="E498" s="11"/>
+      <c r="E498" s="43"/>
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
       <c r="H498" s="11"/>
@@ -16466,7 +16749,7 @@
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
       <c r="D499" s="6"/>
-      <c r="E499" s="11"/>
+      <c r="E499" s="43"/>
       <c r="F499" s="11"/>
       <c r="G499" s="11"/>
       <c r="H499" s="11"/>
@@ -16494,7 +16777,7 @@
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
       <c r="D500" s="6"/>
-      <c r="E500" s="11"/>
+      <c r="E500" s="43"/>
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
       <c r="H500" s="11"/>
@@ -16522,7 +16805,7 @@
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
       <c r="D501" s="6"/>
-      <c r="E501" s="11"/>
+      <c r="E501" s="43"/>
       <c r="F501" s="11"/>
       <c r="G501" s="11"/>
       <c r="H501" s="11"/>
@@ -16550,7 +16833,7 @@
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
       <c r="D502" s="6"/>
-      <c r="E502" s="11"/>
+      <c r="E502" s="43"/>
       <c r="F502" s="11"/>
       <c r="G502" s="11"/>
       <c r="H502" s="11"/>
@@ -16578,7 +16861,7 @@
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
       <c r="D503" s="6"/>
-      <c r="E503" s="11"/>
+      <c r="E503" s="43"/>
       <c r="F503" s="11"/>
       <c r="G503" s="11"/>
       <c r="H503" s="11"/>
@@ -16606,7 +16889,7 @@
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
       <c r="D504" s="6"/>
-      <c r="E504" s="11"/>
+      <c r="E504" s="43"/>
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
       <c r="H504" s="11"/>
@@ -16634,7 +16917,7 @@
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
       <c r="D505" s="6"/>
-      <c r="E505" s="11"/>
+      <c r="E505" s="43"/>
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
       <c r="H505" s="11"/>
@@ -16662,7 +16945,7 @@
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
       <c r="D506" s="6"/>
-      <c r="E506" s="11"/>
+      <c r="E506" s="43"/>
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
       <c r="H506" s="11"/>
@@ -16690,7 +16973,7 @@
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
       <c r="D507" s="6"/>
-      <c r="E507" s="11"/>
+      <c r="E507" s="43"/>
       <c r="F507" s="11"/>
       <c r="G507" s="11"/>
       <c r="H507" s="11"/>
@@ -16718,7 +17001,7 @@
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
       <c r="D508" s="6"/>
-      <c r="E508" s="11"/>
+      <c r="E508" s="43"/>
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
       <c r="H508" s="11"/>
@@ -16746,7 +17029,7 @@
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
       <c r="D509" s="6"/>
-      <c r="E509" s="11"/>
+      <c r="E509" s="43"/>
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
       <c r="H509" s="11"/>
@@ -16774,7 +17057,7 @@
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
       <c r="D510" s="6"/>
-      <c r="E510" s="11"/>
+      <c r="E510" s="43"/>
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
       <c r="H510" s="11"/>
@@ -16802,7 +17085,7 @@
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
       <c r="D511" s="6"/>
-      <c r="E511" s="11"/>
+      <c r="E511" s="43"/>
       <c r="F511" s="11"/>
       <c r="G511" s="11"/>
       <c r="H511" s="11"/>
@@ -16830,7 +17113,7 @@
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
       <c r="D512" s="6"/>
-      <c r="E512" s="11"/>
+      <c r="E512" s="43"/>
       <c r="F512" s="11"/>
       <c r="G512" s="11"/>
       <c r="H512" s="11"/>
@@ -16858,7 +17141,7 @@
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
       <c r="D513" s="6"/>
-      <c r="E513" s="11"/>
+      <c r="E513" s="43"/>
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
       <c r="H513" s="11"/>
@@ -16886,7 +17169,7 @@
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
       <c r="D514" s="6"/>
-      <c r="E514" s="11"/>
+      <c r="E514" s="43"/>
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
       <c r="H514" s="11"/>
@@ -16914,7 +17197,7 @@
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
       <c r="D515" s="6"/>
-      <c r="E515" s="11"/>
+      <c r="E515" s="43"/>
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
       <c r="H515" s="11"/>
@@ -16942,7 +17225,7 @@
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
       <c r="D516" s="6"/>
-      <c r="E516" s="11"/>
+      <c r="E516" s="43"/>
       <c r="F516" s="11"/>
       <c r="G516" s="11"/>
       <c r="H516" s="11"/>
@@ -16970,7 +17253,7 @@
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
       <c r="D517" s="6"/>
-      <c r="E517" s="11"/>
+      <c r="E517" s="43"/>
       <c r="F517" s="11"/>
       <c r="G517" s="11"/>
       <c r="H517" s="11"/>
@@ -16998,7 +17281,7 @@
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
       <c r="D518" s="6"/>
-      <c r="E518" s="11"/>
+      <c r="E518" s="43"/>
       <c r="F518" s="11"/>
       <c r="G518" s="11"/>
       <c r="H518" s="11"/>
@@ -17026,7 +17309,7 @@
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
       <c r="D519" s="6"/>
-      <c r="E519" s="11"/>
+      <c r="E519" s="43"/>
       <c r="F519" s="11"/>
       <c r="G519" s="11"/>
       <c r="H519" s="11"/>
@@ -17054,7 +17337,7 @@
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
       <c r="D520" s="6"/>
-      <c r="E520" s="11"/>
+      <c r="E520" s="43"/>
       <c r="F520" s="11"/>
       <c r="G520" s="11"/>
       <c r="H520" s="11"/>
@@ -17082,7 +17365,7 @@
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
       <c r="D521" s="6"/>
-      <c r="E521" s="11"/>
+      <c r="E521" s="43"/>
       <c r="F521" s="11"/>
       <c r="G521" s="11"/>
       <c r="H521" s="11"/>
@@ -17110,7 +17393,7 @@
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
       <c r="D522" s="6"/>
-      <c r="E522" s="11"/>
+      <c r="E522" s="43"/>
       <c r="F522" s="11"/>
       <c r="G522" s="11"/>
       <c r="H522" s="11"/>
@@ -17138,7 +17421,7 @@
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
       <c r="D523" s="6"/>
-      <c r="E523" s="11"/>
+      <c r="E523" s="43"/>
       <c r="F523" s="11"/>
       <c r="G523" s="11"/>
       <c r="H523" s="11"/>
@@ -17166,7 +17449,7 @@
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
       <c r="D524" s="6"/>
-      <c r="E524" s="11"/>
+      <c r="E524" s="43"/>
       <c r="F524" s="11"/>
       <c r="G524" s="11"/>
       <c r="H524" s="11"/>
@@ -17194,7 +17477,7 @@
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
       <c r="D525" s="6"/>
-      <c r="E525" s="11"/>
+      <c r="E525" s="43"/>
       <c r="F525" s="11"/>
       <c r="G525" s="11"/>
       <c r="H525" s="11"/>
@@ -17222,7 +17505,7 @@
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
       <c r="D526" s="6"/>
-      <c r="E526" s="11"/>
+      <c r="E526" s="43"/>
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
       <c r="H526" s="11"/>
@@ -17250,7 +17533,7 @@
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
       <c r="D527" s="6"/>
-      <c r="E527" s="11"/>
+      <c r="E527" s="43"/>
       <c r="F527" s="11"/>
       <c r="G527" s="11"/>
       <c r="H527" s="11"/>
@@ -17278,7 +17561,7 @@
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
       <c r="D528" s="6"/>
-      <c r="E528" s="11"/>
+      <c r="E528" s="43"/>
       <c r="F528" s="11"/>
       <c r="G528" s="11"/>
       <c r="H528" s="11"/>
@@ -17306,7 +17589,7 @@
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
       <c r="D529" s="6"/>
-      <c r="E529" s="11"/>
+      <c r="E529" s="43"/>
       <c r="F529" s="11"/>
       <c r="G529" s="11"/>
       <c r="H529" s="11"/>
@@ -17334,7 +17617,7 @@
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
       <c r="D530" s="6"/>
-      <c r="E530" s="11"/>
+      <c r="E530" s="43"/>
       <c r="F530" s="11"/>
       <c r="G530" s="11"/>
       <c r="H530" s="11"/>
@@ -17362,7 +17645,7 @@
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
       <c r="D531" s="6"/>
-      <c r="E531" s="11"/>
+      <c r="E531" s="43"/>
       <c r="F531" s="11"/>
       <c r="G531" s="11"/>
       <c r="H531" s="11"/>
@@ -17390,7 +17673,7 @@
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
       <c r="D532" s="6"/>
-      <c r="E532" s="11"/>
+      <c r="E532" s="43"/>
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
       <c r="H532" s="11"/>
@@ -17418,7 +17701,7 @@
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
       <c r="D533" s="6"/>
-      <c r="E533" s="11"/>
+      <c r="E533" s="43"/>
       <c r="F533" s="11"/>
       <c r="G533" s="11"/>
       <c r="H533" s="11"/>
@@ -17446,7 +17729,7 @@
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
       <c r="D534" s="6"/>
-      <c r="E534" s="11"/>
+      <c r="E534" s="43"/>
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
       <c r="H534" s="11"/>
@@ -17474,7 +17757,7 @@
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
       <c r="D535" s="6"/>
-      <c r="E535" s="11"/>
+      <c r="E535" s="43"/>
       <c r="F535" s="11"/>
       <c r="G535" s="11"/>
       <c r="H535" s="11"/>
@@ -17502,7 +17785,7 @@
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
       <c r="D536" s="6"/>
-      <c r="E536" s="11"/>
+      <c r="E536" s="43"/>
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
       <c r="H536" s="11"/>
@@ -17530,7 +17813,7 @@
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
       <c r="D537" s="6"/>
-      <c r="E537" s="11"/>
+      <c r="E537" s="43"/>
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
       <c r="H537" s="11"/>
@@ -17558,7 +17841,7 @@
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
       <c r="D538" s="6"/>
-      <c r="E538" s="11"/>
+      <c r="E538" s="43"/>
       <c r="F538" s="11"/>
       <c r="G538" s="11"/>
       <c r="H538" s="11"/>
@@ -17586,7 +17869,7 @@
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
       <c r="D539" s="6"/>
-      <c r="E539" s="11"/>
+      <c r="E539" s="43"/>
       <c r="F539" s="11"/>
       <c r="G539" s="11"/>
       <c r="H539" s="11"/>
@@ -17614,7 +17897,7 @@
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
       <c r="D540" s="6"/>
-      <c r="E540" s="11"/>
+      <c r="E540" s="43"/>
       <c r="F540" s="11"/>
       <c r="G540" s="11"/>
       <c r="H540" s="11"/>
@@ -17642,7 +17925,7 @@
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
       <c r="D541" s="6"/>
-      <c r="E541" s="11"/>
+      <c r="E541" s="43"/>
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
       <c r="H541" s="11"/>
@@ -17670,7 +17953,7 @@
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
       <c r="D542" s="6"/>
-      <c r="E542" s="11"/>
+      <c r="E542" s="43"/>
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
       <c r="H542" s="11"/>
@@ -17698,7 +17981,7 @@
       <c r="B543" s="11"/>
       <c r="C543" s="11"/>
       <c r="D543" s="6"/>
-      <c r="E543" s="11"/>
+      <c r="E543" s="43"/>
       <c r="F543" s="11"/>
       <c r="G543" s="11"/>
       <c r="H543" s="11"/>
@@ -17726,7 +18009,7 @@
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
       <c r="D544" s="6"/>
-      <c r="E544" s="11"/>
+      <c r="E544" s="43"/>
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
       <c r="H544" s="11"/>
@@ -17754,7 +18037,7 @@
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
       <c r="D545" s="6"/>
-      <c r="E545" s="11"/>
+      <c r="E545" s="43"/>
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
       <c r="H545" s="11"/>
@@ -17782,7 +18065,7 @@
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
       <c r="D546" s="6"/>
-      <c r="E546" s="11"/>
+      <c r="E546" s="43"/>
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
       <c r="H546" s="11"/>
@@ -17810,7 +18093,7 @@
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
       <c r="D547" s="6"/>
-      <c r="E547" s="11"/>
+      <c r="E547" s="43"/>
       <c r="F547" s="11"/>
       <c r="G547" s="11"/>
       <c r="H547" s="11"/>
@@ -17838,7 +18121,7 @@
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
       <c r="D548" s="6"/>
-      <c r="E548" s="11"/>
+      <c r="E548" s="43"/>
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
       <c r="H548" s="11"/>
@@ -17866,7 +18149,7 @@
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
       <c r="D549" s="6"/>
-      <c r="E549" s="11"/>
+      <c r="E549" s="43"/>
       <c r="F549" s="11"/>
       <c r="G549" s="11"/>
       <c r="H549" s="11"/>
@@ -17894,7 +18177,7 @@
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
       <c r="D550" s="6"/>
-      <c r="E550" s="11"/>
+      <c r="E550" s="43"/>
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
       <c r="H550" s="11"/>
@@ -17922,7 +18205,7 @@
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
       <c r="D551" s="6"/>
-      <c r="E551" s="11"/>
+      <c r="E551" s="43"/>
       <c r="F551" s="11"/>
       <c r="G551" s="11"/>
       <c r="H551" s="11"/>
@@ -17950,7 +18233,7 @@
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
       <c r="D552" s="6"/>
-      <c r="E552" s="11"/>
+      <c r="E552" s="43"/>
       <c r="F552" s="11"/>
       <c r="G552" s="11"/>
       <c r="H552" s="11"/>
@@ -17978,7 +18261,7 @@
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
       <c r="D553" s="6"/>
-      <c r="E553" s="11"/>
+      <c r="E553" s="43"/>
       <c r="F553" s="11"/>
       <c r="G553" s="11"/>
       <c r="H553" s="11"/>
@@ -18006,7 +18289,7 @@
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
       <c r="D554" s="6"/>
-      <c r="E554" s="11"/>
+      <c r="E554" s="43"/>
       <c r="F554" s="11"/>
       <c r="G554" s="11"/>
       <c r="H554" s="11"/>
@@ -18034,7 +18317,7 @@
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
       <c r="D555" s="6"/>
-      <c r="E555" s="11"/>
+      <c r="E555" s="43"/>
       <c r="F555" s="11"/>
       <c r="G555" s="11"/>
       <c r="H555" s="11"/>
@@ -18062,7 +18345,7 @@
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
       <c r="D556" s="6"/>
-      <c r="E556" s="11"/>
+      <c r="E556" s="43"/>
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
       <c r="H556" s="11"/>
@@ -18090,7 +18373,7 @@
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
       <c r="D557" s="6"/>
-      <c r="E557" s="11"/>
+      <c r="E557" s="43"/>
       <c r="F557" s="11"/>
       <c r="G557" s="11"/>
       <c r="H557" s="11"/>
@@ -18118,7 +18401,7 @@
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
       <c r="D558" s="6"/>
-      <c r="E558" s="11"/>
+      <c r="E558" s="43"/>
       <c r="F558" s="11"/>
       <c r="G558" s="11"/>
       <c r="H558" s="11"/>
@@ -18146,7 +18429,7 @@
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
       <c r="D559" s="6"/>
-      <c r="E559" s="11"/>
+      <c r="E559" s="43"/>
       <c r="F559" s="11"/>
       <c r="G559" s="11"/>
       <c r="H559" s="11"/>
@@ -18174,7 +18457,7 @@
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
       <c r="D560" s="6"/>
-      <c r="E560" s="11"/>
+      <c r="E560" s="43"/>
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
       <c r="H560" s="11"/>
@@ -18202,7 +18485,7 @@
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
       <c r="D561" s="6"/>
-      <c r="E561" s="11"/>
+      <c r="E561" s="43"/>
       <c r="F561" s="11"/>
       <c r="G561" s="11"/>
       <c r="H561" s="11"/>
@@ -18230,7 +18513,7 @@
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
       <c r="D562" s="6"/>
-      <c r="E562" s="11"/>
+      <c r="E562" s="43"/>
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
       <c r="H562" s="11"/>
@@ -18258,7 +18541,7 @@
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
       <c r="D563" s="6"/>
-      <c r="E563" s="11"/>
+      <c r="E563" s="43"/>
       <c r="F563" s="11"/>
       <c r="G563" s="11"/>
       <c r="H563" s="11"/>
@@ -18286,7 +18569,7 @@
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
       <c r="D564" s="6"/>
-      <c r="E564" s="11"/>
+      <c r="E564" s="43"/>
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
       <c r="H564" s="11"/>
@@ -18314,7 +18597,7 @@
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
       <c r="D565" s="6"/>
-      <c r="E565" s="11"/>
+      <c r="E565" s="43"/>
       <c r="F565" s="11"/>
       <c r="G565" s="11"/>
       <c r="H565" s="11"/>
@@ -18342,7 +18625,7 @@
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
       <c r="D566" s="6"/>
-      <c r="E566" s="11"/>
+      <c r="E566" s="43"/>
       <c r="F566" s="11"/>
       <c r="G566" s="11"/>
       <c r="H566" s="11"/>
@@ -18370,7 +18653,7 @@
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
       <c r="D567" s="6"/>
-      <c r="E567" s="11"/>
+      <c r="E567" s="43"/>
       <c r="F567" s="11"/>
       <c r="G567" s="11"/>
       <c r="H567" s="11"/>
@@ -18398,7 +18681,7 @@
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
       <c r="D568" s="6"/>
-      <c r="E568" s="11"/>
+      <c r="E568" s="43"/>
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
       <c r="H568" s="11"/>
@@ -18426,7 +18709,7 @@
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
       <c r="D569" s="6"/>
-      <c r="E569" s="11"/>
+      <c r="E569" s="43"/>
       <c r="F569" s="11"/>
       <c r="G569" s="11"/>
       <c r="H569" s="11"/>
@@ -18454,7 +18737,7 @@
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
       <c r="D570" s="6"/>
-      <c r="E570" s="11"/>
+      <c r="E570" s="43"/>
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
       <c r="H570" s="11"/>
@@ -18482,7 +18765,7 @@
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
       <c r="D571" s="6"/>
-      <c r="E571" s="11"/>
+      <c r="E571" s="43"/>
       <c r="F571" s="11"/>
       <c r="G571" s="11"/>
       <c r="H571" s="11"/>
@@ -18510,7 +18793,7 @@
       <c r="B572" s="11"/>
       <c r="C572" s="11"/>
       <c r="D572" s="6"/>
-      <c r="E572" s="11"/>
+      <c r="E572" s="43"/>
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
       <c r="H572" s="11"/>
@@ -18538,7 +18821,7 @@
       <c r="B573" s="11"/>
       <c r="C573" s="11"/>
       <c r="D573" s="6"/>
-      <c r="E573" s="11"/>
+      <c r="E573" s="43"/>
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
       <c r="H573" s="11"/>
@@ -18566,7 +18849,7 @@
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
       <c r="D574" s="6"/>
-      <c r="E574" s="11"/>
+      <c r="E574" s="43"/>
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
       <c r="H574" s="11"/>
@@ -18594,7 +18877,7 @@
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
       <c r="D575" s="6"/>
-      <c r="E575" s="11"/>
+      <c r="E575" s="43"/>
       <c r="F575" s="11"/>
       <c r="G575" s="11"/>
       <c r="H575" s="11"/>
@@ -18622,7 +18905,7 @@
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
       <c r="D576" s="6"/>
-      <c r="E576" s="11"/>
+      <c r="E576" s="43"/>
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
       <c r="H576" s="11"/>
@@ -18650,7 +18933,7 @@
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
       <c r="D577" s="6"/>
-      <c r="E577" s="11"/>
+      <c r="E577" s="43"/>
       <c r="F577" s="11"/>
       <c r="G577" s="11"/>
       <c r="H577" s="11"/>
@@ -18678,7 +18961,7 @@
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
       <c r="D578" s="6"/>
-      <c r="E578" s="11"/>
+      <c r="E578" s="43"/>
       <c r="F578" s="11"/>
       <c r="G578" s="11"/>
       <c r="H578" s="11"/>
@@ -18706,7 +18989,7 @@
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
       <c r="D579" s="6"/>
-      <c r="E579" s="11"/>
+      <c r="E579" s="43"/>
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
       <c r="H579" s="11"/>
@@ -18734,7 +19017,7 @@
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
       <c r="D580" s="6"/>
-      <c r="E580" s="11"/>
+      <c r="E580" s="43"/>
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
       <c r="H580" s="11"/>
@@ -18762,7 +19045,7 @@
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
       <c r="D581" s="6"/>
-      <c r="E581" s="11"/>
+      <c r="E581" s="43"/>
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
       <c r="H581" s="11"/>
@@ -18790,7 +19073,7 @@
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
       <c r="D582" s="6"/>
-      <c r="E582" s="11"/>
+      <c r="E582" s="43"/>
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
       <c r="H582" s="11"/>
@@ -18818,7 +19101,7 @@
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
       <c r="D583" s="6"/>
-      <c r="E583" s="11"/>
+      <c r="E583" s="43"/>
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
       <c r="H583" s="11"/>
@@ -18846,7 +19129,7 @@
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
       <c r="D584" s="6"/>
-      <c r="E584" s="11"/>
+      <c r="E584" s="43"/>
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
       <c r="H584" s="11"/>
@@ -18874,7 +19157,7 @@
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
       <c r="D585" s="6"/>
-      <c r="E585" s="11"/>
+      <c r="E585" s="43"/>
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
       <c r="H585" s="11"/>
@@ -18902,7 +19185,7 @@
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
       <c r="D586" s="6"/>
-      <c r="E586" s="11"/>
+      <c r="E586" s="43"/>
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
       <c r="H586" s="11"/>
@@ -18930,7 +19213,7 @@
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
       <c r="D587" s="6"/>
-      <c r="E587" s="11"/>
+      <c r="E587" s="43"/>
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
       <c r="H587" s="11"/>
@@ -18958,7 +19241,7 @@
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
       <c r="D588" s="6"/>
-      <c r="E588" s="11"/>
+      <c r="E588" s="43"/>
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
       <c r="H588" s="11"/>
@@ -18986,7 +19269,7 @@
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
       <c r="D589" s="6"/>
-      <c r="E589" s="11"/>
+      <c r="E589" s="43"/>
       <c r="F589" s="11"/>
       <c r="G589" s="11"/>
       <c r="H589" s="11"/>
@@ -19014,7 +19297,7 @@
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
       <c r="D590" s="6"/>
-      <c r="E590" s="11"/>
+      <c r="E590" s="43"/>
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
       <c r="H590" s="11"/>
@@ -19042,7 +19325,7 @@
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
       <c r="D591" s="6"/>
-      <c r="E591" s="11"/>
+      <c r="E591" s="43"/>
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
       <c r="H591" s="11"/>
@@ -19070,7 +19353,7 @@
       <c r="B592" s="11"/>
       <c r="C592" s="11"/>
       <c r="D592" s="6"/>
-      <c r="E592" s="11"/>
+      <c r="E592" s="43"/>
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
       <c r="H592" s="11"/>
@@ -19098,7 +19381,7 @@
       <c r="B593" s="11"/>
       <c r="C593" s="11"/>
       <c r="D593" s="6"/>
-      <c r="E593" s="11"/>
+      <c r="E593" s="43"/>
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
       <c r="H593" s="11"/>
@@ -19126,7 +19409,7 @@
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
       <c r="D594" s="6"/>
-      <c r="E594" s="11"/>
+      <c r="E594" s="43"/>
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
       <c r="H594" s="11"/>
@@ -19154,7 +19437,7 @@
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
       <c r="D595" s="6"/>
-      <c r="E595" s="11"/>
+      <c r="E595" s="43"/>
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
       <c r="H595" s="11"/>
@@ -19182,7 +19465,7 @@
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
       <c r="D596" s="6"/>
-      <c r="E596" s="11"/>
+      <c r="E596" s="43"/>
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
       <c r="H596" s="11"/>
@@ -19210,7 +19493,7 @@
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
       <c r="D597" s="6"/>
-      <c r="E597" s="11"/>
+      <c r="E597" s="43"/>
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
       <c r="H597" s="11"/>
@@ -19238,7 +19521,7 @@
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
       <c r="D598" s="6"/>
-      <c r="E598" s="11"/>
+      <c r="E598" s="43"/>
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
       <c r="H598" s="11"/>
@@ -19266,7 +19549,7 @@
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
       <c r="D599" s="6"/>
-      <c r="E599" s="11"/>
+      <c r="E599" s="43"/>
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
       <c r="H599" s="11"/>
@@ -19294,7 +19577,7 @@
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
       <c r="D600" s="6"/>
-      <c r="E600" s="11"/>
+      <c r="E600" s="43"/>
       <c r="F600" s="11"/>
       <c r="G600" s="11"/>
       <c r="H600" s="11"/>
@@ -19322,7 +19605,7 @@
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
       <c r="D601" s="6"/>
-      <c r="E601" s="11"/>
+      <c r="E601" s="43"/>
       <c r="F601" s="11"/>
       <c r="G601" s="11"/>
       <c r="H601" s="11"/>
@@ -19350,7 +19633,7 @@
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
       <c r="D602" s="6"/>
-      <c r="E602" s="11"/>
+      <c r="E602" s="43"/>
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
       <c r="H602" s="11"/>
@@ -19378,7 +19661,7 @@
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
       <c r="D603" s="6"/>
-      <c r="E603" s="11"/>
+      <c r="E603" s="43"/>
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
       <c r="H603" s="11"/>
@@ -19406,7 +19689,7 @@
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
       <c r="D604" s="6"/>
-      <c r="E604" s="11"/>
+      <c r="E604" s="43"/>
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
       <c r="H604" s="11"/>
@@ -19434,7 +19717,7 @@
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
       <c r="D605" s="6"/>
-      <c r="E605" s="11"/>
+      <c r="E605" s="43"/>
       <c r="F605" s="11"/>
       <c r="G605" s="11"/>
       <c r="H605" s="11"/>
@@ -19462,7 +19745,7 @@
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
       <c r="D606" s="6"/>
-      <c r="E606" s="11"/>
+      <c r="E606" s="43"/>
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
       <c r="H606" s="11"/>
@@ -19490,7 +19773,7 @@
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
       <c r="D607" s="6"/>
-      <c r="E607" s="11"/>
+      <c r="E607" s="43"/>
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
       <c r="H607" s="11"/>
@@ -19518,7 +19801,7 @@
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
       <c r="D608" s="6"/>
-      <c r="E608" s="11"/>
+      <c r="E608" s="43"/>
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
       <c r="H608" s="11"/>
@@ -19546,7 +19829,7 @@
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
       <c r="D609" s="6"/>
-      <c r="E609" s="11"/>
+      <c r="E609" s="43"/>
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
       <c r="H609" s="11"/>
@@ -19574,7 +19857,7 @@
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
       <c r="D610" s="6"/>
-      <c r="E610" s="11"/>
+      <c r="E610" s="43"/>
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
       <c r="H610" s="11"/>
@@ -19602,7 +19885,7 @@
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
       <c r="D611" s="6"/>
-      <c r="E611" s="11"/>
+      <c r="E611" s="43"/>
       <c r="F611" s="11"/>
       <c r="G611" s="11"/>
       <c r="H611" s="11"/>
@@ -19630,7 +19913,7 @@
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
       <c r="D612" s="6"/>
-      <c r="E612" s="11"/>
+      <c r="E612" s="43"/>
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
       <c r="H612" s="11"/>
@@ -19658,7 +19941,7 @@
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
       <c r="D613" s="6"/>
-      <c r="E613" s="11"/>
+      <c r="E613" s="43"/>
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
       <c r="H613" s="11"/>
@@ -19686,7 +19969,7 @@
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
       <c r="D614" s="6"/>
-      <c r="E614" s="11"/>
+      <c r="E614" s="43"/>
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
       <c r="H614" s="11"/>
@@ -19714,7 +19997,7 @@
       <c r="B615" s="11"/>
       <c r="C615" s="11"/>
       <c r="D615" s="6"/>
-      <c r="E615" s="11"/>
+      <c r="E615" s="43"/>
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
       <c r="H615" s="11"/>
@@ -19742,7 +20025,7 @@
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
       <c r="D616" s="6"/>
-      <c r="E616" s="11"/>
+      <c r="E616" s="43"/>
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
       <c r="H616" s="11"/>
@@ -19770,7 +20053,7 @@
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
       <c r="D617" s="6"/>
-      <c r="E617" s="11"/>
+      <c r="E617" s="43"/>
       <c r="F617" s="11"/>
       <c r="G617" s="11"/>
       <c r="H617" s="11"/>
@@ -19798,7 +20081,7 @@
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
       <c r="D618" s="6"/>
-      <c r="E618" s="11"/>
+      <c r="E618" s="43"/>
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
       <c r="H618" s="11"/>
@@ -19826,7 +20109,7 @@
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
       <c r="D619" s="6"/>
-      <c r="E619" s="11"/>
+      <c r="E619" s="43"/>
       <c r="F619" s="11"/>
       <c r="G619" s="11"/>
       <c r="H619" s="11"/>
@@ -19854,7 +20137,7 @@
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
       <c r="D620" s="6"/>
-      <c r="E620" s="11"/>
+      <c r="E620" s="43"/>
       <c r="F620" s="11"/>
       <c r="G620" s="11"/>
       <c r="H620" s="11"/>
@@ -19882,7 +20165,7 @@
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
       <c r="D621" s="6"/>
-      <c r="E621" s="11"/>
+      <c r="E621" s="43"/>
       <c r="F621" s="11"/>
       <c r="G621" s="11"/>
       <c r="H621" s="11"/>
@@ -19910,7 +20193,7 @@
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
       <c r="D622" s="6"/>
-      <c r="E622" s="11"/>
+      <c r="E622" s="43"/>
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
       <c r="H622" s="11"/>
@@ -19938,7 +20221,7 @@
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
       <c r="D623" s="6"/>
-      <c r="E623" s="11"/>
+      <c r="E623" s="43"/>
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
       <c r="H623" s="11"/>
@@ -19966,7 +20249,7 @@
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
       <c r="D624" s="6"/>
-      <c r="E624" s="11"/>
+      <c r="E624" s="43"/>
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
       <c r="H624" s="11"/>
@@ -19994,7 +20277,7 @@
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
       <c r="D625" s="6"/>
-      <c r="E625" s="11"/>
+      <c r="E625" s="43"/>
       <c r="F625" s="11"/>
       <c r="G625" s="11"/>
       <c r="H625" s="11"/>
@@ -20022,7 +20305,7 @@
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
       <c r="D626" s="6"/>
-      <c r="E626" s="11"/>
+      <c r="E626" s="43"/>
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
       <c r="H626" s="11"/>
@@ -20050,7 +20333,7 @@
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
       <c r="D627" s="6"/>
-      <c r="E627" s="11"/>
+      <c r="E627" s="43"/>
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
       <c r="H627" s="11"/>
@@ -20078,7 +20361,7 @@
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
       <c r="D628" s="6"/>
-      <c r="E628" s="11"/>
+      <c r="E628" s="43"/>
       <c r="F628" s="11"/>
       <c r="G628" s="11"/>
       <c r="H628" s="11"/>
@@ -20106,7 +20389,7 @@
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
       <c r="D629" s="6"/>
-      <c r="E629" s="11"/>
+      <c r="E629" s="43"/>
       <c r="F629" s="11"/>
       <c r="G629" s="11"/>
       <c r="H629" s="11"/>
@@ -20134,7 +20417,7 @@
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
       <c r="D630" s="6"/>
-      <c r="E630" s="11"/>
+      <c r="E630" s="43"/>
       <c r="F630" s="11"/>
       <c r="G630" s="11"/>
       <c r="H630" s="11"/>
@@ -20162,7 +20445,7 @@
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
       <c r="D631" s="6"/>
-      <c r="E631" s="11"/>
+      <c r="E631" s="43"/>
       <c r="F631" s="11"/>
       <c r="G631" s="11"/>
       <c r="H631" s="11"/>
@@ -20190,7 +20473,7 @@
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
       <c r="D632" s="6"/>
-      <c r="E632" s="11"/>
+      <c r="E632" s="43"/>
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
       <c r="H632" s="11"/>
@@ -20218,7 +20501,7 @@
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
       <c r="D633" s="6"/>
-      <c r="E633" s="11"/>
+      <c r="E633" s="43"/>
       <c r="F633" s="11"/>
       <c r="G633" s="11"/>
       <c r="H633" s="11"/>
@@ -20246,7 +20529,7 @@
       <c r="B634" s="11"/>
       <c r="C634" s="11"/>
       <c r="D634" s="6"/>
-      <c r="E634" s="11"/>
+      <c r="E634" s="43"/>
       <c r="F634" s="11"/>
       <c r="G634" s="11"/>
       <c r="H634" s="11"/>
@@ -20274,7 +20557,7 @@
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
       <c r="D635" s="6"/>
-      <c r="E635" s="11"/>
+      <c r="E635" s="43"/>
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
       <c r="H635" s="11"/>
@@ -20302,7 +20585,7 @@
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
       <c r="D636" s="6"/>
-      <c r="E636" s="11"/>
+      <c r="E636" s="43"/>
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
       <c r="H636" s="11"/>
@@ -20330,7 +20613,7 @@
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
       <c r="D637" s="6"/>
-      <c r="E637" s="11"/>
+      <c r="E637" s="43"/>
       <c r="F637" s="11"/>
       <c r="G637" s="11"/>
       <c r="H637" s="11"/>
@@ -20358,7 +20641,7 @@
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
       <c r="D638" s="6"/>
-      <c r="E638" s="11"/>
+      <c r="E638" s="43"/>
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
       <c r="H638" s="11"/>
@@ -20386,7 +20669,7 @@
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
       <c r="D639" s="6"/>
-      <c r="E639" s="11"/>
+      <c r="E639" s="43"/>
       <c r="F639" s="11"/>
       <c r="G639" s="11"/>
       <c r="H639" s="11"/>
@@ -20414,7 +20697,7 @@
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
       <c r="D640" s="6"/>
-      <c r="E640" s="11"/>
+      <c r="E640" s="43"/>
       <c r="F640" s="11"/>
       <c r="G640" s="11"/>
       <c r="H640" s="11"/>
@@ -20442,7 +20725,7 @@
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
       <c r="D641" s="6"/>
-      <c r="E641" s="11"/>
+      <c r="E641" s="43"/>
       <c r="F641" s="11"/>
       <c r="G641" s="11"/>
       <c r="H641" s="11"/>
@@ -20470,7 +20753,7 @@
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
       <c r="D642" s="6"/>
-      <c r="E642" s="11"/>
+      <c r="E642" s="43"/>
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
       <c r="H642" s="11"/>
@@ -20498,7 +20781,7 @@
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
       <c r="D643" s="6"/>
-      <c r="E643" s="11"/>
+      <c r="E643" s="43"/>
       <c r="F643" s="11"/>
       <c r="G643" s="11"/>
       <c r="H643" s="11"/>
@@ -20526,7 +20809,7 @@
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
       <c r="D644" s="6"/>
-      <c r="E644" s="11"/>
+      <c r="E644" s="43"/>
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
       <c r="H644" s="11"/>
@@ -20554,7 +20837,7 @@
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
       <c r="D645" s="6"/>
-      <c r="E645" s="11"/>
+      <c r="E645" s="43"/>
       <c r="F645" s="11"/>
       <c r="G645" s="11"/>
       <c r="H645" s="11"/>
@@ -20582,7 +20865,7 @@
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
       <c r="D646" s="6"/>
-      <c r="E646" s="11"/>
+      <c r="E646" s="43"/>
       <c r="F646" s="11"/>
       <c r="G646" s="11"/>
       <c r="H646" s="11"/>
@@ -20610,7 +20893,7 @@
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
       <c r="D647" s="6"/>
-      <c r="E647" s="11"/>
+      <c r="E647" s="43"/>
       <c r="F647" s="11"/>
       <c r="G647" s="11"/>
       <c r="H647" s="11"/>
@@ -20638,7 +20921,7 @@
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
       <c r="D648" s="6"/>
-      <c r="E648" s="11"/>
+      <c r="E648" s="43"/>
       <c r="F648" s="11"/>
       <c r="G648" s="11"/>
       <c r="H648" s="11"/>
@@ -20666,7 +20949,7 @@
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
       <c r="D649" s="6"/>
-      <c r="E649" s="11"/>
+      <c r="E649" s="43"/>
       <c r="F649" s="11"/>
       <c r="G649" s="11"/>
       <c r="H649" s="11"/>
@@ -20694,7 +20977,7 @@
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
       <c r="D650" s="6"/>
-      <c r="E650" s="11"/>
+      <c r="E650" s="43"/>
       <c r="F650" s="11"/>
       <c r="G650" s="11"/>
       <c r="H650" s="11"/>
@@ -20722,7 +21005,7 @@
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
       <c r="D651" s="6"/>
-      <c r="E651" s="11"/>
+      <c r="E651" s="43"/>
       <c r="F651" s="11"/>
       <c r="G651" s="11"/>
       <c r="H651" s="11"/>
@@ -20750,7 +21033,7 @@
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
       <c r="D652" s="6"/>
-      <c r="E652" s="11"/>
+      <c r="E652" s="43"/>
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
       <c r="H652" s="11"/>
@@ -20778,7 +21061,7 @@
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
       <c r="D653" s="6"/>
-      <c r="E653" s="11"/>
+      <c r="E653" s="43"/>
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
       <c r="H653" s="11"/>
@@ -20806,7 +21089,7 @@
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
       <c r="D654" s="6"/>
-      <c r="E654" s="11"/>
+      <c r="E654" s="43"/>
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
       <c r="H654" s="11"/>
@@ -20834,7 +21117,7 @@
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
       <c r="D655" s="6"/>
-      <c r="E655" s="11"/>
+      <c r="E655" s="43"/>
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
       <c r="H655" s="11"/>
@@ -20862,7 +21145,7 @@
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
       <c r="D656" s="6"/>
-      <c r="E656" s="11"/>
+      <c r="E656" s="43"/>
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
       <c r="H656" s="11"/>
@@ -20890,7 +21173,7 @@
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
       <c r="D657" s="6"/>
-      <c r="E657" s="11"/>
+      <c r="E657" s="43"/>
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
       <c r="H657" s="11"/>
@@ -20918,7 +21201,7 @@
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
       <c r="D658" s="6"/>
-      <c r="E658" s="11"/>
+      <c r="E658" s="43"/>
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
       <c r="H658" s="11"/>
@@ -20946,7 +21229,7 @@
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
       <c r="D659" s="6"/>
-      <c r="E659" s="11"/>
+      <c r="E659" s="43"/>
       <c r="F659" s="11"/>
       <c r="G659" s="11"/>
       <c r="H659" s="11"/>
@@ -20974,7 +21257,7 @@
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
       <c r="D660" s="6"/>
-      <c r="E660" s="11"/>
+      <c r="E660" s="43"/>
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
       <c r="H660" s="11"/>
@@ -21002,7 +21285,7 @@
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
       <c r="D661" s="6"/>
-      <c r="E661" s="11"/>
+      <c r="E661" s="43"/>
       <c r="F661" s="11"/>
       <c r="G661" s="11"/>
       <c r="H661" s="11"/>
@@ -21030,7 +21313,7 @@
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
       <c r="D662" s="6"/>
-      <c r="E662" s="11"/>
+      <c r="E662" s="43"/>
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
       <c r="H662" s="11"/>
@@ -21058,7 +21341,7 @@
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
       <c r="D663" s="6"/>
-      <c r="E663" s="11"/>
+      <c r="E663" s="43"/>
       <c r="F663" s="11"/>
       <c r="G663" s="11"/>
       <c r="H663" s="11"/>
@@ -21086,7 +21369,7 @@
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
       <c r="D664" s="6"/>
-      <c r="E664" s="11"/>
+      <c r="E664" s="43"/>
       <c r="F664" s="11"/>
       <c r="G664" s="11"/>
       <c r="H664" s="11"/>
@@ -21114,7 +21397,7 @@
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
       <c r="D665" s="6"/>
-      <c r="E665" s="11"/>
+      <c r="E665" s="43"/>
       <c r="F665" s="11"/>
       <c r="G665" s="11"/>
       <c r="H665" s="11"/>
@@ -21142,7 +21425,7 @@
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
       <c r="D666" s="6"/>
-      <c r="E666" s="11"/>
+      <c r="E666" s="43"/>
       <c r="F666" s="11"/>
       <c r="G666" s="11"/>
       <c r="H666" s="11"/>
@@ -21170,7 +21453,7 @@
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
       <c r="D667" s="6"/>
-      <c r="E667" s="11"/>
+      <c r="E667" s="43"/>
       <c r="F667" s="11"/>
       <c r="G667" s="11"/>
       <c r="H667" s="11"/>
@@ -21198,7 +21481,7 @@
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
       <c r="D668" s="6"/>
-      <c r="E668" s="11"/>
+      <c r="E668" s="43"/>
       <c r="F668" s="11"/>
       <c r="G668" s="11"/>
       <c r="H668" s="11"/>
@@ -21226,7 +21509,7 @@
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
       <c r="D669" s="6"/>
-      <c r="E669" s="11"/>
+      <c r="E669" s="43"/>
       <c r="F669" s="11"/>
       <c r="G669" s="11"/>
       <c r="H669" s="11"/>
@@ -21254,7 +21537,7 @@
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
       <c r="D670" s="6"/>
-      <c r="E670" s="11"/>
+      <c r="E670" s="43"/>
       <c r="F670" s="11"/>
       <c r="G670" s="11"/>
       <c r="H670" s="11"/>
@@ -21282,7 +21565,7 @@
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
       <c r="D671" s="6"/>
-      <c r="E671" s="11"/>
+      <c r="E671" s="43"/>
       <c r="F671" s="11"/>
       <c r="G671" s="11"/>
       <c r="H671" s="11"/>
@@ -21310,7 +21593,7 @@
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
       <c r="D672" s="6"/>
-      <c r="E672" s="11"/>
+      <c r="E672" s="43"/>
       <c r="F672" s="11"/>
       <c r="G672" s="11"/>
       <c r="H672" s="11"/>
@@ -21338,7 +21621,7 @@
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
       <c r="D673" s="6"/>
-      <c r="E673" s="11"/>
+      <c r="E673" s="43"/>
       <c r="F673" s="11"/>
       <c r="G673" s="11"/>
       <c r="H673" s="11"/>
@@ -21366,7 +21649,7 @@
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
       <c r="D674" s="6"/>
-      <c r="E674" s="11"/>
+      <c r="E674" s="43"/>
       <c r="F674" s="11"/>
       <c r="G674" s="11"/>
       <c r="H674" s="11"/>
@@ -21394,7 +21677,7 @@
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
       <c r="D675" s="6"/>
-      <c r="E675" s="11"/>
+      <c r="E675" s="43"/>
       <c r="F675" s="11"/>
       <c r="G675" s="11"/>
       <c r="H675" s="11"/>
@@ -21422,7 +21705,7 @@
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
       <c r="D676" s="6"/>
-      <c r="E676" s="11"/>
+      <c r="E676" s="43"/>
       <c r="F676" s="11"/>
       <c r="G676" s="11"/>
       <c r="H676" s="11"/>
@@ -21450,7 +21733,7 @@
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
       <c r="D677" s="6"/>
-      <c r="E677" s="11"/>
+      <c r="E677" s="43"/>
       <c r="F677" s="11"/>
       <c r="G677" s="11"/>
       <c r="H677" s="11"/>
@@ -21478,7 +21761,7 @@
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
       <c r="D678" s="6"/>
-      <c r="E678" s="11"/>
+      <c r="E678" s="43"/>
       <c r="F678" s="11"/>
       <c r="G678" s="11"/>
       <c r="H678" s="11"/>
@@ -21506,7 +21789,7 @@
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
       <c r="D679" s="6"/>
-      <c r="E679" s="11"/>
+      <c r="E679" s="43"/>
       <c r="F679" s="11"/>
       <c r="G679" s="11"/>
       <c r="H679" s="11"/>
@@ -21534,7 +21817,7 @@
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
       <c r="D680" s="6"/>
-      <c r="E680" s="11"/>
+      <c r="E680" s="43"/>
       <c r="F680" s="11"/>
       <c r="G680" s="11"/>
       <c r="H680" s="11"/>
@@ -21562,7 +21845,7 @@
       <c r="B681" s="11"/>
       <c r="C681" s="11"/>
       <c r="D681" s="6"/>
-      <c r="E681" s="11"/>
+      <c r="E681" s="43"/>
       <c r="F681" s="11"/>
       <c r="G681" s="11"/>
       <c r="H681" s="11"/>
@@ -21590,7 +21873,7 @@
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
       <c r="D682" s="6"/>
-      <c r="E682" s="11"/>
+      <c r="E682" s="43"/>
       <c r="F682" s="11"/>
       <c r="G682" s="11"/>
       <c r="H682" s="11"/>
@@ -21618,7 +21901,7 @@
       <c r="B683" s="11"/>
       <c r="C683" s="11"/>
       <c r="D683" s="6"/>
-      <c r="E683" s="11"/>
+      <c r="E683" s="43"/>
       <c r="F683" s="11"/>
       <c r="G683" s="11"/>
       <c r="H683" s="11"/>
@@ -21646,7 +21929,7 @@
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
       <c r="D684" s="6"/>
-      <c r="E684" s="11"/>
+      <c r="E684" s="43"/>
       <c r="F684" s="11"/>
       <c r="G684" s="11"/>
       <c r="H684" s="11"/>
@@ -21674,7 +21957,7 @@
       <c r="B685" s="11"/>
       <c r="C685" s="11"/>
       <c r="D685" s="6"/>
-      <c r="E685" s="11"/>
+      <c r="E685" s="43"/>
       <c r="F685" s="11"/>
       <c r="G685" s="11"/>
       <c r="H685" s="11"/>
@@ -21702,7 +21985,7 @@
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
       <c r="D686" s="6"/>
-      <c r="E686" s="11"/>
+      <c r="E686" s="43"/>
       <c r="F686" s="11"/>
       <c r="G686" s="11"/>
       <c r="H686" s="11"/>
@@ -21730,7 +22013,7 @@
       <c r="B687" s="11"/>
       <c r="C687" s="11"/>
       <c r="D687" s="6"/>
-      <c r="E687" s="11"/>
+      <c r="E687" s="43"/>
       <c r="F687" s="11"/>
       <c r="G687" s="11"/>
       <c r="H687" s="11"/>
@@ -21758,7 +22041,7 @@
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
       <c r="D688" s="6"/>
-      <c r="E688" s="11"/>
+      <c r="E688" s="43"/>
       <c r="F688" s="11"/>
       <c r="G688" s="11"/>
       <c r="H688" s="11"/>
@@ -21786,7 +22069,7 @@
       <c r="B689" s="11"/>
       <c r="C689" s="11"/>
       <c r="D689" s="6"/>
-      <c r="E689" s="11"/>
+      <c r="E689" s="43"/>
       <c r="F689" s="11"/>
       <c r="G689" s="11"/>
       <c r="H689" s="11"/>
@@ -21814,7 +22097,7 @@
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
       <c r="D690" s="6"/>
-      <c r="E690" s="11"/>
+      <c r="E690" s="43"/>
       <c r="F690" s="11"/>
       <c r="G690" s="11"/>
       <c r="H690" s="11"/>
@@ -21842,7 +22125,7 @@
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
       <c r="D691" s="6"/>
-      <c r="E691" s="11"/>
+      <c r="E691" s="43"/>
       <c r="F691" s="11"/>
       <c r="G691" s="11"/>
       <c r="H691" s="11"/>
@@ -21870,7 +22153,7 @@
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
       <c r="D692" s="6"/>
-      <c r="E692" s="11"/>
+      <c r="E692" s="43"/>
       <c r="F692" s="11"/>
       <c r="G692" s="11"/>
       <c r="H692" s="11"/>
@@ -21898,7 +22181,7 @@
       <c r="B693" s="11"/>
       <c r="C693" s="11"/>
       <c r="D693" s="6"/>
-      <c r="E693" s="11"/>
+      <c r="E693" s="43"/>
       <c r="F693" s="11"/>
       <c r="G693" s="11"/>
       <c r="H693" s="11"/>
@@ -21926,7 +22209,7 @@
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
       <c r="D694" s="6"/>
-      <c r="E694" s="11"/>
+      <c r="E694" s="43"/>
       <c r="F694" s="11"/>
       <c r="G694" s="11"/>
       <c r="H694" s="11"/>
@@ -21954,7 +22237,7 @@
       <c r="B695" s="11"/>
       <c r="C695" s="11"/>
       <c r="D695" s="6"/>
-      <c r="E695" s="11"/>
+      <c r="E695" s="43"/>
       <c r="F695" s="11"/>
       <c r="G695" s="11"/>
       <c r="H695" s="11"/>
@@ -21982,7 +22265,7 @@
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
       <c r="D696" s="6"/>
-      <c r="E696" s="11"/>
+      <c r="E696" s="43"/>
       <c r="F696" s="11"/>
       <c r="G696" s="11"/>
       <c r="H696" s="11"/>
@@ -22010,7 +22293,7 @@
       <c r="B697" s="11"/>
       <c r="C697" s="11"/>
       <c r="D697" s="6"/>
-      <c r="E697" s="11"/>
+      <c r="E697" s="43"/>
       <c r="F697" s="11"/>
       <c r="G697" s="11"/>
       <c r="H697" s="11"/>
@@ -22038,7 +22321,7 @@
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
       <c r="D698" s="6"/>
-      <c r="E698" s="11"/>
+      <c r="E698" s="43"/>
       <c r="F698" s="11"/>
       <c r="G698" s="11"/>
       <c r="H698" s="11"/>
@@ -22066,7 +22349,7 @@
       <c r="B699" s="11"/>
       <c r="C699" s="11"/>
       <c r="D699" s="6"/>
-      <c r="E699" s="11"/>
+      <c r="E699" s="43"/>
       <c r="F699" s="11"/>
       <c r="G699" s="11"/>
       <c r="H699" s="11"/>
@@ -22094,7 +22377,7 @@
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
       <c r="D700" s="6"/>
-      <c r="E700" s="11"/>
+      <c r="E700" s="43"/>
       <c r="F700" s="11"/>
       <c r="G700" s="11"/>
       <c r="H700" s="11"/>
@@ -22122,7 +22405,7 @@
       <c r="B701" s="11"/>
       <c r="C701" s="11"/>
       <c r="D701" s="6"/>
-      <c r="E701" s="11"/>
+      <c r="E701" s="43"/>
       <c r="F701" s="11"/>
       <c r="G701" s="11"/>
       <c r="H701" s="11"/>
@@ -22150,7 +22433,7 @@
       <c r="B702" s="11"/>
       <c r="C702" s="11"/>
       <c r="D702" s="6"/>
-      <c r="E702" s="11"/>
+      <c r="E702" s="43"/>
       <c r="F702" s="11"/>
       <c r="G702" s="11"/>
       <c r="H702" s="11"/>
@@ -22178,7 +22461,7 @@
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
       <c r="D703" s="6"/>
-      <c r="E703" s="11"/>
+      <c r="E703" s="43"/>
       <c r="F703" s="11"/>
       <c r="G703" s="11"/>
       <c r="H703" s="11"/>
@@ -22206,7 +22489,7 @@
       <c r="B704" s="11"/>
       <c r="C704" s="11"/>
       <c r="D704" s="6"/>
-      <c r="E704" s="11"/>
+      <c r="E704" s="43"/>
       <c r="F704" s="11"/>
       <c r="G704" s="11"/>
       <c r="H704" s="11"/>
@@ -22234,7 +22517,7 @@
       <c r="B705" s="11"/>
       <c r="C705" s="11"/>
       <c r="D705" s="6"/>
-      <c r="E705" s="11"/>
+      <c r="E705" s="43"/>
       <c r="F705" s="11"/>
       <c r="G705" s="11"/>
       <c r="H705" s="11"/>
@@ -22262,7 +22545,7 @@
       <c r="B706" s="11"/>
       <c r="C706" s="11"/>
       <c r="D706" s="6"/>
-      <c r="E706" s="11"/>
+      <c r="E706" s="43"/>
       <c r="F706" s="11"/>
       <c r="G706" s="11"/>
       <c r="H706" s="11"/>
@@ -22290,7 +22573,7 @@
       <c r="B707" s="11"/>
       <c r="C707" s="11"/>
       <c r="D707" s="6"/>
-      <c r="E707" s="11"/>
+      <c r="E707" s="43"/>
       <c r="F707" s="11"/>
       <c r="G707" s="11"/>
       <c r="H707" s="11"/>
@@ -22318,7 +22601,7 @@
       <c r="B708" s="11"/>
       <c r="C708" s="11"/>
       <c r="D708" s="6"/>
-      <c r="E708" s="11"/>
+      <c r="E708" s="43"/>
       <c r="F708" s="11"/>
       <c r="G708" s="11"/>
       <c r="H708" s="11"/>
@@ -22346,7 +22629,7 @@
       <c r="B709" s="11"/>
       <c r="C709" s="11"/>
       <c r="D709" s="6"/>
-      <c r="E709" s="11"/>
+      <c r="E709" s="43"/>
       <c r="F709" s="11"/>
       <c r="G709" s="11"/>
       <c r="H709" s="11"/>
@@ -22374,7 +22657,7 @@
       <c r="B710" s="11"/>
       <c r="C710" s="11"/>
       <c r="D710" s="6"/>
-      <c r="E710" s="11"/>
+      <c r="E710" s="43"/>
       <c r="F710" s="11"/>
       <c r="G710" s="11"/>
       <c r="H710" s="11"/>
@@ -22402,7 +22685,7 @@
       <c r="B711" s="11"/>
       <c r="C711" s="11"/>
       <c r="D711" s="6"/>
-      <c r="E711" s="11"/>
+      <c r="E711" s="43"/>
       <c r="F711" s="11"/>
       <c r="G711" s="11"/>
       <c r="H711" s="11"/>
@@ -22430,7 +22713,7 @@
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
       <c r="D712" s="6"/>
-      <c r="E712" s="11"/>
+      <c r="E712" s="43"/>
       <c r="F712" s="11"/>
       <c r="G712" s="11"/>
       <c r="H712" s="11"/>
@@ -22458,7 +22741,7 @@
       <c r="B713" s="11"/>
       <c r="C713" s="11"/>
       <c r="D713" s="6"/>
-      <c r="E713" s="11"/>
+      <c r="E713" s="43"/>
       <c r="F713" s="11"/>
       <c r="G713" s="11"/>
       <c r="H713" s="11"/>
@@ -22486,7 +22769,7 @@
       <c r="B714" s="11"/>
       <c r="C714" s="11"/>
       <c r="D714" s="6"/>
-      <c r="E714" s="11"/>
+      <c r="E714" s="43"/>
       <c r="F714" s="11"/>
       <c r="G714" s="11"/>
       <c r="H714" s="11"/>
@@ -22514,7 +22797,7 @@
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
       <c r="D715" s="6"/>
-      <c r="E715" s="11"/>
+      <c r="E715" s="43"/>
       <c r="F715" s="11"/>
       <c r="G715" s="11"/>
       <c r="H715" s="11"/>
@@ -22542,7 +22825,7 @@
       <c r="B716" s="11"/>
       <c r="C716" s="11"/>
       <c r="D716" s="6"/>
-      <c r="E716" s="11"/>
+      <c r="E716" s="43"/>
       <c r="F716" s="11"/>
       <c r="G716" s="11"/>
       <c r="H716" s="11"/>
@@ -22570,7 +22853,7 @@
       <c r="B717" s="11"/>
       <c r="C717" s="11"/>
       <c r="D717" s="6"/>
-      <c r="E717" s="11"/>
+      <c r="E717" s="43"/>
       <c r="F717" s="11"/>
       <c r="G717" s="11"/>
       <c r="H717" s="11"/>
@@ -22598,7 +22881,7 @@
       <c r="B718" s="11"/>
       <c r="C718" s="11"/>
       <c r="D718" s="6"/>
-      <c r="E718" s="11"/>
+      <c r="E718" s="43"/>
       <c r="F718" s="11"/>
       <c r="G718" s="11"/>
       <c r="H718" s="11"/>
@@ -22626,7 +22909,7 @@
       <c r="B719" s="11"/>
       <c r="C719" s="11"/>
       <c r="D719" s="6"/>
-      <c r="E719" s="11"/>
+      <c r="E719" s="43"/>
       <c r="F719" s="11"/>
       <c r="G719" s="11"/>
       <c r="H719" s="11"/>
@@ -22654,7 +22937,7 @@
       <c r="B720" s="11"/>
       <c r="C720" s="11"/>
       <c r="D720" s="6"/>
-      <c r="E720" s="11"/>
+      <c r="E720" s="43"/>
       <c r="F720" s="11"/>
       <c r="G720" s="11"/>
       <c r="H720" s="11"/>
@@ -22682,7 +22965,7 @@
       <c r="B721" s="11"/>
       <c r="C721" s="11"/>
       <c r="D721" s="6"/>
-      <c r="E721" s="11"/>
+      <c r="E721" s="43"/>
       <c r="F721" s="11"/>
       <c r="G721" s="11"/>
       <c r="H721" s="11"/>
@@ -22710,7 +22993,7 @@
       <c r="B722" s="11"/>
       <c r="C722" s="11"/>
       <c r="D722" s="6"/>
-      <c r="E722" s="11"/>
+      <c r="E722" s="43"/>
       <c r="F722" s="11"/>
       <c r="G722" s="11"/>
       <c r="H722" s="11"/>
@@ -22738,7 +23021,7 @@
       <c r="B723" s="11"/>
       <c r="C723" s="11"/>
       <c r="D723" s="6"/>
-      <c r="E723" s="11"/>
+      <c r="E723" s="43"/>
       <c r="F723" s="11"/>
       <c r="G723" s="11"/>
       <c r="H723" s="11"/>
@@ -22766,7 +23049,7 @@
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
       <c r="D724" s="6"/>
-      <c r="E724" s="11"/>
+      <c r="E724" s="43"/>
       <c r="F724" s="11"/>
       <c r="G724" s="11"/>
       <c r="H724" s="11"/>
@@ -22794,7 +23077,7 @@
       <c r="B725" s="11"/>
       <c r="C725" s="11"/>
       <c r="D725" s="6"/>
-      <c r="E725" s="11"/>
+      <c r="E725" s="43"/>
       <c r="F725" s="11"/>
       <c r="G725" s="11"/>
       <c r="H725" s="11"/>
@@ -22822,7 +23105,7 @@
       <c r="B726" s="11"/>
       <c r="C726" s="11"/>
       <c r="D726" s="6"/>
-      <c r="E726" s="11"/>
+      <c r="E726" s="43"/>
       <c r="F726" s="11"/>
       <c r="G726" s="11"/>
       <c r="H726" s="11"/>
@@ -22850,7 +23133,7 @@
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
       <c r="D727" s="6"/>
-      <c r="E727" s="11"/>
+      <c r="E727" s="43"/>
       <c r="F727" s="11"/>
       <c r="G727" s="11"/>
       <c r="H727" s="11"/>
@@ -22878,7 +23161,7 @@
       <c r="B728" s="11"/>
       <c r="C728" s="11"/>
       <c r="D728" s="6"/>
-      <c r="E728" s="11"/>
+      <c r="E728" s="43"/>
       <c r="F728" s="11"/>
       <c r="G728" s="11"/>
       <c r="H728" s="11"/>
@@ -22906,7 +23189,7 @@
       <c r="B729" s="11"/>
       <c r="C729" s="11"/>
       <c r="D729" s="6"/>
-      <c r="E729" s="11"/>
+      <c r="E729" s="43"/>
       <c r="F729" s="11"/>
       <c r="G729" s="11"/>
       <c r="H729" s="11"/>
@@ -22934,7 +23217,7 @@
       <c r="B730" s="11"/>
       <c r="C730" s="11"/>
       <c r="D730" s="6"/>
-      <c r="E730" s="11"/>
+      <c r="E730" s="43"/>
       <c r="F730" s="11"/>
       <c r="G730" s="11"/>
       <c r="H730" s="11"/>
@@ -22962,7 +23245,7 @@
       <c r="B731" s="11"/>
       <c r="C731" s="11"/>
       <c r="D731" s="6"/>
-      <c r="E731" s="11"/>
+      <c r="E731" s="43"/>
       <c r="F731" s="11"/>
       <c r="G731" s="11"/>
       <c r="H731" s="11"/>
@@ -22990,7 +23273,7 @@
       <c r="B732" s="11"/>
       <c r="C732" s="11"/>
       <c r="D732" s="6"/>
-      <c r="E732" s="11"/>
+      <c r="E732" s="43"/>
       <c r="F732" s="11"/>
       <c r="G732" s="11"/>
       <c r="H732" s="11"/>
@@ -23018,7 +23301,7 @@
       <c r="B733" s="11"/>
       <c r="C733" s="11"/>
       <c r="D733" s="6"/>
-      <c r="E733" s="11"/>
+      <c r="E733" s="43"/>
       <c r="F733" s="11"/>
       <c r="G733" s="11"/>
       <c r="H733" s="11"/>
@@ -23046,7 +23329,7 @@
       <c r="B734" s="11"/>
       <c r="C734" s="11"/>
       <c r="D734" s="6"/>
-      <c r="E734" s="11"/>
+      <c r="E734" s="43"/>
       <c r="F734" s="11"/>
       <c r="G734" s="11"/>
       <c r="H734" s="11"/>
@@ -23074,7 +23357,7 @@
       <c r="B735" s="11"/>
       <c r="C735" s="11"/>
       <c r="D735" s="6"/>
-      <c r="E735" s="11"/>
+      <c r="E735" s="43"/>
       <c r="F735" s="11"/>
       <c r="G735" s="11"/>
       <c r="H735" s="11"/>
@@ -23102,7 +23385,7 @@
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
       <c r="D736" s="6"/>
-      <c r="E736" s="11"/>
+      <c r="E736" s="43"/>
       <c r="F736" s="11"/>
       <c r="G736" s="11"/>
       <c r="H736" s="11"/>
@@ -23130,7 +23413,7 @@
       <c r="B737" s="11"/>
       <c r="C737" s="11"/>
       <c r="D737" s="6"/>
-      <c r="E737" s="11"/>
+      <c r="E737" s="43"/>
       <c r="F737" s="11"/>
       <c r="G737" s="11"/>
       <c r="H737" s="11"/>
@@ -23158,7 +23441,7 @@
       <c r="B738" s="11"/>
       <c r="C738" s="11"/>
       <c r="D738" s="6"/>
-      <c r="E738" s="11"/>
+      <c r="E738" s="43"/>
       <c r="F738" s="11"/>
       <c r="G738" s="11"/>
       <c r="H738" s="11"/>
@@ -23186,7 +23469,7 @@
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
       <c r="D739" s="6"/>
-      <c r="E739" s="11"/>
+      <c r="E739" s="43"/>
       <c r="F739" s="11"/>
       <c r="G739" s="11"/>
       <c r="H739" s="11"/>
@@ -23214,7 +23497,7 @@
       <c r="B740" s="11"/>
       <c r="C740" s="11"/>
       <c r="D740" s="6"/>
-      <c r="E740" s="11"/>
+      <c r="E740" s="43"/>
       <c r="F740" s="11"/>
       <c r="G740" s="11"/>
       <c r="H740" s="11"/>
@@ -23242,7 +23525,7 @@
       <c r="B741" s="11"/>
       <c r="C741" s="11"/>
       <c r="D741" s="6"/>
-      <c r="E741" s="11"/>
+      <c r="E741" s="43"/>
       <c r="F741" s="11"/>
       <c r="G741" s="11"/>
       <c r="H741" s="11"/>
@@ -23270,7 +23553,7 @@
       <c r="B742" s="11"/>
       <c r="C742" s="11"/>
       <c r="D742" s="6"/>
-      <c r="E742" s="11"/>
+      <c r="E742" s="43"/>
       <c r="F742" s="11"/>
       <c r="G742" s="11"/>
       <c r="H742" s="11"/>
@@ -23298,7 +23581,7 @@
       <c r="B743" s="11"/>
       <c r="C743" s="11"/>
       <c r="D743" s="6"/>
-      <c r="E743" s="11"/>
+      <c r="E743" s="43"/>
       <c r="F743" s="11"/>
       <c r="G743" s="11"/>
       <c r="H743" s="11"/>
@@ -23326,7 +23609,7 @@
       <c r="B744" s="11"/>
       <c r="C744" s="11"/>
       <c r="D744" s="6"/>
-      <c r="E744" s="11"/>
+      <c r="E744" s="43"/>
       <c r="F744" s="11"/>
       <c r="G744" s="11"/>
       <c r="H744" s="11"/>
@@ -23354,7 +23637,7 @@
       <c r="B745" s="11"/>
       <c r="C745" s="11"/>
       <c r="D745" s="6"/>
-      <c r="E745" s="11"/>
+      <c r="E745" s="43"/>
       <c r="F745" s="11"/>
       <c r="G745" s="11"/>
       <c r="H745" s="11"/>
@@ -23382,7 +23665,7 @@
       <c r="B746" s="11"/>
       <c r="C746" s="11"/>
       <c r="D746" s="6"/>
-      <c r="E746" s="11"/>
+      <c r="E746" s="43"/>
       <c r="F746" s="11"/>
       <c r="G746" s="11"/>
       <c r="H746" s="11"/>
@@ -23410,7 +23693,7 @@
       <c r="B747" s="11"/>
       <c r="C747" s="11"/>
       <c r="D747" s="6"/>
-      <c r="E747" s="11"/>
+      <c r="E747" s="43"/>
       <c r="F747" s="11"/>
       <c r="G747" s="11"/>
       <c r="H747" s="11"/>
@@ -23438,7 +23721,7 @@
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
       <c r="D748" s="6"/>
-      <c r="E748" s="11"/>
+      <c r="E748" s="43"/>
       <c r="F748" s="11"/>
       <c r="G748" s="11"/>
       <c r="H748" s="11"/>
@@ -23466,7 +23749,7 @@
       <c r="B749" s="11"/>
       <c r="C749" s="11"/>
       <c r="D749" s="6"/>
-      <c r="E749" s="11"/>
+      <c r="E749" s="43"/>
       <c r="F749" s="11"/>
       <c r="G749" s="11"/>
       <c r="H749" s="11"/>
@@ -23494,7 +23777,7 @@
       <c r="B750" s="11"/>
       <c r="C750" s="11"/>
       <c r="D750" s="6"/>
-      <c r="E750" s="11"/>
+      <c r="E750" s="43"/>
       <c r="F750" s="11"/>
       <c r="G750" s="11"/>
       <c r="H750" s="11"/>
@@ -23522,7 +23805,7 @@
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
       <c r="D751" s="6"/>
-      <c r="E751" s="11"/>
+      <c r="E751" s="43"/>
       <c r="F751" s="11"/>
       <c r="G751" s="11"/>
       <c r="H751" s="11"/>
@@ -23550,7 +23833,7 @@
       <c r="B752" s="11"/>
       <c r="C752" s="11"/>
       <c r="D752" s="6"/>
-      <c r="E752" s="11"/>
+      <c r="E752" s="43"/>
       <c r="F752" s="11"/>
       <c r="G752" s="11"/>
       <c r="H752" s="11"/>
@@ -23578,7 +23861,7 @@
       <c r="B753" s="11"/>
       <c r="C753" s="11"/>
       <c r="D753" s="6"/>
-      <c r="E753" s="11"/>
+      <c r="E753" s="43"/>
       <c r="F753" s="11"/>
       <c r="G753" s="11"/>
       <c r="H753" s="11"/>
@@ -23606,7 +23889,7 @@
       <c r="B754" s="11"/>
       <c r="C754" s="11"/>
       <c r="D754" s="6"/>
-      <c r="E754" s="11"/>
+      <c r="E754" s="43"/>
       <c r="F754" s="11"/>
       <c r="G754" s="11"/>
       <c r="H754" s="11"/>
@@ -23634,7 +23917,7 @@
       <c r="B755" s="11"/>
       <c r="C755" s="11"/>
       <c r="D755" s="6"/>
-      <c r="E755" s="11"/>
+      <c r="E755" s="43"/>
       <c r="F755" s="11"/>
       <c r="G755" s="11"/>
       <c r="H755" s="11"/>
@@ -23662,7 +23945,7 @@
       <c r="B756" s="11"/>
       <c r="C756" s="11"/>
       <c r="D756" s="6"/>
-      <c r="E756" s="11"/>
+      <c r="E756" s="43"/>
       <c r="F756" s="11"/>
       <c r="G756" s="11"/>
       <c r="H756" s="11"/>
@@ -23690,7 +23973,7 @@
       <c r="B757" s="11"/>
       <c r="C757" s="11"/>
       <c r="D757" s="6"/>
-      <c r="E757" s="11"/>
+      <c r="E757" s="43"/>
       <c r="F757" s="11"/>
       <c r="G757" s="11"/>
       <c r="H757" s="11"/>
@@ -23718,7 +24001,7 @@
       <c r="B758" s="11"/>
       <c r="C758" s="11"/>
       <c r="D758" s="6"/>
-      <c r="E758" s="11"/>
+      <c r="E758" s="43"/>
       <c r="F758" s="11"/>
       <c r="G758" s="11"/>
       <c r="H758" s="11"/>
@@ -23746,7 +24029,7 @@
       <c r="B759" s="11"/>
       <c r="C759" s="11"/>
       <c r="D759" s="6"/>
-      <c r="E759" s="11"/>
+      <c r="E759" s="43"/>
       <c r="F759" s="11"/>
       <c r="G759" s="11"/>
       <c r="H759" s="11"/>
@@ -23774,7 +24057,7 @@
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
       <c r="D760" s="6"/>
-      <c r="E760" s="11"/>
+      <c r="E760" s="43"/>
       <c r="F760" s="11"/>
       <c r="G760" s="11"/>
       <c r="H760" s="11"/>
@@ -23802,7 +24085,7 @@
       <c r="B761" s="11"/>
       <c r="C761" s="11"/>
       <c r="D761" s="6"/>
-      <c r="E761" s="11"/>
+      <c r="E761" s="43"/>
       <c r="F761" s="11"/>
       <c r="G761" s="11"/>
       <c r="H761" s="11"/>
@@ -23830,7 +24113,7 @@
       <c r="B762" s="11"/>
       <c r="C762" s="11"/>
       <c r="D762" s="6"/>
-      <c r="E762" s="11"/>
+      <c r="E762" s="43"/>
       <c r="F762" s="11"/>
       <c r="G762" s="11"/>
       <c r="H762" s="11"/>
@@ -23858,7 +24141,7 @@
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
       <c r="D763" s="6"/>
-      <c r="E763" s="11"/>
+      <c r="E763" s="43"/>
       <c r="F763" s="11"/>
       <c r="G763" s="11"/>
       <c r="H763" s="11"/>
@@ -23886,7 +24169,7 @@
       <c r="B764" s="11"/>
       <c r="C764" s="11"/>
       <c r="D764" s="6"/>
-      <c r="E764" s="11"/>
+      <c r="E764" s="43"/>
       <c r="F764" s="11"/>
       <c r="G764" s="11"/>
       <c r="H764" s="11"/>
@@ -23914,7 +24197,7 @@
       <c r="B765" s="11"/>
       <c r="C765" s="11"/>
       <c r="D765" s="6"/>
-      <c r="E765" s="11"/>
+      <c r="E765" s="43"/>
       <c r="F765" s="11"/>
       <c r="G765" s="11"/>
       <c r="H765" s="11"/>
@@ -23942,7 +24225,7 @@
       <c r="B766" s="11"/>
       <c r="C766" s="11"/>
       <c r="D766" s="6"/>
-      <c r="E766" s="11"/>
+      <c r="E766" s="43"/>
       <c r="F766" s="11"/>
       <c r="G766" s="11"/>
       <c r="H766" s="11"/>
@@ -23970,7 +24253,7 @@
       <c r="B767" s="11"/>
       <c r="C767" s="11"/>
       <c r="D767" s="6"/>
-      <c r="E767" s="11"/>
+      <c r="E767" s="43"/>
       <c r="F767" s="11"/>
       <c r="G767" s="11"/>
       <c r="H767" s="11"/>
@@ -23998,7 +24281,7 @@
       <c r="B768" s="11"/>
       <c r="C768" s="11"/>
       <c r="D768" s="6"/>
-      <c r="E768" s="11"/>
+      <c r="E768" s="43"/>
       <c r="F768" s="11"/>
       <c r="G768" s="11"/>
       <c r="H768" s="11"/>
@@ -24026,7 +24309,7 @@
       <c r="B769" s="11"/>
       <c r="C769" s="11"/>
       <c r="D769" s="6"/>
-      <c r="E769" s="11"/>
+      <c r="E769" s="43"/>
       <c r="F769" s="11"/>
       <c r="G769" s="11"/>
       <c r="H769" s="11"/>
@@ -24054,7 +24337,7 @@
       <c r="B770" s="11"/>
       <c r="C770" s="11"/>
       <c r="D770" s="6"/>
-      <c r="E770" s="11"/>
+      <c r="E770" s="43"/>
       <c r="F770" s="11"/>
       <c r="G770" s="11"/>
       <c r="H770" s="11"/>
@@ -24082,7 +24365,7 @@
       <c r="B771" s="11"/>
       <c r="C771" s="11"/>
       <c r="D771" s="6"/>
-      <c r="E771" s="11"/>
+      <c r="E771" s="43"/>
       <c r="F771" s="11"/>
       <c r="G771" s="11"/>
       <c r="H771" s="11"/>
@@ -24110,7 +24393,7 @@
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
       <c r="D772" s="6"/>
-      <c r="E772" s="11"/>
+      <c r="E772" s="43"/>
       <c r="F772" s="11"/>
       <c r="G772" s="11"/>
       <c r="H772" s="11"/>
@@ -24138,7 +24421,7 @@
       <c r="B773" s="11"/>
       <c r="C773" s="11"/>
       <c r="D773" s="6"/>
-      <c r="E773" s="11"/>
+      <c r="E773" s="43"/>
       <c r="F773" s="11"/>
       <c r="G773" s="11"/>
       <c r="H773" s="11"/>
@@ -24166,7 +24449,7 @@
       <c r="B774" s="11"/>
       <c r="C774" s="11"/>
       <c r="D774" s="6"/>
-      <c r="E774" s="11"/>
+      <c r="E774" s="43"/>
       <c r="F774" s="11"/>
       <c r="G774" s="11"/>
       <c r="H774" s="11"/>
@@ -24194,7 +24477,7 @@
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
       <c r="D775" s="6"/>
-      <c r="E775" s="11"/>
+      <c r="E775" s="43"/>
       <c r="F775" s="11"/>
       <c r="G775" s="11"/>
       <c r="H775" s="11"/>
@@ -24222,7 +24505,7 @@
       <c r="B776" s="11"/>
       <c r="C776" s="11"/>
       <c r="D776" s="6"/>
-      <c r="E776" s="11"/>
+      <c r="E776" s="43"/>
       <c r="F776" s="11"/>
       <c r="G776" s="11"/>
       <c r="H776" s="11"/>
@@ -24250,7 +24533,7 @@
       <c r="B777" s="11"/>
       <c r="C777" s="11"/>
       <c r="D777" s="6"/>
-      <c r="E777" s="11"/>
+      <c r="E777" s="43"/>
       <c r="F777" s="11"/>
       <c r="G777" s="11"/>
       <c r="H777" s="11"/>
@@ -24278,7 +24561,7 @@
       <c r="B778" s="11"/>
       <c r="C778" s="11"/>
       <c r="D778" s="6"/>
-      <c r="E778" s="11"/>
+      <c r="E778" s="43"/>
       <c r="F778" s="11"/>
       <c r="G778" s="11"/>
       <c r="H778" s="11"/>
@@ -24306,7 +24589,7 @@
       <c r="B779" s="11"/>
       <c r="C779" s="11"/>
       <c r="D779" s="6"/>
-      <c r="E779" s="11"/>
+      <c r="E779" s="43"/>
       <c r="F779" s="11"/>
       <c r="G779" s="11"/>
       <c r="H779" s="11"/>
@@ -24334,7 +24617,7 @@
       <c r="B780" s="11"/>
       <c r="C780" s="11"/>
       <c r="D780" s="6"/>
-      <c r="E780" s="11"/>
+      <c r="E780" s="43"/>
       <c r="F780" s="11"/>
       <c r="G780" s="11"/>
       <c r="H780" s="11"/>
@@ -24362,7 +24645,7 @@
       <c r="B781" s="11"/>
       <c r="C781" s="11"/>
       <c r="D781" s="6"/>
-      <c r="E781" s="11"/>
+      <c r="E781" s="43"/>
       <c r="F781" s="11"/>
       <c r="G781" s="11"/>
       <c r="H781" s="11"/>
@@ -24390,7 +24673,7 @@
       <c r="B782" s="11"/>
       <c r="C782" s="11"/>
       <c r="D782" s="6"/>
-      <c r="E782" s="11"/>
+      <c r="E782" s="43"/>
       <c r="F782" s="11"/>
       <c r="G782" s="11"/>
       <c r="H782" s="11"/>
@@ -24418,7 +24701,7 @@
       <c r="B783" s="11"/>
       <c r="C783" s="11"/>
       <c r="D783" s="6"/>
-      <c r="E783" s="11"/>
+      <c r="E783" s="43"/>
       <c r="F783" s="11"/>
       <c r="G783" s="11"/>
       <c r="H783" s="11"/>
@@ -24446,7 +24729,7 @@
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
       <c r="D784" s="6"/>
-      <c r="E784" s="11"/>
+      <c r="E784" s="43"/>
       <c r="F784" s="11"/>
       <c r="G784" s="11"/>
       <c r="H784" s="11"/>
@@ -24474,7 +24757,7 @@
       <c r="B785" s="11"/>
       <c r="C785" s="11"/>
       <c r="D785" s="6"/>
-      <c r="E785" s="11"/>
+      <c r="E785" s="43"/>
       <c r="F785" s="11"/>
       <c r="G785" s="11"/>
       <c r="H785" s="11"/>
@@ -24502,7 +24785,7 @@
       <c r="B786" s="11"/>
       <c r="C786" s="11"/>
       <c r="D786" s="6"/>
-      <c r="E786" s="11"/>
+      <c r="E786" s="43"/>
       <c r="F786" s="11"/>
       <c r="G786" s="11"/>
       <c r="H786" s="11"/>
@@ -24530,7 +24813,7 @@
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
       <c r="D787" s="6"/>
-      <c r="E787" s="11"/>
+      <c r="E787" s="43"/>
       <c r="F787" s="11"/>
       <c r="G787" s="11"/>
       <c r="H787" s="11"/>
@@ -24558,7 +24841,7 @@
       <c r="B788" s="11"/>
       <c r="C788" s="11"/>
       <c r="D788" s="6"/>
-      <c r="E788" s="11"/>
+      <c r="E788" s="43"/>
       <c r="F788" s="11"/>
       <c r="G788" s="11"/>
       <c r="H788" s="11"/>
@@ -24586,7 +24869,7 @@
       <c r="B789" s="11"/>
       <c r="C789" s="11"/>
       <c r="D789" s="6"/>
-      <c r="E789" s="11"/>
+      <c r="E789" s="43"/>
       <c r="F789" s="11"/>
       <c r="G789" s="11"/>
       <c r="H789" s="11"/>
@@ -24614,7 +24897,7 @@
       <c r="B790" s="11"/>
       <c r="C790" s="11"/>
       <c r="D790" s="6"/>
-      <c r="E790" s="11"/>
+      <c r="E790" s="43"/>
       <c r="F790" s="11"/>
       <c r="G790" s="11"/>
       <c r="H790" s="11"/>
@@ -24642,7 +24925,7 @@
       <c r="B791" s="11"/>
       <c r="C791" s="11"/>
       <c r="D791" s="6"/>
-      <c r="E791" s="11"/>
+      <c r="E791" s="43"/>
       <c r="F791" s="11"/>
       <c r="G791" s="11"/>
       <c r="H791" s="11"/>
@@ -24670,7 +24953,7 @@
       <c r="B792" s="11"/>
       <c r="C792" s="11"/>
       <c r="D792" s="6"/>
-      <c r="E792" s="11"/>
+      <c r="E792" s="43"/>
       <c r="F792" s="11"/>
       <c r="G792" s="11"/>
       <c r="H792" s="11"/>
@@ -24698,7 +24981,7 @@
       <c r="B793" s="11"/>
       <c r="C793" s="11"/>
       <c r="D793" s="6"/>
-      <c r="E793" s="11"/>
+      <c r="E793" s="43"/>
       <c r="F793" s="11"/>
       <c r="G793" s="11"/>
       <c r="H793" s="11"/>
@@ -24726,7 +25009,7 @@
       <c r="B794" s="11"/>
       <c r="C794" s="11"/>
       <c r="D794" s="6"/>
-      <c r="E794" s="11"/>
+      <c r="E794" s="43"/>
       <c r="F794" s="11"/>
       <c r="G794" s="11"/>
       <c r="H794" s="11"/>
@@ -24754,7 +25037,7 @@
       <c r="B795" s="11"/>
       <c r="C795" s="11"/>
       <c r="D795" s="6"/>
-      <c r="E795" s="11"/>
+      <c r="E795" s="43"/>
       <c r="F795" s="11"/>
       <c r="G795" s="11"/>
       <c r="H795" s="11"/>
@@ -24782,7 +25065,7 @@
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
       <c r="D796" s="6"/>
-      <c r="E796" s="11"/>
+      <c r="E796" s="43"/>
       <c r="F796" s="11"/>
       <c r="G796" s="11"/>
       <c r="H796" s="11"/>
@@ -24810,7 +25093,7 @@
       <c r="B797" s="11"/>
       <c r="C797" s="11"/>
       <c r="D797" s="6"/>
-      <c r="E797" s="11"/>
+      <c r="E797" s="43"/>
       <c r="F797" s="11"/>
       <c r="G797" s="11"/>
       <c r="H797" s="11"/>
@@ -24838,7 +25121,7 @@
       <c r="B798" s="11"/>
       <c r="C798" s="11"/>
       <c r="D798" s="6"/>
-      <c r="E798" s="11"/>
+      <c r="E798" s="43"/>
       <c r="F798" s="11"/>
       <c r="G798" s="11"/>
       <c r="H798" s="11"/>
@@ -24866,7 +25149,7 @@
       <c r="B799" s="11"/>
       <c r="C799" s="11"/>
       <c r="D799" s="6"/>
-      <c r="E799" s="11"/>
+      <c r="E799" s="43"/>
       <c r="F799" s="11"/>
       <c r="G799" s="11"/>
       <c r="H799" s="11"/>
@@ -24894,7 +25177,7 @@
       <c r="B800" s="11"/>
       <c r="C800" s="11"/>
       <c r="D800" s="6"/>
-      <c r="E800" s="11"/>
+      <c r="E800" s="43"/>
       <c r="F800" s="11"/>
       <c r="G800" s="11"/>
       <c r="H800" s="11"/>
@@ -24922,7 +25205,7 @@
       <c r="B801" s="11"/>
       <c r="C801" s="11"/>
       <c r="D801" s="6"/>
-      <c r="E801" s="11"/>
+      <c r="E801" s="43"/>
       <c r="F801" s="11"/>
       <c r="G801" s="11"/>
       <c r="H801" s="11"/>
@@ -24950,7 +25233,7 @@
       <c r="B802" s="11"/>
       <c r="C802" s="11"/>
       <c r="D802" s="6"/>
-      <c r="E802" s="11"/>
+      <c r="E802" s="43"/>
       <c r="F802" s="11"/>
       <c r="G802" s="11"/>
       <c r="H802" s="11"/>
@@ -24978,7 +25261,7 @@
       <c r="B803" s="11"/>
       <c r="C803" s="11"/>
       <c r="D803" s="6"/>
-      <c r="E803" s="11"/>
+      <c r="E803" s="43"/>
       <c r="F803" s="11"/>
       <c r="G803" s="11"/>
       <c r="H803" s="11"/>
@@ -25006,7 +25289,7 @@
       <c r="B804" s="11"/>
       <c r="C804" s="11"/>
       <c r="D804" s="6"/>
-      <c r="E804" s="11"/>
+      <c r="E804" s="43"/>
       <c r="F804" s="11"/>
       <c r="G804" s="11"/>
       <c r="H804" s="11"/>
@@ -25034,7 +25317,7 @@
       <c r="B805" s="11"/>
       <c r="C805" s="11"/>
       <c r="D805" s="6"/>
-      <c r="E805" s="11"/>
+      <c r="E805" s="43"/>
       <c r="F805" s="11"/>
       <c r="G805" s="11"/>
       <c r="H805" s="11"/>
@@ -25062,7 +25345,7 @@
       <c r="B806" s="11"/>
       <c r="C806" s="11"/>
       <c r="D806" s="6"/>
-      <c r="E806" s="11"/>
+      <c r="E806" s="43"/>
       <c r="F806" s="11"/>
       <c r="G806" s="11"/>
       <c r="H806" s="11"/>
@@ -25090,7 +25373,7 @@
       <c r="B807" s="11"/>
       <c r="C807" s="11"/>
       <c r="D807" s="6"/>
-      <c r="E807" s="11"/>
+      <c r="E807" s="43"/>
       <c r="F807" s="11"/>
       <c r="G807" s="11"/>
       <c r="H807" s="11"/>
@@ -25118,7 +25401,7 @@
       <c r="B808" s="11"/>
       <c r="C808" s="11"/>
       <c r="D808" s="6"/>
-      <c r="E808" s="11"/>
+      <c r="E808" s="43"/>
       <c r="F808" s="11"/>
       <c r="G808" s="11"/>
       <c r="H808" s="11"/>
@@ -25146,7 +25429,7 @@
       <c r="B809" s="11"/>
       <c r="C809" s="11"/>
       <c r="D809" s="6"/>
-      <c r="E809" s="11"/>
+      <c r="E809" s="43"/>
       <c r="F809" s="11"/>
       <c r="G809" s="11"/>
       <c r="H809" s="11"/>
@@ -25174,7 +25457,7 @@
       <c r="B810" s="11"/>
       <c r="C810" s="11"/>
       <c r="D810" s="6"/>
-      <c r="E810" s="11"/>
+      <c r="E810" s="43"/>
       <c r="F810" s="11"/>
       <c r="G810" s="11"/>
       <c r="H810" s="11"/>
@@ -25202,7 +25485,7 @@
       <c r="B811" s="11"/>
       <c r="C811" s="11"/>
       <c r="D811" s="6"/>
-      <c r="E811" s="11"/>
+      <c r="E811" s="43"/>
       <c r="F811" s="11"/>
       <c r="G811" s="11"/>
       <c r="H811" s="11"/>
@@ -25230,7 +25513,7 @@
       <c r="B812" s="11"/>
       <c r="C812" s="11"/>
       <c r="D812" s="6"/>
-      <c r="E812" s="11"/>
+      <c r="E812" s="43"/>
       <c r="F812" s="11"/>
       <c r="G812" s="11"/>
       <c r="H812" s="11"/>
@@ -25258,7 +25541,7 @@
       <c r="B813" s="11"/>
       <c r="C813" s="11"/>
       <c r="D813" s="6"/>
-      <c r="E813" s="11"/>
+      <c r="E813" s="43"/>
       <c r="F813" s="11"/>
       <c r="G813" s="11"/>
       <c r="H813" s="11"/>
@@ -25286,7 +25569,7 @@
       <c r="B814" s="11"/>
       <c r="C814" s="11"/>
       <c r="D814" s="6"/>
-      <c r="E814" s="11"/>
+      <c r="E814" s="43"/>
       <c r="F814" s="11"/>
       <c r="G814" s="11"/>
       <c r="H814" s="11"/>
@@ -25314,7 +25597,7 @@
       <c r="B815" s="11"/>
       <c r="C815" s="11"/>
       <c r="D815" s="6"/>
-      <c r="E815" s="11"/>
+      <c r="E815" s="43"/>
       <c r="F815" s="11"/>
       <c r="G815" s="11"/>
       <c r="H815" s="11"/>
@@ -25342,7 +25625,7 @@
       <c r="B816" s="11"/>
       <c r="C816" s="11"/>
       <c r="D816" s="6"/>
-      <c r="E816" s="11"/>
+      <c r="E816" s="43"/>
       <c r="F816" s="11"/>
       <c r="G816" s="11"/>
       <c r="H816" s="11"/>
@@ -25370,7 +25653,7 @@
       <c r="B817" s="11"/>
       <c r="C817" s="11"/>
       <c r="D817" s="6"/>
-      <c r="E817" s="11"/>
+      <c r="E817" s="43"/>
       <c r="F817" s="11"/>
       <c r="G817" s="11"/>
       <c r="H817" s="11"/>
@@ -25398,7 +25681,7 @@
       <c r="B818" s="11"/>
       <c r="C818" s="11"/>
       <c r="D818" s="6"/>
-      <c r="E818" s="11"/>
+      <c r="E818" s="43"/>
       <c r="F818" s="11"/>
       <c r="G818" s="11"/>
       <c r="H818" s="11"/>
@@ -25426,7 +25709,7 @@
       <c r="B819" s="11"/>
       <c r="C819" s="11"/>
       <c r="D819" s="6"/>
-      <c r="E819" s="11"/>
+      <c r="E819" s="43"/>
       <c r="F819" s="11"/>
       <c r="G819" s="11"/>
       <c r="H819" s="11"/>
@@ -25454,7 +25737,7 @@
       <c r="B820" s="11"/>
       <c r="C820" s="11"/>
       <c r="D820" s="6"/>
-      <c r="E820" s="11"/>
+      <c r="E820" s="43"/>
       <c r="F820" s="11"/>
       <c r="G820" s="11"/>
       <c r="H820" s="11"/>
@@ -25482,7 +25765,7 @@
       <c r="B821" s="11"/>
       <c r="C821" s="11"/>
       <c r="D821" s="6"/>
-      <c r="E821" s="11"/>
+      <c r="E821" s="43"/>
       <c r="F821" s="11"/>
       <c r="G821" s="11"/>
       <c r="H821" s="11"/>
@@ -25510,7 +25793,7 @@
       <c r="B822" s="11"/>
       <c r="C822" s="11"/>
       <c r="D822" s="6"/>
-      <c r="E822" s="11"/>
+      <c r="E822" s="43"/>
       <c r="F822" s="11"/>
       <c r="G822" s="11"/>
       <c r="H822" s="11"/>
@@ -25538,7 +25821,7 @@
       <c r="B823" s="11"/>
       <c r="C823" s="11"/>
       <c r="D823" s="6"/>
-      <c r="E823" s="11"/>
+      <c r="E823" s="43"/>
       <c r="F823" s="11"/>
       <c r="G823" s="11"/>
       <c r="H823" s="11"/>
@@ -25566,7 +25849,7 @@
       <c r="B824" s="11"/>
       <c r="C824" s="11"/>
       <c r="D824" s="6"/>
-      <c r="E824" s="11"/>
+      <c r="E824" s="43"/>
       <c r="F824" s="11"/>
       <c r="G824" s="11"/>
       <c r="H824" s="11"/>
@@ -25594,7 +25877,7 @@
       <c r="B825" s="11"/>
       <c r="C825" s="11"/>
       <c r="D825" s="6"/>
-      <c r="E825" s="11"/>
+      <c r="E825" s="43"/>
       <c r="F825" s="11"/>
       <c r="G825" s="11"/>
       <c r="H825" s="11"/>
@@ -25622,7 +25905,7 @@
       <c r="B826" s="11"/>
       <c r="C826" s="11"/>
       <c r="D826" s="6"/>
-      <c r="E826" s="11"/>
+      <c r="E826" s="43"/>
       <c r="F826" s="11"/>
       <c r="G826" s="11"/>
       <c r="H826" s="11"/>
@@ -25650,7 +25933,7 @@
       <c r="B827" s="11"/>
       <c r="C827" s="11"/>
       <c r="D827" s="6"/>
-      <c r="E827" s="11"/>
+      <c r="E827" s="43"/>
       <c r="F827" s="11"/>
       <c r="G827" s="11"/>
       <c r="H827" s="11"/>
@@ -25678,7 +25961,7 @@
       <c r="B828" s="11"/>
       <c r="C828" s="11"/>
       <c r="D828" s="6"/>
-      <c r="E828" s="11"/>
+      <c r="E828" s="43"/>
       <c r="F828" s="11"/>
       <c r="G828" s="11"/>
       <c r="H828" s="11"/>
@@ -25706,7 +25989,7 @@
       <c r="B829" s="11"/>
       <c r="C829" s="11"/>
       <c r="D829" s="6"/>
-      <c r="E829" s="11"/>
+      <c r="E829" s="43"/>
       <c r="F829" s="11"/>
       <c r="G829" s="11"/>
       <c r="H829" s="11"/>
@@ -25734,7 +26017,7 @@
       <c r="B830" s="11"/>
       <c r="C830" s="11"/>
       <c r="D830" s="6"/>
-      <c r="E830" s="11"/>
+      <c r="E830" s="43"/>
       <c r="F830" s="11"/>
       <c r="G830" s="11"/>
       <c r="H830" s="11"/>
@@ -25762,7 +26045,7 @@
       <c r="B831" s="11"/>
       <c r="C831" s="11"/>
       <c r="D831" s="6"/>
-      <c r="E831" s="11"/>
+      <c r="E831" s="43"/>
       <c r="F831" s="11"/>
       <c r="G831" s="11"/>
       <c r="H831" s="11"/>
@@ -25790,7 +26073,7 @@
       <c r="B832" s="11"/>
       <c r="C832" s="11"/>
       <c r="D832" s="6"/>
-      <c r="E832" s="11"/>
+      <c r="E832" s="43"/>
       <c r="F832" s="11"/>
       <c r="G832" s="11"/>
       <c r="H832" s="11"/>
@@ -25818,7 +26101,7 @@
       <c r="B833" s="11"/>
       <c r="C833" s="11"/>
       <c r="D833" s="6"/>
-      <c r="E833" s="11"/>
+      <c r="E833" s="43"/>
       <c r="F833" s="11"/>
       <c r="G833" s="11"/>
       <c r="H833" s="11"/>
@@ -25846,7 +26129,7 @@
       <c r="B834" s="11"/>
       <c r="C834" s="11"/>
       <c r="D834" s="6"/>
-      <c r="E834" s="11"/>
+      <c r="E834" s="43"/>
       <c r="F834" s="11"/>
       <c r="G834" s="11"/>
       <c r="H834" s="11"/>
@@ -25874,7 +26157,7 @@
       <c r="B835" s="11"/>
       <c r="C835" s="11"/>
       <c r="D835" s="6"/>
-      <c r="E835" s="11"/>
+      <c r="E835" s="43"/>
       <c r="F835" s="11"/>
       <c r="G835" s="11"/>
       <c r="H835" s="11"/>
@@ -25902,7 +26185,7 @@
       <c r="B836" s="11"/>
       <c r="C836" s="11"/>
       <c r="D836" s="6"/>
-      <c r="E836" s="11"/>
+      <c r="E836" s="43"/>
       <c r="F836" s="11"/>
       <c r="G836" s="11"/>
       <c r="H836" s="11"/>
@@ -25930,7 +26213,7 @@
       <c r="B837" s="11"/>
       <c r="C837" s="11"/>
       <c r="D837" s="6"/>
-      <c r="E837" s="11"/>
+      <c r="E837" s="43"/>
       <c r="F837" s="11"/>
       <c r="G837" s="11"/>
       <c r="H837" s="11"/>
@@ -25958,7 +26241,7 @@
       <c r="B838" s="11"/>
       <c r="C838" s="11"/>
       <c r="D838" s="6"/>
-      <c r="E838" s="11"/>
+      <c r="E838" s="43"/>
       <c r="F838" s="11"/>
       <c r="G838" s="11"/>
       <c r="H838" s="11"/>
@@ -25986,7 +26269,7 @@
       <c r="B839" s="11"/>
       <c r="C839" s="11"/>
       <c r="D839" s="6"/>
-      <c r="E839" s="11"/>
+      <c r="E839" s="43"/>
       <c r="F839" s="11"/>
       <c r="G839" s="11"/>
       <c r="H839" s="11"/>
@@ -26014,7 +26297,7 @@
       <c r="B840" s="11"/>
       <c r="C840" s="11"/>
       <c r="D840" s="6"/>
-      <c r="E840" s="11"/>
+      <c r="E840" s="43"/>
       <c r="F840" s="11"/>
       <c r="G840" s="11"/>
       <c r="H840" s="11"/>
@@ -26042,7 +26325,7 @@
       <c r="B841" s="11"/>
       <c r="C841" s="11"/>
       <c r="D841" s="6"/>
-      <c r="E841" s="11"/>
+      <c r="E841" s="43"/>
       <c r="F841" s="11"/>
       <c r="G841" s="11"/>
       <c r="H841" s="11"/>
@@ -26070,7 +26353,7 @@
       <c r="B842" s="11"/>
       <c r="C842" s="11"/>
       <c r="D842" s="6"/>
-      <c r="E842" s="11"/>
+      <c r="E842" s="43"/>
       <c r="F842" s="11"/>
       <c r="G842" s="11"/>
       <c r="H842" s="11"/>
@@ -26098,7 +26381,7 @@
       <c r="B843" s="11"/>
       <c r="C843" s="11"/>
       <c r="D843" s="6"/>
-      <c r="E843" s="11"/>
+      <c r="E843" s="43"/>
       <c r="F843" s="11"/>
       <c r="G843" s="11"/>
       <c r="H843" s="11"/>
@@ -26126,7 +26409,7 @@
       <c r="B844" s="11"/>
       <c r="C844" s="11"/>
       <c r="D844" s="6"/>
-      <c r="E844" s="11"/>
+      <c r="E844" s="43"/>
       <c r="F844" s="11"/>
       <c r="G844" s="11"/>
       <c r="H844" s="11"/>
@@ -26154,7 +26437,7 @@
       <c r="B845" s="11"/>
       <c r="C845" s="11"/>
       <c r="D845" s="6"/>
-      <c r="E845" s="11"/>
+      <c r="E845" s="43"/>
       <c r="F845" s="11"/>
       <c r="G845" s="11"/>
       <c r="H845" s="11"/>
@@ -26182,7 +26465,7 @@
       <c r="B846" s="11"/>
       <c r="C846" s="11"/>
       <c r="D846" s="6"/>
-      <c r="E846" s="11"/>
+      <c r="E846" s="43"/>
       <c r="F846" s="11"/>
       <c r="G846" s="11"/>
       <c r="H846" s="11"/>
@@ -26210,7 +26493,7 @@
       <c r="B847" s="11"/>
       <c r="C847" s="11"/>
       <c r="D847" s="6"/>
-      <c r="E847" s="11"/>
+      <c r="E847" s="43"/>
       <c r="F847" s="11"/>
       <c r="G847" s="11"/>
       <c r="H847" s="11"/>
@@ -26238,7 +26521,7 @@
       <c r="B848" s="11"/>
       <c r="C848" s="11"/>
       <c r="D848" s="6"/>
-      <c r="E848" s="11"/>
+      <c r="E848" s="43"/>
       <c r="F848" s="11"/>
       <c r="G848" s="11"/>
       <c r="H848" s="11"/>
@@ -26266,7 +26549,7 @@
       <c r="B849" s="11"/>
       <c r="C849" s="11"/>
       <c r="D849" s="6"/>
-      <c r="E849" s="11"/>
+      <c r="E849" s="43"/>
       <c r="F849" s="11"/>
       <c r="G849" s="11"/>
       <c r="H849" s="11"/>
@@ -26294,7 +26577,7 @@
       <c r="B850" s="11"/>
       <c r="C850" s="11"/>
       <c r="D850" s="6"/>
-      <c r="E850" s="11"/>
+      <c r="E850" s="43"/>
       <c r="F850" s="11"/>
       <c r="G850" s="11"/>
       <c r="H850" s="11"/>
@@ -26322,7 +26605,7 @@
       <c r="B851" s="11"/>
       <c r="C851" s="11"/>
       <c r="D851" s="6"/>
-      <c r="E851" s="11"/>
+      <c r="E851" s="43"/>
       <c r="F851" s="11"/>
       <c r="G851" s="11"/>
       <c r="H851" s="11"/>
@@ -26350,7 +26633,7 @@
       <c r="B852" s="11"/>
       <c r="C852" s="11"/>
       <c r="D852" s="6"/>
-      <c r="E852" s="11"/>
+      <c r="E852" s="43"/>
       <c r="F852" s="11"/>
       <c r="G852" s="11"/>
       <c r="H852" s="11"/>
@@ -26378,7 +26661,7 @@
       <c r="B853" s="11"/>
       <c r="C853" s="11"/>
       <c r="D853" s="6"/>
-      <c r="E853" s="11"/>
+      <c r="E853" s="43"/>
       <c r="F853" s="11"/>
       <c r="G853" s="11"/>
       <c r="H853" s="11"/>
@@ -26406,7 +26689,7 @@
       <c r="B854" s="11"/>
       <c r="C854" s="11"/>
       <c r="D854" s="6"/>
-      <c r="E854" s="11"/>
+      <c r="E854" s="43"/>
       <c r="F854" s="11"/>
       <c r="G854" s="11"/>
       <c r="H854" s="11"/>
@@ -26434,7 +26717,7 @@
       <c r="B855" s="11"/>
       <c r="C855" s="11"/>
       <c r="D855" s="6"/>
-      <c r="E855" s="11"/>
+      <c r="E855" s="43"/>
       <c r="F855" s="11"/>
       <c r="G855" s="11"/>
       <c r="H855" s="11"/>
@@ -26462,7 +26745,7 @@
       <c r="B856" s="11"/>
       <c r="C856" s="11"/>
       <c r="D856" s="6"/>
-      <c r="E856" s="11"/>
+      <c r="E856" s="43"/>
       <c r="F856" s="11"/>
       <c r="G856" s="11"/>
       <c r="H856" s="11"/>
@@ -26490,7 +26773,7 @@
       <c r="B857" s="11"/>
       <c r="C857" s="11"/>
       <c r="D857" s="6"/>
-      <c r="E857" s="11"/>
+      <c r="E857" s="43"/>
       <c r="F857" s="11"/>
       <c r="G857" s="11"/>
       <c r="H857" s="11"/>
@@ -26518,7 +26801,7 @@
       <c r="B858" s="11"/>
       <c r="C858" s="11"/>
       <c r="D858" s="6"/>
-      <c r="E858" s="11"/>
+      <c r="E858" s="43"/>
       <c r="F858" s="11"/>
       <c r="G858" s="11"/>
       <c r="H858" s="11"/>
@@ -26546,7 +26829,7 @@
       <c r="B859" s="11"/>
       <c r="C859" s="11"/>
       <c r="D859" s="6"/>
-      <c r="E859" s="11"/>
+      <c r="E859" s="43"/>
       <c r="F859" s="11"/>
       <c r="G859" s="11"/>
       <c r="H859" s="11"/>
@@ -26574,7 +26857,7 @@
       <c r="B860" s="11"/>
       <c r="C860" s="11"/>
       <c r="D860" s="6"/>
-      <c r="E860" s="11"/>
+      <c r="E860" s="43"/>
       <c r="F860" s="11"/>
       <c r="G860" s="11"/>
       <c r="H860" s="11"/>
@@ -26602,7 +26885,7 @@
       <c r="B861" s="11"/>
       <c r="C861" s="11"/>
       <c r="D861" s="6"/>
-      <c r="E861" s="11"/>
+      <c r="E861" s="43"/>
       <c r="F861" s="11"/>
       <c r="G861" s="11"/>
       <c r="H861" s="11"/>
@@ -26630,7 +26913,7 @@
       <c r="B862" s="11"/>
       <c r="C862" s="11"/>
       <c r="D862" s="6"/>
-      <c r="E862" s="11"/>
+      <c r="E862" s="43"/>
       <c r="F862" s="11"/>
       <c r="G862" s="11"/>
       <c r="H862" s="11"/>
@@ -26658,7 +26941,7 @@
       <c r="B863" s="11"/>
       <c r="C863" s="11"/>
       <c r="D863" s="6"/>
-      <c r="E863" s="11"/>
+      <c r="E863" s="43"/>
       <c r="F863" s="11"/>
       <c r="G863" s="11"/>
       <c r="H863" s="11"/>
@@ -26686,7 +26969,7 @@
       <c r="B864" s="11"/>
       <c r="C864" s="11"/>
       <c r="D864" s="6"/>
-      <c r="E864" s="11"/>
+      <c r="E864" s="43"/>
       <c r="F864" s="11"/>
       <c r="G864" s="11"/>
       <c r="H864" s="11"/>
@@ -26714,7 +26997,7 @@
       <c r="B865" s="11"/>
       <c r="C865" s="11"/>
       <c r="D865" s="6"/>
-      <c r="E865" s="11"/>
+      <c r="E865" s="43"/>
       <c r="F865" s="11"/>
       <c r="G865" s="11"/>
       <c r="H865" s="11"/>
@@ -26742,7 +27025,7 @@
       <c r="B866" s="11"/>
       <c r="C866" s="11"/>
       <c r="D866" s="6"/>
-      <c r="E866" s="11"/>
+      <c r="E866" s="43"/>
       <c r="F866" s="11"/>
       <c r="G866" s="11"/>
       <c r="H866" s="11"/>
@@ -26770,7 +27053,7 @@
       <c r="B867" s="11"/>
       <c r="C867" s="11"/>
       <c r="D867" s="6"/>
-      <c r="E867" s="11"/>
+      <c r="E867" s="43"/>
       <c r="F867" s="11"/>
       <c r="G867" s="11"/>
       <c r="H867" s="11"/>
@@ -26798,7 +27081,7 @@
       <c r="B868" s="11"/>
       <c r="C868" s="11"/>
       <c r="D868" s="6"/>
-      <c r="E868" s="11"/>
+      <c r="E868" s="43"/>
       <c r="F868" s="11"/>
       <c r="G868" s="11"/>
       <c r="H868" s="11"/>
@@ -26826,7 +27109,7 @@
       <c r="B869" s="11"/>
       <c r="C869" s="11"/>
       <c r="D869" s="6"/>
-      <c r="E869" s="11"/>
+      <c r="E869" s="43"/>
       <c r="F869" s="11"/>
       <c r="G869" s="11"/>
       <c r="H869" s="11"/>
@@ -26854,7 +27137,7 @@
       <c r="B870" s="11"/>
       <c r="C870" s="11"/>
       <c r="D870" s="6"/>
-      <c r="E870" s="11"/>
+      <c r="E870" s="43"/>
       <c r="F870" s="11"/>
       <c r="G870" s="11"/>
       <c r="H870" s="11"/>
@@ -26882,7 +27165,7 @@
       <c r="B871" s="11"/>
       <c r="C871" s="11"/>
       <c r="D871" s="6"/>
-      <c r="E871" s="11"/>
+      <c r="E871" s="43"/>
       <c r="F871" s="11"/>
       <c r="G871" s="11"/>
       <c r="H871" s="11"/>
@@ -26910,7 +27193,7 @@
       <c r="B872" s="11"/>
       <c r="C872" s="11"/>
       <c r="D872" s="6"/>
-      <c r="E872" s="11"/>
+      <c r="E872" s="43"/>
       <c r="F872" s="11"/>
       <c r="G872" s="11"/>
       <c r="H872" s="11"/>
@@ -26938,7 +27221,7 @@
       <c r="B873" s="11"/>
       <c r="C873" s="11"/>
       <c r="D873" s="6"/>
-      <c r="E873" s="11"/>
+      <c r="E873" s="43"/>
       <c r="F873" s="11"/>
       <c r="G873" s="11"/>
       <c r="H873" s="11"/>
@@ -26966,7 +27249,7 @@
       <c r="B874" s="11"/>
       <c r="C874" s="11"/>
       <c r="D874" s="6"/>
-      <c r="E874" s="11"/>
+      <c r="E874" s="43"/>
       <c r="F874" s="11"/>
       <c r="G874" s="11"/>
       <c r="H874" s="11"/>
@@ -26994,7 +27277,7 @@
       <c r="B875" s="11"/>
       <c r="C875" s="11"/>
       <c r="D875" s="6"/>
-      <c r="E875" s="11"/>
+      <c r="E875" s="43"/>
       <c r="F875" s="11"/>
       <c r="G875" s="11"/>
       <c r="H875" s="11"/>
@@ -27022,7 +27305,7 @@
       <c r="B876" s="11"/>
       <c r="C876" s="11"/>
       <c r="D876" s="6"/>
-      <c r="E876" s="11"/>
+      <c r="E876" s="43"/>
       <c r="F876" s="11"/>
       <c r="G876" s="11"/>
       <c r="H876" s="11"/>
@@ -27050,7 +27333,7 @@
       <c r="B877" s="11"/>
       <c r="C877" s="11"/>
       <c r="D877" s="6"/>
-      <c r="E877" s="11"/>
+      <c r="E877" s="43"/>
       <c r="F877" s="11"/>
       <c r="G877" s="11"/>
       <c r="H877" s="11"/>
@@ -27078,7 +27361,7 @@
       <c r="B878" s="11"/>
       <c r="C878" s="11"/>
       <c r="D878" s="6"/>
-      <c r="E878" s="11"/>
+      <c r="E878" s="43"/>
       <c r="F878" s="11"/>
       <c r="G878" s="11"/>
       <c r="H878" s="11"/>
@@ -27106,7 +27389,7 @@
       <c r="B879" s="11"/>
       <c r="C879" s="11"/>
       <c r="D879" s="6"/>
-      <c r="E879" s="11"/>
+      <c r="E879" s="43"/>
       <c r="F879" s="11"/>
       <c r="G879" s="11"/>
       <c r="H879" s="11"/>
@@ -27134,7 +27417,7 @@
       <c r="B880" s="11"/>
       <c r="C880" s="11"/>
       <c r="D880" s="6"/>
-      <c r="E880" s="11"/>
+      <c r="E880" s="43"/>
       <c r="F880" s="11"/>
       <c r="G880" s="11"/>
       <c r="H880" s="11"/>
@@ -27162,7 +27445,7 @@
       <c r="B881" s="11"/>
       <c r="C881" s="11"/>
       <c r="D881" s="6"/>
-      <c r="E881" s="11"/>
+      <c r="E881" s="43"/>
       <c r="F881" s="11"/>
       <c r="G881" s="11"/>
       <c r="H881" s="11"/>
@@ -27190,7 +27473,7 @@
       <c r="B882" s="11"/>
       <c r="C882" s="11"/>
       <c r="D882" s="6"/>
-      <c r="E882" s="11"/>
+      <c r="E882" s="43"/>
       <c r="F882" s="11"/>
       <c r="G882" s="11"/>
       <c r="H882" s="11"/>
@@ -27218,7 +27501,7 @@
       <c r="B883" s="11"/>
       <c r="C883" s="11"/>
       <c r="D883" s="6"/>
-      <c r="E883" s="11"/>
+      <c r="E883" s="43"/>
       <c r="F883" s="11"/>
       <c r="G883" s="11"/>
       <c r="H883" s="11"/>
@@ -27246,7 +27529,7 @@
       <c r="B884" s="11"/>
       <c r="C884" s="11"/>
       <c r="D884" s="6"/>
-      <c r="E884" s="11"/>
+      <c r="E884" s="43"/>
       <c r="F884" s="11"/>
       <c r="G884" s="11"/>
       <c r="H884" s="11"/>
@@ -27274,7 +27557,7 @@
       <c r="B885" s="11"/>
       <c r="C885" s="11"/>
       <c r="D885" s="6"/>
-      <c r="E885" s="11"/>
+      <c r="E885" s="43"/>
       <c r="F885" s="11"/>
       <c r="G885" s="11"/>
       <c r="H885" s="11"/>
@@ -27302,7 +27585,7 @@
       <c r="B886" s="11"/>
       <c r="C886" s="11"/>
       <c r="D886" s="6"/>
-      <c r="E886" s="11"/>
+      <c r="E886" s="43"/>
       <c r="F886" s="11"/>
       <c r="G886" s="11"/>
       <c r="H886" s="11"/>
@@ -27330,7 +27613,7 @@
       <c r="B887" s="11"/>
       <c r="C887" s="11"/>
       <c r="D887" s="6"/>
-      <c r="E887" s="11"/>
+      <c r="E887" s="43"/>
       <c r="F887" s="11"/>
       <c r="G887" s="11"/>
       <c r="H887" s="11"/>
@@ -27358,7 +27641,7 @@
       <c r="B888" s="11"/>
       <c r="C888" s="11"/>
       <c r="D888" s="6"/>
-      <c r="E888" s="11"/>
+      <c r="E888" s="43"/>
       <c r="F888" s="11"/>
       <c r="G888" s="11"/>
       <c r="H888" s="11"/>
@@ -27386,7 +27669,7 @@
       <c r="B889" s="11"/>
       <c r="C889" s="11"/>
       <c r="D889" s="6"/>
-      <c r="E889" s="11"/>
+      <c r="E889" s="43"/>
       <c r="F889" s="11"/>
       <c r="G889" s="11"/>
       <c r="H889" s="11"/>
@@ -27414,7 +27697,7 @@
       <c r="B890" s="11"/>
       <c r="C890" s="11"/>
       <c r="D890" s="6"/>
-      <c r="E890" s="11"/>
+      <c r="E890" s="43"/>
       <c r="F890" s="11"/>
       <c r="G890" s="11"/>
       <c r="H890" s="11"/>
@@ -27442,7 +27725,7 @@
       <c r="B891" s="11"/>
       <c r="C891" s="11"/>
       <c r="D891" s="6"/>
-      <c r="E891" s="11"/>
+      <c r="E891" s="43"/>
       <c r="F891" s="11"/>
       <c r="G891" s="11"/>
       <c r="H891" s="11"/>
@@ -27470,7 +27753,7 @@
       <c r="B892" s="11"/>
       <c r="C892" s="11"/>
       <c r="D892" s="6"/>
-      <c r="E892" s="11"/>
+      <c r="E892" s="43"/>
       <c r="F892" s="11"/>
       <c r="G892" s="11"/>
       <c r="H892" s="11"/>
@@ -27498,7 +27781,7 @@
       <c r="B893" s="11"/>
       <c r="C893" s="11"/>
       <c r="D893" s="6"/>
-      <c r="E893" s="11"/>
+      <c r="E893" s="43"/>
       <c r="F893" s="11"/>
       <c r="G893" s="11"/>
       <c r="H893" s="11"/>
@@ -27526,7 +27809,7 @@
       <c r="B894" s="11"/>
       <c r="C894" s="11"/>
       <c r="D894" s="6"/>
-      <c r="E894" s="11"/>
+      <c r="E894" s="43"/>
       <c r="F894" s="11"/>
       <c r="G894" s="11"/>
       <c r="H894" s="11"/>
@@ -27554,7 +27837,7 @@
       <c r="B895" s="11"/>
       <c r="C895" s="11"/>
       <c r="D895" s="6"/>
-      <c r="E895" s="11"/>
+      <c r="E895" s="43"/>
       <c r="F895" s="11"/>
       <c r="G895" s="11"/>
       <c r="H895" s="11"/>
@@ -27582,7 +27865,7 @@
       <c r="B896" s="11"/>
       <c r="C896" s="11"/>
       <c r="D896" s="6"/>
-      <c r="E896" s="11"/>
+      <c r="E896" s="43"/>
       <c r="F896" s="11"/>
       <c r="G896" s="11"/>
       <c r="H896" s="11"/>
@@ -27610,7 +27893,7 @@
       <c r="B897" s="11"/>
       <c r="C897" s="11"/>
       <c r="D897" s="6"/>
-      <c r="E897" s="11"/>
+      <c r="E897" s="43"/>
       <c r="F897" s="11"/>
       <c r="G897" s="11"/>
       <c r="H897" s="11"/>
@@ -27638,7 +27921,7 @@
       <c r="B898" s="11"/>
       <c r="C898" s="11"/>
       <c r="D898" s="6"/>
-      <c r="E898" s="11"/>
+      <c r="E898" s="43"/>
       <c r="F898" s="11"/>
       <c r="G898" s="11"/>
       <c r="H898" s="11"/>
@@ -27666,7 +27949,7 @@
       <c r="B899" s="11"/>
       <c r="C899" s="11"/>
       <c r="D899" s="6"/>
-      <c r="E899" s="11"/>
+      <c r="E899" s="43"/>
       <c r="F899" s="11"/>
       <c r="G899" s="11"/>
       <c r="H899" s="11"/>
@@ -27694,7 +27977,7 @@
       <c r="B900" s="11"/>
       <c r="C900" s="11"/>
       <c r="D900" s="6"/>
-      <c r="E900" s="11"/>
+      <c r="E900" s="43"/>
       <c r="F900" s="11"/>
       <c r="G900" s="11"/>
       <c r="H900" s="11"/>
@@ -27722,7 +28005,7 @@
       <c r="B901" s="11"/>
       <c r="C901" s="11"/>
       <c r="D901" s="6"/>
-      <c r="E901" s="11"/>
+      <c r="E901" s="43"/>
       <c r="F901" s="11"/>
       <c r="G901" s="11"/>
       <c r="H901" s="11"/>
@@ -27750,7 +28033,7 @@
       <c r="B902" s="11"/>
       <c r="C902" s="11"/>
       <c r="D902" s="6"/>
-      <c r="E902" s="11"/>
+      <c r="E902" s="43"/>
       <c r="F902" s="11"/>
       <c r="G902" s="11"/>
       <c r="H902" s="11"/>
@@ -27778,7 +28061,7 @@
       <c r="B903" s="11"/>
       <c r="C903" s="11"/>
       <c r="D903" s="6"/>
-      <c r="E903" s="11"/>
+      <c r="E903" s="43"/>
       <c r="F903" s="11"/>
       <c r="G903" s="11"/>
       <c r="H903" s="11"/>
@@ -27806,7 +28089,7 @@
       <c r="B904" s="11"/>
       <c r="C904" s="11"/>
       <c r="D904" s="6"/>
-      <c r="E904" s="11"/>
+      <c r="E904" s="43"/>
       <c r="F904" s="11"/>
       <c r="G904" s="11"/>
       <c r="H904" s="11"/>
@@ -27834,7 +28117,7 @@
       <c r="B905" s="11"/>
       <c r="C905" s="11"/>
       <c r="D905" s="6"/>
-      <c r="E905" s="11"/>
+      <c r="E905" s="43"/>
       <c r="F905" s="11"/>
       <c r="G905" s="11"/>
       <c r="H905" s="11"/>
@@ -27862,7 +28145,7 @@
       <c r="B906" s="11"/>
       <c r="C906" s="11"/>
       <c r="D906" s="6"/>
-      <c r="E906" s="11"/>
+      <c r="E906" s="43"/>
       <c r="F906" s="11"/>
       <c r="G906" s="11"/>
       <c r="H906" s="11"/>
@@ -27890,7 +28173,7 @@
       <c r="B907" s="11"/>
       <c r="C907" s="11"/>
       <c r="D907" s="6"/>
-      <c r="E907" s="11"/>
+      <c r="E907" s="43"/>
       <c r="F907" s="11"/>
       <c r="G907" s="11"/>
       <c r="H907" s="11"/>
@@ -27918,7 +28201,7 @@
       <c r="B908" s="11"/>
       <c r="C908" s="11"/>
       <c r="D908" s="6"/>
-      <c r="E908" s="11"/>
+      <c r="E908" s="43"/>
       <c r="F908" s="11"/>
       <c r="G908" s="11"/>
       <c r="H908" s="11"/>
@@ -27946,7 +28229,7 @@
       <c r="B909" s="11"/>
       <c r="C909" s="11"/>
       <c r="D909" s="6"/>
-      <c r="E909" s="11"/>
+      <c r="E909" s="43"/>
       <c r="F909" s="11"/>
       <c r="G909" s="11"/>
       <c r="H909" s="11"/>
@@ -27974,7 +28257,7 @@
       <c r="B910" s="11"/>
       <c r="C910" s="11"/>
       <c r="D910" s="6"/>
-      <c r="E910" s="11"/>
+      <c r="E910" s="43"/>
       <c r="F910" s="11"/>
       <c r="G910" s="11"/>
       <c r="H910" s="11"/>
@@ -28002,7 +28285,7 @@
       <c r="B911" s="11"/>
       <c r="C911" s="11"/>
       <c r="D911" s="6"/>
-      <c r="E911" s="11"/>
+      <c r="E911" s="43"/>
       <c r="F911" s="11"/>
       <c r="G911" s="11"/>
       <c r="H911" s="11"/>
@@ -28030,7 +28313,7 @@
       <c r="B912" s="11"/>
       <c r="C912" s="11"/>
       <c r="D912" s="6"/>
-      <c r="E912" s="11"/>
+      <c r="E912" s="43"/>
       <c r="F912" s="11"/>
       <c r="G912" s="11"/>
       <c r="H912" s="11"/>
@@ -28058,7 +28341,7 @@
       <c r="B913" s="11"/>
       <c r="C913" s="11"/>
       <c r="D913" s="6"/>
-      <c r="E913" s="11"/>
+      <c r="E913" s="43"/>
       <c r="F913" s="11"/>
       <c r="G913" s="11"/>
       <c r="H913" s="11"/>
@@ -28086,7 +28369,7 @@
       <c r="B914" s="11"/>
       <c r="C914" s="11"/>
       <c r="D914" s="6"/>
-      <c r="E914" s="11"/>
+      <c r="E914" s="43"/>
       <c r="F914" s="11"/>
       <c r="G914" s="11"/>
       <c r="H914" s="11"/>
@@ -28114,7 +28397,7 @@
       <c r="B915" s="11"/>
       <c r="C915" s="11"/>
       <c r="D915" s="6"/>
-      <c r="E915" s="11"/>
+      <c r="E915" s="43"/>
       <c r="F915" s="11"/>
       <c r="G915" s="11"/>
       <c r="H915" s="11"/>
@@ -28142,7 +28425,7 @@
       <c r="B916" s="11"/>
       <c r="C916" s="11"/>
       <c r="D916" s="6"/>
-      <c r="E916" s="11"/>
+      <c r="E916" s="43"/>
       <c r="F916" s="11"/>
       <c r="G916" s="11"/>
       <c r="H916" s="11"/>
@@ -28170,7 +28453,7 @@
       <c r="B917" s="11"/>
       <c r="C917" s="11"/>
       <c r="D917" s="6"/>
-      <c r="E917" s="11"/>
+      <c r="E917" s="43"/>
       <c r="F917" s="11"/>
       <c r="G917" s="11"/>
       <c r="H917" s="11"/>
@@ -28198,7 +28481,7 @@
       <c r="B918" s="11"/>
       <c r="C918" s="11"/>
       <c r="D918" s="6"/>
-      <c r="E918" s="11"/>
+      <c r="E918" s="43"/>
       <c r="F918" s="11"/>
       <c r="G918" s="11"/>
       <c r="H918" s="11"/>
@@ -28226,7 +28509,7 @@
       <c r="B919" s="11"/>
       <c r="C919" s="11"/>
       <c r="D919" s="6"/>
-      <c r="E919" s="11"/>
+      <c r="E919" s="43"/>
       <c r="F919" s="11"/>
       <c r="G919" s="11"/>
       <c r="H919" s="11"/>
@@ -28254,7 +28537,7 @@
       <c r="B920" s="11"/>
       <c r="C920" s="11"/>
       <c r="D920" s="6"/>
-      <c r="E920" s="11"/>
+      <c r="E920" s="43"/>
       <c r="F920" s="11"/>
       <c r="G920" s="11"/>
       <c r="H920" s="11"/>
@@ -28282,7 +28565,7 @@
       <c r="B921" s="11"/>
       <c r="C921" s="11"/>
       <c r="D921" s="6"/>
-      <c r="E921" s="11"/>
+      <c r="E921" s="43"/>
       <c r="F921" s="11"/>
       <c r="G921" s="11"/>
       <c r="H921" s="11"/>
@@ -28310,7 +28593,7 @@
       <c r="B922" s="11"/>
       <c r="C922" s="11"/>
       <c r="D922" s="6"/>
-      <c r="E922" s="11"/>
+      <c r="E922" s="43"/>
       <c r="F922" s="11"/>
       <c r="G922" s="11"/>
       <c r="H922" s="11"/>
@@ -28338,7 +28621,7 @@
       <c r="B923" s="11"/>
       <c r="C923" s="11"/>
       <c r="D923" s="6"/>
-      <c r="E923" s="11"/>
+      <c r="E923" s="43"/>
       <c r="F923" s="11"/>
       <c r="G923" s="11"/>
       <c r="H923" s="11"/>
@@ -28366,7 +28649,7 @@
       <c r="B924" s="11"/>
       <c r="C924" s="11"/>
       <c r="D924" s="6"/>
-      <c r="E924" s="11"/>
+      <c r="E924" s="43"/>
       <c r="F924" s="11"/>
       <c r="G924" s="11"/>
       <c r="H924" s="11"/>
@@ -28394,7 +28677,7 @@
       <c r="B925" s="11"/>
       <c r="C925" s="11"/>
       <c r="D925" s="6"/>
-      <c r="E925" s="11"/>
+      <c r="E925" s="43"/>
       <c r="F925" s="11"/>
       <c r="G925" s="11"/>
       <c r="H925" s="11"/>
@@ -28422,7 +28705,7 @@
       <c r="B926" s="11"/>
       <c r="C926" s="11"/>
       <c r="D926" s="6"/>
-      <c r="E926" s="11"/>
+      <c r="E926" s="43"/>
       <c r="F926" s="11"/>
       <c r="G926" s="11"/>
       <c r="H926" s="11"/>
@@ -28450,7 +28733,7 @@
       <c r="B927" s="11"/>
       <c r="C927" s="11"/>
       <c r="D927" s="6"/>
-      <c r="E927" s="11"/>
+      <c r="E927" s="43"/>
       <c r="F927" s="11"/>
       <c r="G927" s="11"/>
       <c r="H927" s="11"/>
@@ -28478,7 +28761,7 @@
       <c r="B928" s="11"/>
       <c r="C928" s="11"/>
       <c r="D928" s="6"/>
-      <c r="E928" s="11"/>
+      <c r="E928" s="43"/>
       <c r="F928" s="11"/>
       <c r="G928" s="11"/>
       <c r="H928" s="11"/>
@@ -28506,7 +28789,7 @@
       <c r="B929" s="11"/>
       <c r="C929" s="11"/>
       <c r="D929" s="6"/>
-      <c r="E929" s="11"/>
+      <c r="E929" s="43"/>
       <c r="F929" s="11"/>
       <c r="G929" s="11"/>
       <c r="H929" s="11"/>
@@ -28534,7 +28817,7 @@
       <c r="B930" s="11"/>
       <c r="C930" s="11"/>
       <c r="D930" s="6"/>
-      <c r="E930" s="11"/>
+      <c r="E930" s="43"/>
       <c r="F930" s="11"/>
       <c r="G930" s="11"/>
       <c r="H930" s="11"/>
@@ -28562,7 +28845,7 @@
       <c r="B931" s="11"/>
       <c r="C931" s="11"/>
       <c r="D931" s="6"/>
-      <c r="E931" s="11"/>
+      <c r="E931" s="43"/>
       <c r="F931" s="11"/>
       <c r="G931" s="11"/>
       <c r="H931" s="11"/>
@@ -28590,7 +28873,7 @@
       <c r="B932" s="11"/>
       <c r="C932" s="11"/>
       <c r="D932" s="6"/>
-      <c r="E932" s="11"/>
+      <c r="E932" s="43"/>
       <c r="F932" s="11"/>
       <c r="G932" s="11"/>
       <c r="H932" s="11"/>
@@ -28618,7 +28901,7 @@
       <c r="B933" s="11"/>
       <c r="C933" s="11"/>
       <c r="D933" s="6"/>
-      <c r="E933" s="11"/>
+      <c r="E933" s="43"/>
       <c r="F933" s="11"/>
       <c r="G933" s="11"/>
       <c r="H933" s="11"/>
@@ -28646,7 +28929,7 @@
       <c r="B934" s="11"/>
       <c r="C934" s="11"/>
       <c r="D934" s="6"/>
-      <c r="E934" s="11"/>
+      <c r="E934" s="43"/>
       <c r="F934" s="11"/>
       <c r="G934" s="11"/>
       <c r="H934" s="11"/>
@@ -28674,7 +28957,7 @@
       <c r="B935" s="11"/>
       <c r="C935" s="11"/>
       <c r="D935" s="6"/>
-      <c r="E935" s="11"/>
+      <c r="E935" s="43"/>
       <c r="F935" s="11"/>
       <c r="G935" s="11"/>
       <c r="H935" s="11"/>
@@ -28702,7 +28985,7 @@
       <c r="B936" s="11"/>
       <c r="C936" s="11"/>
       <c r="D936" s="6"/>
-      <c r="E936" s="11"/>
+      <c r="E936" s="43"/>
       <c r="F936" s="11"/>
       <c r="G936" s="11"/>
       <c r="H936" s="11"/>
@@ -28730,7 +29013,7 @@
       <c r="B937" s="11"/>
       <c r="C937" s="11"/>
       <c r="D937" s="6"/>
-      <c r="E937" s="11"/>
+      <c r="E937" s="43"/>
       <c r="F937" s="11"/>
       <c r="G937" s="11"/>
       <c r="H937" s="11"/>
@@ -28758,7 +29041,7 @@
       <c r="B938" s="11"/>
       <c r="C938" s="11"/>
       <c r="D938" s="6"/>
-      <c r="E938" s="11"/>
+      <c r="E938" s="43"/>
       <c r="F938" s="11"/>
       <c r="G938" s="11"/>
       <c r="H938" s="11"/>
@@ -28786,7 +29069,7 @@
       <c r="B939" s="11"/>
       <c r="C939" s="11"/>
       <c r="D939" s="6"/>
-      <c r="E939" s="11"/>
+      <c r="E939" s="43"/>
       <c r="F939" s="11"/>
       <c r="G939" s="11"/>
       <c r="H939" s="11"/>
@@ -28814,7 +29097,7 @@
       <c r="B940" s="11"/>
       <c r="C940" s="11"/>
       <c r="D940" s="6"/>
-      <c r="E940" s="11"/>
+      <c r="E940" s="43"/>
       <c r="F940" s="11"/>
       <c r="G940" s="11"/>
       <c r="H940" s="11"/>
@@ -28842,7 +29125,7 @@
       <c r="B941" s="11"/>
       <c r="C941" s="11"/>
       <c r="D941" s="6"/>
-      <c r="E941" s="11"/>
+      <c r="E941" s="43"/>
       <c r="F941" s="11"/>
       <c r="G941" s="11"/>
       <c r="H941" s="11"/>
@@ -28870,7 +29153,7 @@
       <c r="B942" s="11"/>
       <c r="C942" s="11"/>
       <c r="D942" s="6"/>
-      <c r="E942" s="11"/>
+      <c r="E942" s="43"/>
       <c r="F942" s="11"/>
       <c r="G942" s="11"/>
       <c r="H942" s="11"/>
@@ -28898,7 +29181,7 @@
       <c r="B943" s="11"/>
       <c r="C943" s="11"/>
       <c r="D943" s="6"/>
-      <c r="E943" s="11"/>
+      <c r="E943" s="43"/>
       <c r="F943" s="11"/>
       <c r="G943" s="11"/>
       <c r="H943" s="11"/>
@@ -28926,7 +29209,7 @@
       <c r="B944" s="11"/>
       <c r="C944" s="11"/>
       <c r="D944" s="6"/>
-      <c r="E944" s="11"/>
+      <c r="E944" s="43"/>
       <c r="F944" s="11"/>
       <c r="G944" s="11"/>
       <c r="H944" s="11"/>
@@ -28954,7 +29237,7 @@
       <c r="B945" s="11"/>
       <c r="C945" s="11"/>
       <c r="D945" s="6"/>
-      <c r="E945" s="11"/>
+      <c r="E945" s="43"/>
       <c r="F945" s="11"/>
       <c r="G945" s="11"/>
       <c r="H945" s="11"/>
@@ -28982,7 +29265,7 @@
       <c r="B946" s="11"/>
       <c r="C946" s="11"/>
       <c r="D946" s="6"/>
-      <c r="E946" s="11"/>
+      <c r="E946" s="43"/>
       <c r="F946" s="11"/>
       <c r="G946" s="11"/>
       <c r="H946" s="11"/>
@@ -29010,7 +29293,7 @@
       <c r="B947" s="11"/>
       <c r="C947" s="11"/>
       <c r="D947" s="6"/>
-      <c r="E947" s="11"/>
+      <c r="E947" s="43"/>
       <c r="F947" s="11"/>
       <c r="G947" s="11"/>
       <c r="H947" s="11"/>
@@ -29038,7 +29321,7 @@
       <c r="B948" s="11"/>
       <c r="C948" s="11"/>
       <c r="D948" s="6"/>
-      <c r="E948" s="11"/>
+      <c r="E948" s="43"/>
       <c r="F948" s="11"/>
       <c r="G948" s="11"/>
       <c r="H948" s="11"/>
@@ -29066,7 +29349,7 @@
       <c r="B949" s="11"/>
       <c r="C949" s="11"/>
       <c r="D949" s="6"/>
-      <c r="E949" s="11"/>
+      <c r="E949" s="43"/>
       <c r="F949" s="11"/>
       <c r="G949" s="11"/>
       <c r="H949" s="11"/>
@@ -29094,7 +29377,7 @@
       <c r="B950" s="11"/>
       <c r="C950" s="11"/>
       <c r="D950" s="6"/>
-      <c r="E950" s="11"/>
+      <c r="E950" s="43"/>
       <c r="F950" s="11"/>
       <c r="G950" s="11"/>
       <c r="H950" s="11"/>
@@ -29122,7 +29405,7 @@
       <c r="B951" s="11"/>
       <c r="C951" s="11"/>
       <c r="D951" s="6"/>
-      <c r="E951" s="11"/>
+      <c r="E951" s="43"/>
       <c r="F951" s="11"/>
       <c r="G951" s="11"/>
       <c r="H951" s="11"/>
@@ -29150,7 +29433,7 @@
       <c r="B952" s="11"/>
       <c r="C952" s="11"/>
       <c r="D952" s="6"/>
-      <c r="E952" s="11"/>
+      <c r="E952" s="43"/>
       <c r="F952" s="11"/>
       <c r="G952" s="11"/>
       <c r="H952" s="11"/>
@@ -29178,7 +29461,7 @@
       <c r="B953" s="11"/>
       <c r="C953" s="11"/>
       <c r="D953" s="6"/>
-      <c r="E953" s="11"/>
+      <c r="E953" s="43"/>
       <c r="F953" s="11"/>
       <c r="G953" s="11"/>
       <c r="H953" s="11"/>
@@ -29206,7 +29489,7 @@
       <c r="B954" s="11"/>
       <c r="C954" s="11"/>
       <c r="D954" s="6"/>
-      <c r="E954" s="11"/>
+      <c r="E954" s="43"/>
       <c r="F954" s="11"/>
       <c r="G954" s="11"/>
       <c r="H954" s="11"/>
@@ -29234,7 +29517,7 @@
       <c r="B955" s="11"/>
       <c r="C955" s="11"/>
       <c r="D955" s="6"/>
-      <c r="E955" s="11"/>
+      <c r="E955" s="43"/>
       <c r="F955" s="11"/>
       <c r="G955" s="11"/>
       <c r="H955" s="11"/>
@@ -29262,7 +29545,7 @@
       <c r="B956" s="11"/>
       <c r="C956" s="11"/>
       <c r="D956" s="6"/>
-      <c r="E956" s="11"/>
+      <c r="E956" s="43"/>
       <c r="F956" s="11"/>
       <c r="G956" s="11"/>
       <c r="H956" s="11"/>
@@ -29290,7 +29573,7 @@
       <c r="B957" s="11"/>
       <c r="C957" s="11"/>
       <c r="D957" s="6"/>
-      <c r="E957" s="11"/>
+      <c r="E957" s="43"/>
       <c r="F957" s="11"/>
       <c r="G957" s="11"/>
       <c r="H957" s="11"/>
@@ -29318,7 +29601,7 @@
       <c r="B958" s="11"/>
       <c r="C958" s="11"/>
       <c r="D958" s="6"/>
-      <c r="E958" s="11"/>
+      <c r="E958" s="43"/>
       <c r="F958" s="11"/>
       <c r="G958" s="11"/>
       <c r="H958" s="11"/>
@@ -29346,7 +29629,7 @@
       <c r="B959" s="11"/>
       <c r="C959" s="11"/>
       <c r="D959" s="6"/>
-      <c r="E959" s="11"/>
+      <c r="E959" s="43"/>
       <c r="F959" s="11"/>
       <c r="G959" s="11"/>
       <c r="H959" s="11"/>
@@ -29374,7 +29657,7 @@
       <c r="B960" s="11"/>
       <c r="C960" s="11"/>
       <c r="D960" s="6"/>
-      <c r="E960" s="11"/>
+      <c r="E960" s="43"/>
       <c r="F960" s="11"/>
       <c r="G960" s="11"/>
       <c r="H960" s="11"/>
@@ -29402,7 +29685,7 @@
       <c r="B961" s="11"/>
       <c r="C961" s="11"/>
       <c r="D961" s="6"/>
-      <c r="E961" s="11"/>
+      <c r="E961" s="43"/>
       <c r="F961" s="11"/>
       <c r="G961" s="11"/>
       <c r="H961" s="11"/>
@@ -29430,7 +29713,7 @@
       <c r="B962" s="11"/>
       <c r="C962" s="11"/>
       <c r="D962" s="6"/>
-      <c r="E962" s="11"/>
+      <c r="E962" s="43"/>
       <c r="F962" s="11"/>
       <c r="G962" s="11"/>
       <c r="H962" s="11"/>
@@ -29458,7 +29741,7 @@
       <c r="B963" s="11"/>
       <c r="C963" s="11"/>
       <c r="D963" s="6"/>
-      <c r="E963" s="11"/>
+      <c r="E963" s="43"/>
       <c r="F963" s="11"/>
       <c r="G963" s="11"/>
       <c r="H963" s="11"/>
@@ -29486,7 +29769,7 @@
       <c r="B964" s="11"/>
       <c r="C964" s="11"/>
       <c r="D964" s="6"/>
-      <c r="E964" s="11"/>
+      <c r="E964" s="43"/>
       <c r="F964" s="11"/>
       <c r="G964" s="11"/>
       <c r="H964" s="11"/>
@@ -29514,7 +29797,7 @@
       <c r="B965" s="11"/>
       <c r="C965" s="11"/>
       <c r="D965" s="6"/>
-      <c r="E965" s="11"/>
+      <c r="E965" s="43"/>
       <c r="F965" s="11"/>
       <c r="G965" s="11"/>
       <c r="H965" s="11"/>
@@ -29542,7 +29825,7 @@
       <c r="B966" s="11"/>
       <c r="C966" s="11"/>
       <c r="D966" s="6"/>
-      <c r="E966" s="11"/>
+      <c r="E966" s="43"/>
       <c r="F966" s="11"/>
       <c r="G966" s="11"/>
       <c r="H966" s="11"/>
@@ -29570,7 +29853,7 @@
       <c r="B967" s="11"/>
       <c r="C967" s="11"/>
       <c r="D967" s="6"/>
-      <c r="E967" s="11"/>
+      <c r="E967" s="43"/>
       <c r="F967" s="11"/>
       <c r="G967" s="11"/>
       <c r="H967" s="11"/>
@@ -29598,7 +29881,7 @@
       <c r="B968" s="11"/>
       <c r="C968" s="11"/>
       <c r="D968" s="6"/>
-      <c r="E968" s="11"/>
+      <c r="E968" s="43"/>
       <c r="F968" s="11"/>
       <c r="G968" s="11"/>
       <c r="H968" s="11"/>
@@ -29626,7 +29909,7 @@
       <c r="B969" s="11"/>
       <c r="C969" s="11"/>
       <c r="D969" s="6"/>
-      <c r="E969" s="11"/>
+      <c r="E969" s="43"/>
       <c r="F969" s="11"/>
       <c r="G969" s="11"/>
       <c r="H969" s="11"/>
@@ -29654,7 +29937,7 @@
       <c r="B970" s="11"/>
       <c r="C970" s="11"/>
       <c r="D970" s="6"/>
-      <c r="E970" s="11"/>
+      <c r="E970" s="43"/>
       <c r="F970" s="11"/>
       <c r="G970" s="11"/>
       <c r="H970" s="11"/>
@@ -29682,7 +29965,7 @@
       <c r="B971" s="11"/>
       <c r="C971" s="11"/>
       <c r="D971" s="6"/>
-      <c r="E971" s="11"/>
+      <c r="E971" s="43"/>
       <c r="F971" s="11"/>
       <c r="G971" s="11"/>
       <c r="H971" s="11"/>
@@ -29710,7 +29993,7 @@
       <c r="B972" s="11"/>
       <c r="C972" s="11"/>
       <c r="D972" s="6"/>
-      <c r="E972" s="11"/>
+      <c r="E972" s="43"/>
       <c r="F972" s="11"/>
       <c r="G972" s="11"/>
       <c r="H972" s="11"/>
@@ -29738,7 +30021,7 @@
       <c r="B973" s="11"/>
       <c r="C973" s="11"/>
       <c r="D973" s="6"/>
-      <c r="E973" s="11"/>
+      <c r="E973" s="43"/>
       <c r="F973" s="11"/>
       <c r="G973" s="11"/>
       <c r="H973" s="11"/>
@@ -29766,7 +30049,7 @@
       <c r="B974" s="11"/>
       <c r="C974" s="11"/>
       <c r="D974" s="6"/>
-      <c r="E974" s="11"/>
+      <c r="E974" s="43"/>
       <c r="F974" s="11"/>
       <c r="G974" s="11"/>
       <c r="H974" s="11"/>
@@ -29794,7 +30077,7 @@
       <c r="B975" s="11"/>
       <c r="C975" s="11"/>
       <c r="D975" s="6"/>
-      <c r="E975" s="11"/>
+      <c r="E975" s="43"/>
       <c r="F975" s="11"/>
       <c r="G975" s="11"/>
       <c r="H975" s="11"/>
@@ -29822,7 +30105,7 @@
       <c r="B976" s="11"/>
       <c r="C976" s="11"/>
       <c r="D976" s="6"/>
-      <c r="E976" s="11"/>
+      <c r="E976" s="43"/>
       <c r="F976" s="11"/>
       <c r="G976" s="11"/>
       <c r="H976" s="11"/>
@@ -29850,7 +30133,7 @@
       <c r="B977" s="11"/>
       <c r="C977" s="11"/>
       <c r="D977" s="6"/>
-      <c r="E977" s="11"/>
+      <c r="E977" s="43"/>
       <c r="F977" s="11"/>
       <c r="G977" s="11"/>
       <c r="H977" s="11"/>
@@ -29878,7 +30161,7 @@
       <c r="B978" s="11"/>
       <c r="C978" s="11"/>
       <c r="D978" s="6"/>
-      <c r="E978" s="11"/>
+      <c r="E978" s="43"/>
       <c r="F978" s="11"/>
       <c r="G978" s="11"/>
       <c r="H978" s="11"/>
@@ -29906,7 +30189,7 @@
       <c r="B979" s="11"/>
       <c r="C979" s="11"/>
       <c r="D979" s="6"/>
-      <c r="E979" s="11"/>
+      <c r="E979" s="43"/>
       <c r="F979" s="11"/>
       <c r="G979" s="11"/>
       <c r="H979" s="11"/>
@@ -29934,7 +30217,7 @@
       <c r="B980" s="11"/>
       <c r="C980" s="11"/>
       <c r="D980" s="6"/>
-      <c r="E980" s="11"/>
+      <c r="E980" s="43"/>
       <c r="F980" s="11"/>
       <c r="G980" s="11"/>
       <c r="H980" s="11"/>
@@ -29962,7 +30245,7 @@
       <c r="B981" s="11"/>
       <c r="C981" s="11"/>
       <c r="D981" s="6"/>
-      <c r="E981" s="11"/>
+      <c r="E981" s="43"/>
       <c r="F981" s="11"/>
       <c r="G981" s="11"/>
       <c r="H981" s="11"/>
@@ -29990,7 +30273,7 @@
       <c r="B982" s="11"/>
       <c r="C982" s="11"/>
       <c r="D982" s="6"/>
-      <c r="E982" s="11"/>
+      <c r="E982" s="43"/>
       <c r="F982" s="11"/>
       <c r="G982" s="11"/>
       <c r="H982" s="11"/>
@@ -30018,7 +30301,7 @@
       <c r="B983" s="11"/>
       <c r="C983" s="11"/>
       <c r="D983" s="6"/>
-      <c r="E983" s="11"/>
+      <c r="E983" s="43"/>
       <c r="F983" s="11"/>
       <c r="G983" s="11"/>
       <c r="H983" s="11"/>
@@ -30046,7 +30329,7 @@
       <c r="B984" s="11"/>
       <c r="C984" s="11"/>
       <c r="D984" s="6"/>
-      <c r="E984" s="11"/>
+      <c r="E984" s="43"/>
       <c r="F984" s="11"/>
       <c r="G984" s="11"/>
       <c r="H984" s="11"/>
@@ -30074,7 +30357,7 @@
       <c r="B985" s="11"/>
       <c r="C985" s="11"/>
       <c r="D985" s="6"/>
-      <c r="E985" s="11"/>
+      <c r="E985" s="43"/>
       <c r="F985" s="11"/>
       <c r="G985" s="11"/>
       <c r="H985" s="11"/>
@@ -30102,7 +30385,7 @@
       <c r="B986" s="11"/>
       <c r="C986" s="11"/>
       <c r="D986" s="6"/>
-      <c r="E986" s="11"/>
+      <c r="E986" s="43"/>
       <c r="F986" s="11"/>
       <c r="G986" s="11"/>
       <c r="H986" s="11"/>
@@ -30130,7 +30413,7 @@
       <c r="B987" s="11"/>
       <c r="C987" s="11"/>
       <c r="D987" s="6"/>
-      <c r="E987" s="11"/>
+      <c r="E987" s="43"/>
       <c r="F987" s="11"/>
       <c r="G987" s="11"/>
       <c r="H987" s="11"/>
@@ -30158,7 +30441,7 @@
       <c r="B988" s="11"/>
       <c r="C988" s="11"/>
       <c r="D988" s="6"/>
-      <c r="E988" s="11"/>
+      <c r="E988" s="43"/>
       <c r="F988" s="11"/>
       <c r="G988" s="11"/>
       <c r="H988" s="11"/>
@@ -30186,7 +30469,7 @@
       <c r="B989" s="11"/>
       <c r="C989" s="11"/>
       <c r="D989" s="6"/>
-      <c r="E989" s="11"/>
+      <c r="E989" s="43"/>
       <c r="F989" s="11"/>
       <c r="G989" s="11"/>
       <c r="H989" s="11"/>
@@ -30214,7 +30497,7 @@
       <c r="B990" s="11"/>
       <c r="C990" s="11"/>
       <c r="D990" s="6"/>
-      <c r="E990" s="11"/>
+      <c r="E990" s="43"/>
       <c r="F990" s="11"/>
       <c r="G990" s="11"/>
       <c r="H990" s="11"/>
@@ -30242,7 +30525,7 @@
       <c r="B991" s="11"/>
       <c r="C991" s="11"/>
       <c r="D991" s="6"/>
-      <c r="E991" s="11"/>
+      <c r="E991" s="43"/>
       <c r="F991" s="11"/>
       <c r="G991" s="11"/>
       <c r="H991" s="11"/>
@@ -30270,7 +30553,7 @@
       <c r="B992" s="11"/>
       <c r="C992" s="11"/>
       <c r="D992" s="6"/>
-      <c r="E992" s="11"/>
+      <c r="E992" s="43"/>
       <c r="F992" s="11"/>
       <c r="G992" s="11"/>
       <c r="H992" s="11"/>
@@ -30298,7 +30581,7 @@
       <c r="B993" s="11"/>
       <c r="C993" s="11"/>
       <c r="D993" s="6"/>
-      <c r="E993" s="11"/>
+      <c r="E993" s="43"/>
       <c r="F993" s="11"/>
       <c r="G993" s="11"/>
       <c r="H993" s="11"/>
@@ -30326,7 +30609,7 @@
       <c r="B994" s="11"/>
       <c r="C994" s="11"/>
       <c r="D994" s="6"/>
-      <c r="E994" s="11"/>
+      <c r="E994" s="43"/>
       <c r="F994" s="11"/>
       <c r="G994" s="11"/>
       <c r="H994" s="11"/>
@@ -30354,7 +30637,7 @@
       <c r="B995" s="11"/>
       <c r="C995" s="11"/>
       <c r="D995" s="6"/>
-      <c r="E995" s="11"/>
+      <c r="E995" s="43"/>
       <c r="F995" s="11"/>
       <c r="G995" s="11"/>
       <c r="H995" s="11"/>
@@ -30382,7 +30665,7 @@
       <c r="B996" s="11"/>
       <c r="C996" s="11"/>
       <c r="D996" s="6"/>
-      <c r="E996" s="11"/>
+      <c r="E996" s="43"/>
       <c r="F996" s="11"/>
       <c r="G996" s="11"/>
       <c r="H996" s="11"/>
@@ -30410,7 +30693,7 @@
       <c r="B997" s="11"/>
       <c r="C997" s="11"/>
       <c r="D997" s="6"/>
-      <c r="E997" s="11"/>
+      <c r="E997" s="43"/>
       <c r="F997" s="11"/>
       <c r="G997" s="11"/>
       <c r="H997" s="11"/>
@@ -30438,7 +30721,7 @@
       <c r="B998" s="11"/>
       <c r="C998" s="11"/>
       <c r="D998" s="6"/>
-      <c r="E998" s="11"/>
+      <c r="E998" s="43"/>
       <c r="F998" s="11"/>
       <c r="G998" s="11"/>
       <c r="H998" s="11"/>
@@ -30466,7 +30749,7 @@
       <c r="B999" s="11"/>
       <c r="C999" s="11"/>
       <c r="D999" s="6"/>
-      <c r="E999" s="11"/>
+      <c r="E999" s="43"/>
       <c r="F999" s="11"/>
       <c r="G999" s="11"/>
       <c r="H999" s="11"/>
@@ -30494,7 +30777,7 @@
       <c r="B1000" s="11"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="6"/>
-      <c r="E1000" s="11"/>
+      <c r="E1000" s="43"/>
       <c r="F1000" s="11"/>
       <c r="G1000" s="11"/>
       <c r="H1000" s="11"/>
@@ -30518,9 +30801,6 @@
       <c r="Z1000" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E80:E81"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C118" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"GOAL 1: No Poverty,GOAL 2: Zero Hunger,GOAL 3: Good Health and Well-being,GOAL 4: Quality Education,GOAL 5: Gender Equality,GOAL 6: Clean Water and Sanitation,GOAL 7: Affordable and Clean Energy,GOAL 8: Decent Work and Economic Growth,GOAL 9: Industry,Inn"&amp;"ovation and Infrastructure,GOAL 10: Reduced Inequality,GOAL 11: Sustainable Cities and Communities,GOAL 12: Responsible Consumption and Production,GOAL 13: Climate Action,GOAL 14: Life Below Water,GOAL 15: Life on Land,GOAL 16: Peace and Justice Strong In"&amp;"stitutions,GOAL 17: Partnerships to achieve the Goal"</formula1>
@@ -39400,9 +39680,23 @@
   </sheetData>
   <autoFilter ref="A1:AA939" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
+    <customSheetView guid="{EEB9587C-5644-49D4-9BD8-11648CAF20B7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:AA35" xr:uid="{E1B70A7C-D11F-DD4B-926B-21181AB1E04D}">
+        <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA35">
+          <sortCondition ref="F2:F35"/>
+          <sortCondition ref="B2:B35"/>
+        </sortState>
+      </autoFilter>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1922262309"/>
+        </ext>
+      </extLst>
+    </customSheetView>
     <customSheetView guid="{438011F2-BD35-4558-B67A-FA45E9D046DB}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F45" xr:uid="{59D19DBB-03E1-FE43-8428-1D51F6F4C6D5}">
+      <autoFilter ref="A1:F45" xr:uid="{2D17A193-8A53-054E-A3E8-10A3D46E7994}">
         <filterColumn colId="1">
           <filters>
             <filter val="India Water Portal"/>
@@ -39414,20 +39708,6 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="33520353"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{EEB9587C-5644-49D4-9BD8-11648CAF20B7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:AA35" xr:uid="{F0677725-A794-6D47-9A82-148FC30EF861}">
-        <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA35">
-          <sortCondition ref="F2:F35"/>
-          <sortCondition ref="B2:B35"/>
-        </sortState>
-      </autoFilter>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1922262309"/>
         </ext>
       </extLst>
     </customSheetView>
